--- a/bots/crawl_ch/output/vegi_coop_2023-01-10.xlsx
+++ b/bots/crawl_ch/output/vegi_coop_2023-01-10.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O532"/>
+  <dimension ref="A1:O520"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -575,7 +575,7 @@
       <c r="N2" t="inlineStr"/>
       <c r="O2" t="inlineStr">
         <is>
-          <t>2023-01-10 12:59:00</t>
+          <t>2023-01-10 20:51:27</t>
         </is>
       </c>
     </row>
@@ -644,7 +644,7 @@
       <c r="N3" t="inlineStr"/>
       <c r="O3" t="inlineStr">
         <is>
-          <t>2023-01-10 12:59:00</t>
+          <t>2023-01-10 20:51:27</t>
         </is>
       </c>
     </row>
@@ -713,7 +713,7 @@
       <c r="N4" t="inlineStr"/>
       <c r="O4" t="inlineStr">
         <is>
-          <t>2023-01-10 12:59:00</t>
+          <t>2023-01-10 20:51:27</t>
         </is>
       </c>
     </row>
@@ -782,7 +782,7 @@
       <c r="N5" t="inlineStr"/>
       <c r="O5" t="inlineStr">
         <is>
-          <t>2023-01-10 12:59:00</t>
+          <t>2023-01-10 20:51:27</t>
         </is>
       </c>
     </row>
@@ -847,7 +847,7 @@
       <c r="N6" t="inlineStr"/>
       <c r="O6" t="inlineStr">
         <is>
-          <t>2023-01-10 12:59:00</t>
+          <t>2023-01-10 20:51:27</t>
         </is>
       </c>
     </row>
@@ -916,7 +916,7 @@
       <c r="N7" t="inlineStr"/>
       <c r="O7" t="inlineStr">
         <is>
-          <t>2023-01-10 12:59:00</t>
+          <t>2023-01-10 20:51:27</t>
         </is>
       </c>
     </row>
@@ -981,7 +981,7 @@
       <c r="N8" t="inlineStr"/>
       <c r="O8" t="inlineStr">
         <is>
-          <t>2023-01-10 12:59:00</t>
+          <t>2023-01-10 20:51:27</t>
         </is>
       </c>
     </row>
@@ -1046,7 +1046,7 @@
       <c r="N9" t="inlineStr"/>
       <c r="O9" t="inlineStr">
         <is>
-          <t>2023-01-10 12:59:00</t>
+          <t>2023-01-10 20:51:27</t>
         </is>
       </c>
     </row>
@@ -1111,7 +1111,7 @@
       <c r="N10" t="inlineStr"/>
       <c r="O10" t="inlineStr">
         <is>
-          <t>2023-01-10 12:59:00</t>
+          <t>2023-01-10 20:51:27</t>
         </is>
       </c>
     </row>
@@ -1176,7 +1176,7 @@
       <c r="N11" t="inlineStr"/>
       <c r="O11" t="inlineStr">
         <is>
-          <t>2023-01-10 12:59:00</t>
+          <t>2023-01-10 20:51:27</t>
         </is>
       </c>
     </row>
@@ -1245,7 +1245,7 @@
       <c r="N12" t="inlineStr"/>
       <c r="O12" t="inlineStr">
         <is>
-          <t>2023-01-10 12:59:00</t>
+          <t>2023-01-10 20:51:27</t>
         </is>
       </c>
     </row>
@@ -1310,7 +1310,7 @@
       <c r="N13" t="inlineStr"/>
       <c r="O13" t="inlineStr">
         <is>
-          <t>2023-01-10 12:59:00</t>
+          <t>2023-01-10 20:51:27</t>
         </is>
       </c>
     </row>
@@ -1379,7 +1379,7 @@
       <c r="N14" t="inlineStr"/>
       <c r="O14" t="inlineStr">
         <is>
-          <t>2023-01-10 12:59:00</t>
+          <t>2023-01-10 20:51:27</t>
         </is>
       </c>
     </row>
@@ -1448,7 +1448,7 @@
       <c r="N15" t="inlineStr"/>
       <c r="O15" t="inlineStr">
         <is>
-          <t>2023-01-10 12:59:00</t>
+          <t>2023-01-10 20:51:27</t>
         </is>
       </c>
     </row>
@@ -1517,7 +1517,7 @@
       <c r="N16" t="inlineStr"/>
       <c r="O16" t="inlineStr">
         <is>
-          <t>2023-01-10 12:59:00</t>
+          <t>2023-01-10 20:51:27</t>
         </is>
       </c>
     </row>
@@ -1586,7 +1586,7 @@
       <c r="N17" t="inlineStr"/>
       <c r="O17" t="inlineStr">
         <is>
-          <t>2023-01-10 12:59:00</t>
+          <t>2023-01-10 20:51:27</t>
         </is>
       </c>
     </row>
@@ -1655,7 +1655,7 @@
       <c r="N18" t="inlineStr"/>
       <c r="O18" t="inlineStr">
         <is>
-          <t>2023-01-10 12:59:00</t>
+          <t>2023-01-10 20:51:27</t>
         </is>
       </c>
     </row>
@@ -1724,7 +1724,7 @@
       <c r="N19" t="inlineStr"/>
       <c r="O19" t="inlineStr">
         <is>
-          <t>2023-01-10 12:59:00</t>
+          <t>2023-01-10 20:51:27</t>
         </is>
       </c>
     </row>
@@ -1789,7 +1789,7 @@
       <c r="N20" t="inlineStr"/>
       <c r="O20" t="inlineStr">
         <is>
-          <t>2023-01-10 12:59:00</t>
+          <t>2023-01-10 20:51:27</t>
         </is>
       </c>
     </row>
@@ -1858,7 +1858,7 @@
       <c r="N21" t="inlineStr"/>
       <c r="O21" t="inlineStr">
         <is>
-          <t>2023-01-10 12:59:00</t>
+          <t>2023-01-10 20:51:27</t>
         </is>
       </c>
     </row>
@@ -1923,7 +1923,7 @@
       <c r="N22" t="inlineStr"/>
       <c r="O22" t="inlineStr">
         <is>
-          <t>2023-01-10 12:59:00</t>
+          <t>2023-01-10 20:51:27</t>
         </is>
       </c>
     </row>
@@ -1992,7 +1992,7 @@
       <c r="N23" t="inlineStr"/>
       <c r="O23" t="inlineStr">
         <is>
-          <t>2023-01-10 12:59:00</t>
+          <t>2023-01-10 20:51:27</t>
         </is>
       </c>
     </row>
@@ -2057,7 +2057,7 @@
       <c r="N24" t="inlineStr"/>
       <c r="O24" t="inlineStr">
         <is>
-          <t>2023-01-10 12:59:00</t>
+          <t>2023-01-10 20:51:27</t>
         </is>
       </c>
     </row>
@@ -2126,7 +2126,7 @@
       <c r="N25" t="inlineStr"/>
       <c r="O25" t="inlineStr">
         <is>
-          <t>2023-01-10 12:59:00</t>
+          <t>2023-01-10 20:51:27</t>
         </is>
       </c>
     </row>
@@ -2195,7 +2195,7 @@
       <c r="N26" t="inlineStr"/>
       <c r="O26" t="inlineStr">
         <is>
-          <t>2023-01-10 12:59:00</t>
+          <t>2023-01-10 20:51:27</t>
         </is>
       </c>
     </row>
@@ -2264,7 +2264,7 @@
       <c r="N27" t="inlineStr"/>
       <c r="O27" t="inlineStr">
         <is>
-          <t>2023-01-10 12:59:00</t>
+          <t>2023-01-10 20:51:27</t>
         </is>
       </c>
     </row>
@@ -2333,7 +2333,7 @@
       <c r="N28" t="inlineStr"/>
       <c r="O28" t="inlineStr">
         <is>
-          <t>2023-01-10 12:59:00</t>
+          <t>2023-01-10 20:51:27</t>
         </is>
       </c>
     </row>
@@ -2402,7 +2402,7 @@
       <c r="N29" t="inlineStr"/>
       <c r="O29" t="inlineStr">
         <is>
-          <t>2023-01-10 12:59:00</t>
+          <t>2023-01-10 20:51:27</t>
         </is>
       </c>
     </row>
@@ -2467,7 +2467,7 @@
       <c r="N30" t="inlineStr"/>
       <c r="O30" t="inlineStr">
         <is>
-          <t>2023-01-10 12:59:00</t>
+          <t>2023-01-10 20:51:27</t>
         </is>
       </c>
     </row>
@@ -2536,7 +2536,7 @@
       <c r="N31" t="inlineStr"/>
       <c r="O31" t="inlineStr">
         <is>
-          <t>2023-01-10 12:59:00</t>
+          <t>2023-01-10 20:51:27</t>
         </is>
       </c>
     </row>
@@ -2601,7 +2601,7 @@
       <c r="N32" t="inlineStr"/>
       <c r="O32" t="inlineStr">
         <is>
-          <t>2023-01-10 12:59:00</t>
+          <t>2023-01-10 20:51:27</t>
         </is>
       </c>
     </row>
@@ -2670,7 +2670,7 @@
       <c r="N33" t="inlineStr"/>
       <c r="O33" t="inlineStr">
         <is>
-          <t>2023-01-10 12:59:00</t>
+          <t>2023-01-10 20:51:27</t>
         </is>
       </c>
     </row>
@@ -2743,7 +2743,7 @@
       </c>
       <c r="O34" t="inlineStr">
         <is>
-          <t>2023-01-10 12:59:00</t>
+          <t>2023-01-10 20:51:27</t>
         </is>
       </c>
     </row>
@@ -2812,7 +2812,7 @@
       <c r="N35" t="inlineStr"/>
       <c r="O35" t="inlineStr">
         <is>
-          <t>2023-01-10 12:59:00</t>
+          <t>2023-01-10 20:51:27</t>
         </is>
       </c>
     </row>
@@ -2881,7 +2881,7 @@
       <c r="N36" t="inlineStr"/>
       <c r="O36" t="inlineStr">
         <is>
-          <t>2023-01-10 12:59:00</t>
+          <t>2023-01-10 20:51:27</t>
         </is>
       </c>
     </row>
@@ -2950,7 +2950,7 @@
       <c r="N37" t="inlineStr"/>
       <c r="O37" t="inlineStr">
         <is>
-          <t>2023-01-10 12:59:00</t>
+          <t>2023-01-10 20:51:27</t>
         </is>
       </c>
     </row>
@@ -3019,7 +3019,7 @@
       <c r="N38" t="inlineStr"/>
       <c r="O38" t="inlineStr">
         <is>
-          <t>2023-01-10 12:59:00</t>
+          <t>2023-01-10 20:51:27</t>
         </is>
       </c>
     </row>
@@ -3088,7 +3088,7 @@
       <c r="N39" t="inlineStr"/>
       <c r="O39" t="inlineStr">
         <is>
-          <t>2023-01-10 12:59:00</t>
+          <t>2023-01-10 20:51:27</t>
         </is>
       </c>
     </row>
@@ -3153,7 +3153,7 @@
       <c r="N40" t="inlineStr"/>
       <c r="O40" t="inlineStr">
         <is>
-          <t>2023-01-10 12:59:00</t>
+          <t>2023-01-10 20:51:27</t>
         </is>
       </c>
     </row>
@@ -3222,7 +3222,7 @@
       <c r="N41" t="inlineStr"/>
       <c r="O41" t="inlineStr">
         <is>
-          <t>2023-01-10 12:59:00</t>
+          <t>2023-01-10 20:51:27</t>
         </is>
       </c>
     </row>
@@ -3287,7 +3287,7 @@
       <c r="N42" t="inlineStr"/>
       <c r="O42" t="inlineStr">
         <is>
-          <t>2023-01-10 12:59:00</t>
+          <t>2023-01-10 20:51:27</t>
         </is>
       </c>
     </row>
@@ -3356,7 +3356,7 @@
       <c r="N43" t="inlineStr"/>
       <c r="O43" t="inlineStr">
         <is>
-          <t>2023-01-10 12:59:00</t>
+          <t>2023-01-10 20:51:27</t>
         </is>
       </c>
     </row>
@@ -3425,7 +3425,7 @@
       <c r="N44" t="inlineStr"/>
       <c r="O44" t="inlineStr">
         <is>
-          <t>2023-01-10 12:59:00</t>
+          <t>2023-01-10 20:51:27</t>
         </is>
       </c>
     </row>
@@ -3494,7 +3494,7 @@
       <c r="N45" t="inlineStr"/>
       <c r="O45" t="inlineStr">
         <is>
-          <t>2023-01-10 12:59:00</t>
+          <t>2023-01-10 20:51:27</t>
         </is>
       </c>
     </row>
@@ -3563,7 +3563,7 @@
       <c r="N46" t="inlineStr"/>
       <c r="O46" t="inlineStr">
         <is>
-          <t>2023-01-10 12:59:00</t>
+          <t>2023-01-10 20:51:27</t>
         </is>
       </c>
     </row>
@@ -3628,7 +3628,7 @@
       <c r="N47" t="inlineStr"/>
       <c r="O47" t="inlineStr">
         <is>
-          <t>2023-01-10 12:59:00</t>
+          <t>2023-01-10 20:51:27</t>
         </is>
       </c>
     </row>
@@ -3697,7 +3697,7 @@
       <c r="N48" t="inlineStr"/>
       <c r="O48" t="inlineStr">
         <is>
-          <t>2023-01-10 12:59:00</t>
+          <t>2023-01-10 20:51:27</t>
         </is>
       </c>
     </row>
@@ -3766,7 +3766,7 @@
       <c r="N49" t="inlineStr"/>
       <c r="O49" t="inlineStr">
         <is>
-          <t>2023-01-10 12:59:00</t>
+          <t>2023-01-10 20:51:27</t>
         </is>
       </c>
     </row>
@@ -3831,7 +3831,7 @@
       <c r="N50" t="inlineStr"/>
       <c r="O50" t="inlineStr">
         <is>
-          <t>2023-01-10 12:59:00</t>
+          <t>2023-01-10 20:51:27</t>
         </is>
       </c>
     </row>
@@ -3904,7 +3904,7 @@
       </c>
       <c r="O51" t="inlineStr">
         <is>
-          <t>2023-01-10 12:59:00</t>
+          <t>2023-01-10 20:51:27</t>
         </is>
       </c>
     </row>
@@ -3973,7 +3973,7 @@
       <c r="N52" t="inlineStr"/>
       <c r="O52" t="inlineStr">
         <is>
-          <t>2023-01-10 12:59:00</t>
+          <t>2023-01-10 20:51:27</t>
         </is>
       </c>
     </row>
@@ -4038,7 +4038,7 @@
       <c r="N53" t="inlineStr"/>
       <c r="O53" t="inlineStr">
         <is>
-          <t>2023-01-10 12:59:00</t>
+          <t>2023-01-10 20:51:27</t>
         </is>
       </c>
     </row>
@@ -4107,7 +4107,7 @@
       <c r="N54" t="inlineStr"/>
       <c r="O54" t="inlineStr">
         <is>
-          <t>2023-01-10 12:59:00</t>
+          <t>2023-01-10 20:51:27</t>
         </is>
       </c>
     </row>
@@ -4176,7 +4176,7 @@
       <c r="N55" t="inlineStr"/>
       <c r="O55" t="inlineStr">
         <is>
-          <t>2023-01-10 12:59:00</t>
+          <t>2023-01-10 20:51:27</t>
         </is>
       </c>
     </row>
@@ -4245,7 +4245,7 @@
       <c r="N56" t="inlineStr"/>
       <c r="O56" t="inlineStr">
         <is>
-          <t>2023-01-10 12:59:00</t>
+          <t>2023-01-10 20:51:27</t>
         </is>
       </c>
     </row>
@@ -4318,7 +4318,7 @@
       </c>
       <c r="O57" t="inlineStr">
         <is>
-          <t>2023-01-10 12:59:00</t>
+          <t>2023-01-10 20:51:27</t>
         </is>
       </c>
     </row>
@@ -4391,7 +4391,7 @@
       </c>
       <c r="O58" t="inlineStr">
         <is>
-          <t>2023-01-10 12:59:00</t>
+          <t>2023-01-10 20:51:27</t>
         </is>
       </c>
     </row>
@@ -4456,7 +4456,7 @@
       <c r="N59" t="inlineStr"/>
       <c r="O59" t="inlineStr">
         <is>
-          <t>2023-01-10 12:59:00</t>
+          <t>2023-01-10 20:51:27</t>
         </is>
       </c>
     </row>
@@ -4521,7 +4521,7 @@
       <c r="N60" t="inlineStr"/>
       <c r="O60" t="inlineStr">
         <is>
-          <t>2023-01-10 12:59:00</t>
+          <t>2023-01-10 20:51:27</t>
         </is>
       </c>
     </row>
@@ -4586,7 +4586,7 @@
       <c r="N61" t="inlineStr"/>
       <c r="O61" t="inlineStr">
         <is>
-          <t>2023-01-10 12:59:00</t>
+          <t>2023-01-10 20:51:27</t>
         </is>
       </c>
     </row>
@@ -4655,7 +4655,7 @@
       <c r="N62" t="inlineStr"/>
       <c r="O62" t="inlineStr">
         <is>
-          <t>2023-01-10 12:59:00</t>
+          <t>2023-01-10 20:51:27</t>
         </is>
       </c>
     </row>
@@ -4720,7 +4720,7 @@
       <c r="N63" t="inlineStr"/>
       <c r="O63" t="inlineStr">
         <is>
-          <t>2023-01-10 12:59:00</t>
+          <t>2023-01-10 20:51:27</t>
         </is>
       </c>
     </row>
@@ -4789,7 +4789,7 @@
       <c r="N64" t="inlineStr"/>
       <c r="O64" t="inlineStr">
         <is>
-          <t>2023-01-10 12:59:00</t>
+          <t>2023-01-10 20:51:27</t>
         </is>
       </c>
     </row>
@@ -4858,7 +4858,7 @@
       <c r="N65" t="inlineStr"/>
       <c r="O65" t="inlineStr">
         <is>
-          <t>2023-01-10 12:59:00</t>
+          <t>2023-01-10 20:51:27</t>
         </is>
       </c>
     </row>
@@ -4923,7 +4923,7 @@
       <c r="N66" t="inlineStr"/>
       <c r="O66" t="inlineStr">
         <is>
-          <t>2023-01-10 12:59:00</t>
+          <t>2023-01-10 20:51:27</t>
         </is>
       </c>
     </row>
@@ -4992,7 +4992,7 @@
       <c r="N67" t="inlineStr"/>
       <c r="O67" t="inlineStr">
         <is>
-          <t>2023-01-10 12:59:00</t>
+          <t>2023-01-10 20:51:27</t>
         </is>
       </c>
     </row>
@@ -5061,7 +5061,7 @@
       <c r="N68" t="inlineStr"/>
       <c r="O68" t="inlineStr">
         <is>
-          <t>2023-01-10 12:59:00</t>
+          <t>2023-01-10 20:51:27</t>
         </is>
       </c>
     </row>
@@ -5130,7 +5130,7 @@
       <c r="N69" t="inlineStr"/>
       <c r="O69" t="inlineStr">
         <is>
-          <t>2023-01-10 12:59:00</t>
+          <t>2023-01-10 20:51:27</t>
         </is>
       </c>
     </row>
@@ -5199,7 +5199,7 @@
       <c r="N70" t="inlineStr"/>
       <c r="O70" t="inlineStr">
         <is>
-          <t>2023-01-10 12:59:00</t>
+          <t>2023-01-10 20:51:27</t>
         </is>
       </c>
     </row>
@@ -5268,7 +5268,7 @@
       <c r="N71" t="inlineStr"/>
       <c r="O71" t="inlineStr">
         <is>
-          <t>2023-01-10 12:59:00</t>
+          <t>2023-01-10 20:51:27</t>
         </is>
       </c>
     </row>
@@ -5337,7 +5337,7 @@
       <c r="N72" t="inlineStr"/>
       <c r="O72" t="inlineStr">
         <is>
-          <t>2023-01-10 12:59:00</t>
+          <t>2023-01-10 20:51:27</t>
         </is>
       </c>
     </row>
@@ -5402,7 +5402,7 @@
       <c r="N73" t="inlineStr"/>
       <c r="O73" t="inlineStr">
         <is>
-          <t>2023-01-10 12:59:00</t>
+          <t>2023-01-10 20:51:27</t>
         </is>
       </c>
     </row>
@@ -5467,7 +5467,7 @@
       <c r="N74" t="inlineStr"/>
       <c r="O74" t="inlineStr">
         <is>
-          <t>2023-01-10 12:59:00</t>
+          <t>2023-01-10 20:51:27</t>
         </is>
       </c>
     </row>
@@ -5536,7 +5536,7 @@
       <c r="N75" t="inlineStr"/>
       <c r="O75" t="inlineStr">
         <is>
-          <t>2023-01-10 12:59:00</t>
+          <t>2023-01-10 20:51:27</t>
         </is>
       </c>
     </row>
@@ -5601,7 +5601,7 @@
       <c r="N76" t="inlineStr"/>
       <c r="O76" t="inlineStr">
         <is>
-          <t>2023-01-10 12:59:00</t>
+          <t>2023-01-10 20:51:27</t>
         </is>
       </c>
     </row>
@@ -5666,7 +5666,7 @@
       <c r="N77" t="inlineStr"/>
       <c r="O77" t="inlineStr">
         <is>
-          <t>2023-01-10 12:59:00</t>
+          <t>2023-01-10 20:51:27</t>
         </is>
       </c>
     </row>
@@ -5731,7 +5731,7 @@
       <c r="N78" t="inlineStr"/>
       <c r="O78" t="inlineStr">
         <is>
-          <t>2023-01-10 12:59:00</t>
+          <t>2023-01-10 20:51:27</t>
         </is>
       </c>
     </row>
@@ -5784,7 +5784,7 @@
       <c r="N79" t="inlineStr"/>
       <c r="O79" t="inlineStr">
         <is>
-          <t>2023-01-10 12:59:00</t>
+          <t>2023-01-10 20:51:27</t>
         </is>
       </c>
     </row>
@@ -5857,7 +5857,7 @@
       </c>
       <c r="O80" t="inlineStr">
         <is>
-          <t>2023-01-10 12:59:00</t>
+          <t>2023-01-10 20:51:27</t>
         </is>
       </c>
     </row>
@@ -5904,13 +5904,13 @@
       </c>
       <c r="M81" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Limetten 1 Stück 0.95 Schweizer Franken</t>
+          <t>Naturaplan Bio Limetten 1 Stück - Online kein Bestand 0.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N81" t="inlineStr"/>
       <c r="O81" t="inlineStr">
         <is>
-          <t>2023-01-10 12:59:00</t>
+          <t>2023-01-10 20:51:27</t>
         </is>
       </c>
     </row>
@@ -5975,7 +5975,7 @@
       <c r="N82" t="inlineStr"/>
       <c r="O82" t="inlineStr">
         <is>
-          <t>2023-01-10 12:59:00</t>
+          <t>2023-01-10 20:51:27</t>
         </is>
       </c>
     </row>
@@ -6044,7 +6044,7 @@
       <c r="N83" t="inlineStr"/>
       <c r="O83" t="inlineStr">
         <is>
-          <t>2023-01-10 12:59:00</t>
+          <t>2023-01-10 20:51:27</t>
         </is>
       </c>
     </row>
@@ -6107,7 +6107,7 @@
       <c r="N84" t="inlineStr"/>
       <c r="O84" t="inlineStr">
         <is>
-          <t>2023-01-10 12:59:00</t>
+          <t>2023-01-10 20:51:27</t>
         </is>
       </c>
     </row>
@@ -6172,7 +6172,7 @@
       <c r="N85" t="inlineStr"/>
       <c r="O85" t="inlineStr">
         <is>
-          <t>2023-01-10 12:59:00</t>
+          <t>2023-01-10 20:51:27</t>
         </is>
       </c>
     </row>
@@ -6241,7 +6241,7 @@
       <c r="N86" t="inlineStr"/>
       <c r="O86" t="inlineStr">
         <is>
-          <t>2023-01-10 12:59:00</t>
+          <t>2023-01-10 20:51:27</t>
         </is>
       </c>
     </row>
@@ -6306,7 +6306,7 @@
       <c r="N87" t="inlineStr"/>
       <c r="O87" t="inlineStr">
         <is>
-          <t>2023-01-10 12:59:00</t>
+          <t>2023-01-10 20:51:27</t>
         </is>
       </c>
     </row>
@@ -6375,7 +6375,7 @@
       <c r="N88" t="inlineStr"/>
       <c r="O88" t="inlineStr">
         <is>
-          <t>2023-01-10 12:59:00</t>
+          <t>2023-01-10 20:51:27</t>
         </is>
       </c>
     </row>
@@ -6444,7 +6444,7 @@
       <c r="N89" t="inlineStr"/>
       <c r="O89" t="inlineStr">
         <is>
-          <t>2023-01-10 12:59:00</t>
+          <t>2023-01-10 20:51:27</t>
         </is>
       </c>
     </row>
@@ -6509,7 +6509,7 @@
       <c r="N90" t="inlineStr"/>
       <c r="O90" t="inlineStr">
         <is>
-          <t>2023-01-10 12:59:00</t>
+          <t>2023-01-10 20:51:27</t>
         </is>
       </c>
     </row>
@@ -6578,7 +6578,7 @@
       <c r="N91" t="inlineStr"/>
       <c r="O91" t="inlineStr">
         <is>
-          <t>2023-01-10 12:59:00</t>
+          <t>2023-01-10 20:51:27</t>
         </is>
       </c>
     </row>
@@ -6643,7 +6643,7 @@
       <c r="N92" t="inlineStr"/>
       <c r="O92" t="inlineStr">
         <is>
-          <t>2023-01-10 12:59:00</t>
+          <t>2023-01-10 20:51:27</t>
         </is>
       </c>
     </row>
@@ -6708,7 +6708,7 @@
       <c r="N93" t="inlineStr"/>
       <c r="O93" t="inlineStr">
         <is>
-          <t>2023-01-10 12:59:00</t>
+          <t>2023-01-10 20:51:27</t>
         </is>
       </c>
     </row>
@@ -6773,7 +6773,7 @@
       <c r="N94" t="inlineStr"/>
       <c r="O94" t="inlineStr">
         <is>
-          <t>2023-01-10 12:59:00</t>
+          <t>2023-01-10 20:51:27</t>
         </is>
       </c>
     </row>
@@ -6842,7 +6842,7 @@
       <c r="N95" t="inlineStr"/>
       <c r="O95" t="inlineStr">
         <is>
-          <t>2023-01-10 12:59:00</t>
+          <t>2023-01-10 20:51:27</t>
         </is>
       </c>
     </row>
@@ -6911,7 +6911,7 @@
       <c r="N96" t="inlineStr"/>
       <c r="O96" t="inlineStr">
         <is>
-          <t>2023-01-10 12:59:00</t>
+          <t>2023-01-10 20:51:27</t>
         </is>
       </c>
     </row>
@@ -6980,7 +6980,7 @@
       <c r="N97" t="inlineStr"/>
       <c r="O97" t="inlineStr">
         <is>
-          <t>2023-01-10 12:59:00</t>
+          <t>2023-01-10 20:51:27</t>
         </is>
       </c>
     </row>
@@ -7049,7 +7049,7 @@
       <c r="N98" t="inlineStr"/>
       <c r="O98" t="inlineStr">
         <is>
-          <t>2023-01-10 12:59:00</t>
+          <t>2023-01-10 20:51:27</t>
         </is>
       </c>
     </row>
@@ -7114,7 +7114,7 @@
       <c r="N99" t="inlineStr"/>
       <c r="O99" t="inlineStr">
         <is>
-          <t>2023-01-10 12:59:00</t>
+          <t>2023-01-10 20:51:27</t>
         </is>
       </c>
     </row>
@@ -7183,7 +7183,7 @@
       <c r="N100" t="inlineStr"/>
       <c r="O100" t="inlineStr">
         <is>
-          <t>2023-01-10 12:59:00</t>
+          <t>2023-01-10 20:51:27</t>
         </is>
       </c>
     </row>
@@ -7252,7 +7252,7 @@
       <c r="N101" t="inlineStr"/>
       <c r="O101" t="inlineStr">
         <is>
-          <t>2023-01-10 12:59:00</t>
+          <t>2023-01-10 20:51:27</t>
         </is>
       </c>
     </row>
@@ -7321,7 +7321,7 @@
       <c r="N102" t="inlineStr"/>
       <c r="O102" t="inlineStr">
         <is>
-          <t>2023-01-10 12:59:00</t>
+          <t>2023-01-10 20:51:27</t>
         </is>
       </c>
     </row>
@@ -7386,7 +7386,7 @@
       <c r="N103" t="inlineStr"/>
       <c r="O103" t="inlineStr">
         <is>
-          <t>2023-01-10 12:59:00</t>
+          <t>2023-01-10 20:51:27</t>
         </is>
       </c>
     </row>
@@ -7455,7 +7455,7 @@
       <c r="N104" t="inlineStr"/>
       <c r="O104" t="inlineStr">
         <is>
-          <t>2023-01-10 12:59:00</t>
+          <t>2023-01-10 20:51:27</t>
         </is>
       </c>
     </row>
@@ -7524,7 +7524,7 @@
       <c r="N105" t="inlineStr"/>
       <c r="O105" t="inlineStr">
         <is>
-          <t>2023-01-10 12:59:00</t>
+          <t>2023-01-10 20:51:27</t>
         </is>
       </c>
     </row>
@@ -7593,7 +7593,7 @@
       <c r="N106" t="inlineStr"/>
       <c r="O106" t="inlineStr">
         <is>
-          <t>2023-01-10 12:59:00</t>
+          <t>2023-01-10 20:51:27</t>
         </is>
       </c>
     </row>
@@ -7658,7 +7658,7 @@
       <c r="N107" t="inlineStr"/>
       <c r="O107" t="inlineStr">
         <is>
-          <t>2023-01-10 12:59:00</t>
+          <t>2023-01-10 20:51:27</t>
         </is>
       </c>
     </row>
@@ -7727,7 +7727,7 @@
       <c r="N108" t="inlineStr"/>
       <c r="O108" t="inlineStr">
         <is>
-          <t>2023-01-10 12:59:00</t>
+          <t>2023-01-10 20:51:27</t>
         </is>
       </c>
     </row>
@@ -7792,7 +7792,7 @@
       <c r="N109" t="inlineStr"/>
       <c r="O109" t="inlineStr">
         <is>
-          <t>2023-01-10 12:59:00</t>
+          <t>2023-01-10 20:51:27</t>
         </is>
       </c>
     </row>
@@ -7861,7 +7861,7 @@
       <c r="N110" t="inlineStr"/>
       <c r="O110" t="inlineStr">
         <is>
-          <t>2023-01-10 12:59:00</t>
+          <t>2023-01-10 20:51:27</t>
         </is>
       </c>
     </row>
@@ -7926,7 +7926,7 @@
       <c r="N111" t="inlineStr"/>
       <c r="O111" t="inlineStr">
         <is>
-          <t>2023-01-10 12:59:00</t>
+          <t>2023-01-10 20:51:27</t>
         </is>
       </c>
     </row>
@@ -7995,7 +7995,7 @@
       <c r="N112" t="inlineStr"/>
       <c r="O112" t="inlineStr">
         <is>
-          <t>2023-01-10 12:59:00</t>
+          <t>2023-01-10 20:51:27</t>
         </is>
       </c>
     </row>
@@ -8064,7 +8064,7 @@
       <c r="N113" t="inlineStr"/>
       <c r="O113" t="inlineStr">
         <is>
-          <t>2023-01-10 12:59:00</t>
+          <t>2023-01-10 20:51:27</t>
         </is>
       </c>
     </row>
@@ -8133,7 +8133,7 @@
       <c r="N114" t="inlineStr"/>
       <c r="O114" t="inlineStr">
         <is>
-          <t>2023-01-10 12:59:00</t>
+          <t>2023-01-10 20:51:27</t>
         </is>
       </c>
     </row>
@@ -8202,7 +8202,7 @@
       <c r="N115" t="inlineStr"/>
       <c r="O115" t="inlineStr">
         <is>
-          <t>2023-01-10 12:59:00</t>
+          <t>2023-01-10 20:51:27</t>
         </is>
       </c>
     </row>
@@ -8271,7 +8271,7 @@
       <c r="N116" t="inlineStr"/>
       <c r="O116" t="inlineStr">
         <is>
-          <t>2023-01-10 12:59:00</t>
+          <t>2023-01-10 20:51:27</t>
         </is>
       </c>
     </row>
@@ -8336,7 +8336,7 @@
       <c r="N117" t="inlineStr"/>
       <c r="O117" t="inlineStr">
         <is>
-          <t>2023-01-10 12:59:00</t>
+          <t>2023-01-10 20:51:27</t>
         </is>
       </c>
     </row>
@@ -8405,7 +8405,7 @@
       <c r="N118" t="inlineStr"/>
       <c r="O118" t="inlineStr">
         <is>
-          <t>2023-01-10 12:59:00</t>
+          <t>2023-01-10 20:51:27</t>
         </is>
       </c>
     </row>
@@ -8470,7 +8470,7 @@
       <c r="N119" t="inlineStr"/>
       <c r="O119" t="inlineStr">
         <is>
-          <t>2023-01-10 12:59:00</t>
+          <t>2023-01-10 20:51:27</t>
         </is>
       </c>
     </row>
@@ -8539,7 +8539,7 @@
       <c r="N120" t="inlineStr"/>
       <c r="O120" t="inlineStr">
         <is>
-          <t>2023-01-10 12:59:00</t>
+          <t>2023-01-10 20:51:27</t>
         </is>
       </c>
     </row>
@@ -8608,7 +8608,7 @@
       <c r="N121" t="inlineStr"/>
       <c r="O121" t="inlineStr">
         <is>
-          <t>2023-01-10 12:59:00</t>
+          <t>2023-01-10 20:51:27</t>
         </is>
       </c>
     </row>
@@ -8677,7 +8677,7 @@
       <c r="N122" t="inlineStr"/>
       <c r="O122" t="inlineStr">
         <is>
-          <t>2023-01-10 12:59:00</t>
+          <t>2023-01-10 20:51:27</t>
         </is>
       </c>
     </row>
@@ -8750,7 +8750,7 @@
       </c>
       <c r="O123" t="inlineStr">
         <is>
-          <t>2023-01-10 12:59:00</t>
+          <t>2023-01-10 20:51:27</t>
         </is>
       </c>
     </row>
@@ -8819,7 +8819,7 @@
       <c r="N124" t="inlineStr"/>
       <c r="O124" t="inlineStr">
         <is>
-          <t>2023-01-10 12:59:00</t>
+          <t>2023-01-10 20:51:27</t>
         </is>
       </c>
     </row>
@@ -8892,7 +8892,7 @@
       </c>
       <c r="O125" t="inlineStr">
         <is>
-          <t>2023-01-10 12:59:00</t>
+          <t>2023-01-10 20:51:27</t>
         </is>
       </c>
     </row>
@@ -8961,7 +8961,7 @@
       <c r="N126" t="inlineStr"/>
       <c r="O126" t="inlineStr">
         <is>
-          <t>2023-01-10 12:59:00</t>
+          <t>2023-01-10 20:51:27</t>
         </is>
       </c>
     </row>
@@ -9030,7 +9030,7 @@
       <c r="N127" t="inlineStr"/>
       <c r="O127" t="inlineStr">
         <is>
-          <t>2023-01-10 12:59:00</t>
+          <t>2023-01-10 20:51:27</t>
         </is>
       </c>
     </row>
@@ -9103,7 +9103,7 @@
       </c>
       <c r="O128" t="inlineStr">
         <is>
-          <t>2023-01-10 12:59:00</t>
+          <t>2023-01-10 20:51:27</t>
         </is>
       </c>
     </row>
@@ -9172,7 +9172,7 @@
       <c r="N129" t="inlineStr"/>
       <c r="O129" t="inlineStr">
         <is>
-          <t>2023-01-10 12:59:00</t>
+          <t>2023-01-10 20:51:27</t>
         </is>
       </c>
     </row>
@@ -9245,7 +9245,7 @@
       </c>
       <c r="O130" t="inlineStr">
         <is>
-          <t>2023-01-10 12:59:00</t>
+          <t>2023-01-10 20:51:27</t>
         </is>
       </c>
     </row>
@@ -9314,7 +9314,7 @@
       <c r="N131" t="inlineStr"/>
       <c r="O131" t="inlineStr">
         <is>
-          <t>2023-01-10 12:59:00</t>
+          <t>2023-01-10 20:51:27</t>
         </is>
       </c>
     </row>
@@ -9383,7 +9383,7 @@
       <c r="N132" t="inlineStr"/>
       <c r="O132" t="inlineStr">
         <is>
-          <t>2023-01-10 12:59:00</t>
+          <t>2023-01-10 20:51:27</t>
         </is>
       </c>
     </row>
@@ -9448,7 +9448,7 @@
       <c r="N133" t="inlineStr"/>
       <c r="O133" t="inlineStr">
         <is>
-          <t>2023-01-10 12:59:00</t>
+          <t>2023-01-10 20:51:27</t>
         </is>
       </c>
     </row>
@@ -9517,7 +9517,7 @@
       <c r="N134" t="inlineStr"/>
       <c r="O134" t="inlineStr">
         <is>
-          <t>2023-01-10 12:59:00</t>
+          <t>2023-01-10 20:51:27</t>
         </is>
       </c>
     </row>
@@ -9586,7 +9586,7 @@
       <c r="N135" t="inlineStr"/>
       <c r="O135" t="inlineStr">
         <is>
-          <t>2023-01-10 12:59:00</t>
+          <t>2023-01-10 20:51:27</t>
         </is>
       </c>
     </row>
@@ -9655,7 +9655,7 @@
       <c r="N136" t="inlineStr"/>
       <c r="O136" t="inlineStr">
         <is>
-          <t>2023-01-10 12:59:00</t>
+          <t>2023-01-10 20:51:27</t>
         </is>
       </c>
     </row>
@@ -9724,7 +9724,7 @@
       <c r="N137" t="inlineStr"/>
       <c r="O137" t="inlineStr">
         <is>
-          <t>2023-01-10 12:59:00</t>
+          <t>2023-01-10 20:51:27</t>
         </is>
       </c>
     </row>
@@ -9793,7 +9793,7 @@
       <c r="N138" t="inlineStr"/>
       <c r="O138" t="inlineStr">
         <is>
-          <t>2023-01-10 12:59:00</t>
+          <t>2023-01-10 20:51:27</t>
         </is>
       </c>
     </row>
@@ -9858,7 +9858,7 @@
       <c r="N139" t="inlineStr"/>
       <c r="O139" t="inlineStr">
         <is>
-          <t>2023-01-10 12:59:00</t>
+          <t>2023-01-10 20:51:27</t>
         </is>
       </c>
     </row>
@@ -9927,7 +9927,7 @@
       <c r="N140" t="inlineStr"/>
       <c r="O140" t="inlineStr">
         <is>
-          <t>2023-01-10 12:59:00</t>
+          <t>2023-01-10 20:51:27</t>
         </is>
       </c>
     </row>
@@ -9992,7 +9992,7 @@
       <c r="N141" t="inlineStr"/>
       <c r="O141" t="inlineStr">
         <is>
-          <t>2023-01-10 12:59:00</t>
+          <t>2023-01-10 20:51:27</t>
         </is>
       </c>
     </row>
@@ -10061,7 +10061,7 @@
       <c r="N142" t="inlineStr"/>
       <c r="O142" t="inlineStr">
         <is>
-          <t>2023-01-10 12:59:00</t>
+          <t>2023-01-10 20:51:27</t>
         </is>
       </c>
     </row>
@@ -10126,7 +10126,7 @@
       <c r="N143" t="inlineStr"/>
       <c r="O143" t="inlineStr">
         <is>
-          <t>2023-01-10 12:59:00</t>
+          <t>2023-01-10 20:51:27</t>
         </is>
       </c>
     </row>
@@ -10191,7 +10191,7 @@
       <c r="N144" t="inlineStr"/>
       <c r="O144" t="inlineStr">
         <is>
-          <t>2023-01-10 12:59:00</t>
+          <t>2023-01-10 20:51:27</t>
         </is>
       </c>
     </row>
@@ -10256,7 +10256,7 @@
       <c r="N145" t="inlineStr"/>
       <c r="O145" t="inlineStr">
         <is>
-          <t>2023-01-10 12:59:00</t>
+          <t>2023-01-10 20:51:27</t>
         </is>
       </c>
     </row>
@@ -10325,7 +10325,7 @@
       <c r="N146" t="inlineStr"/>
       <c r="O146" t="inlineStr">
         <is>
-          <t>2023-01-10 12:59:00</t>
+          <t>2023-01-10 20:51:27</t>
         </is>
       </c>
     </row>
@@ -10394,7 +10394,7 @@
       <c r="N147" t="inlineStr"/>
       <c r="O147" t="inlineStr">
         <is>
-          <t>2023-01-10 12:59:00</t>
+          <t>2023-01-10 20:51:27</t>
         </is>
       </c>
     </row>
@@ -10463,7 +10463,7 @@
       </c>
       <c r="O148" t="inlineStr">
         <is>
-          <t>2023-01-10 12:59:00</t>
+          <t>2023-01-10 20:51:27</t>
         </is>
       </c>
     </row>
@@ -10536,7 +10536,7 @@
       </c>
       <c r="O149" t="inlineStr">
         <is>
-          <t>2023-01-10 12:59:00</t>
+          <t>2023-01-10 20:51:27</t>
         </is>
       </c>
     </row>
@@ -10601,7 +10601,7 @@
       <c r="N150" t="inlineStr"/>
       <c r="O150" t="inlineStr">
         <is>
-          <t>2023-01-10 12:59:00</t>
+          <t>2023-01-10 20:51:27</t>
         </is>
       </c>
     </row>
@@ -10674,7 +10674,7 @@
       </c>
       <c r="O151" t="inlineStr">
         <is>
-          <t>2023-01-10 12:59:00</t>
+          <t>2023-01-10 20:51:27</t>
         </is>
       </c>
     </row>
@@ -10739,7 +10739,7 @@
       <c r="N152" t="inlineStr"/>
       <c r="O152" t="inlineStr">
         <is>
-          <t>2023-01-10 12:59:00</t>
+          <t>2023-01-10 20:51:27</t>
         </is>
       </c>
     </row>
@@ -10804,7 +10804,7 @@
       <c r="N153" t="inlineStr"/>
       <c r="O153" t="inlineStr">
         <is>
-          <t>2023-01-10 12:59:00</t>
+          <t>2023-01-10 20:51:27</t>
         </is>
       </c>
     </row>
@@ -10873,7 +10873,7 @@
       <c r="N154" t="inlineStr"/>
       <c r="O154" t="inlineStr">
         <is>
-          <t>2023-01-10 12:59:00</t>
+          <t>2023-01-10 20:51:27</t>
         </is>
       </c>
     </row>
@@ -10942,7 +10942,7 @@
       <c r="N155" t="inlineStr"/>
       <c r="O155" t="inlineStr">
         <is>
-          <t>2023-01-10 12:59:00</t>
+          <t>2023-01-10 20:51:27</t>
         </is>
       </c>
     </row>
@@ -11011,7 +11011,7 @@
       <c r="N156" t="inlineStr"/>
       <c r="O156" t="inlineStr">
         <is>
-          <t>2023-01-10 12:59:00</t>
+          <t>2023-01-10 20:51:27</t>
         </is>
       </c>
     </row>
@@ -11064,7 +11064,7 @@
       <c r="N157" t="inlineStr"/>
       <c r="O157" t="inlineStr">
         <is>
-          <t>2023-01-10 12:59:00</t>
+          <t>2023-01-10 20:51:27</t>
         </is>
       </c>
     </row>
@@ -11129,7 +11129,7 @@
       <c r="N158" t="inlineStr"/>
       <c r="O158" t="inlineStr">
         <is>
-          <t>2023-01-10 12:59:00</t>
+          <t>2023-01-10 20:51:27</t>
         </is>
       </c>
     </row>
@@ -11198,7 +11198,7 @@
       <c r="N159" t="inlineStr"/>
       <c r="O159" t="inlineStr">
         <is>
-          <t>2023-01-10 12:59:00</t>
+          <t>2023-01-10 20:51:27</t>
         </is>
       </c>
     </row>
@@ -11271,7 +11271,7 @@
       </c>
       <c r="O160" t="inlineStr">
         <is>
-          <t>2023-01-10 12:59:00</t>
+          <t>2023-01-10 20:51:27</t>
         </is>
       </c>
     </row>
@@ -11340,7 +11340,7 @@
       <c r="N161" t="inlineStr"/>
       <c r="O161" t="inlineStr">
         <is>
-          <t>2023-01-10 12:59:00</t>
+          <t>2023-01-10 20:51:27</t>
         </is>
       </c>
     </row>
@@ -11405,7 +11405,7 @@
       <c r="N162" t="inlineStr"/>
       <c r="O162" t="inlineStr">
         <is>
-          <t>2023-01-10 12:59:00</t>
+          <t>2023-01-10 20:51:27</t>
         </is>
       </c>
     </row>
@@ -11472,7 +11472,7 @@
       <c r="N163" t="inlineStr"/>
       <c r="O163" t="inlineStr">
         <is>
-          <t>2023-01-10 12:59:00</t>
+          <t>2023-01-10 20:51:27</t>
         </is>
       </c>
     </row>
@@ -11541,7 +11541,7 @@
       <c r="N164" t="inlineStr"/>
       <c r="O164" t="inlineStr">
         <is>
-          <t>2023-01-10 12:59:00</t>
+          <t>2023-01-10 20:51:27</t>
         </is>
       </c>
     </row>
@@ -11606,7 +11606,7 @@
       <c r="N165" t="inlineStr"/>
       <c r="O165" t="inlineStr">
         <is>
-          <t>2023-01-10 12:59:00</t>
+          <t>2023-01-10 20:51:27</t>
         </is>
       </c>
     </row>
@@ -11679,7 +11679,7 @@
       </c>
       <c r="O166" t="inlineStr">
         <is>
-          <t>2023-01-10 12:59:00</t>
+          <t>2023-01-10 20:51:27</t>
         </is>
       </c>
     </row>
@@ -11744,7 +11744,7 @@
       <c r="N167" t="inlineStr"/>
       <c r="O167" t="inlineStr">
         <is>
-          <t>2023-01-10 12:59:00</t>
+          <t>2023-01-10 20:51:27</t>
         </is>
       </c>
     </row>
@@ -11817,7 +11817,7 @@
       </c>
       <c r="O168" t="inlineStr">
         <is>
-          <t>2023-01-10 12:59:00</t>
+          <t>2023-01-10 20:51:27</t>
         </is>
       </c>
     </row>
@@ -11890,7 +11890,7 @@
       </c>
       <c r="O169" t="inlineStr">
         <is>
-          <t>2023-01-10 12:59:00</t>
+          <t>2023-01-10 20:51:27</t>
         </is>
       </c>
     </row>
@@ -11959,7 +11959,7 @@
       <c r="N170" t="inlineStr"/>
       <c r="O170" t="inlineStr">
         <is>
-          <t>2023-01-10 12:59:00</t>
+          <t>2023-01-10 20:51:27</t>
         </is>
       </c>
     </row>
@@ -12032,7 +12032,7 @@
       </c>
       <c r="O171" t="inlineStr">
         <is>
-          <t>2023-01-10 12:59:00</t>
+          <t>2023-01-10 20:51:27</t>
         </is>
       </c>
     </row>
@@ -12101,7 +12101,7 @@
       <c r="N172" t="inlineStr"/>
       <c r="O172" t="inlineStr">
         <is>
-          <t>2023-01-10 12:59:00</t>
+          <t>2023-01-10 20:51:27</t>
         </is>
       </c>
     </row>
@@ -12170,7 +12170,7 @@
       <c r="N173" t="inlineStr"/>
       <c r="O173" t="inlineStr">
         <is>
-          <t>2023-01-10 12:59:00</t>
+          <t>2023-01-10 20:51:27</t>
         </is>
       </c>
     </row>
@@ -12239,7 +12239,7 @@
       <c r="N174" t="inlineStr"/>
       <c r="O174" t="inlineStr">
         <is>
-          <t>2023-01-10 12:59:00</t>
+          <t>2023-01-10 20:51:27</t>
         </is>
       </c>
     </row>
@@ -12292,7 +12292,7 @@
       <c r="N175" t="inlineStr"/>
       <c r="O175" t="inlineStr">
         <is>
-          <t>2023-01-10 12:59:00</t>
+          <t>2023-01-10 20:51:27</t>
         </is>
       </c>
     </row>
@@ -12361,7 +12361,7 @@
       <c r="N176" t="inlineStr"/>
       <c r="O176" t="inlineStr">
         <is>
-          <t>2023-01-10 12:59:00</t>
+          <t>2023-01-10 20:51:27</t>
         </is>
       </c>
     </row>
@@ -12426,7 +12426,7 @@
       <c r="N177" t="inlineStr"/>
       <c r="O177" t="inlineStr">
         <is>
-          <t>2023-01-10 12:59:00</t>
+          <t>2023-01-10 20:51:27</t>
         </is>
       </c>
     </row>
@@ -12499,7 +12499,7 @@
       </c>
       <c r="O178" t="inlineStr">
         <is>
-          <t>2023-01-10 12:59:00</t>
+          <t>2023-01-10 20:51:27</t>
         </is>
       </c>
     </row>
@@ -12562,7 +12562,7 @@
       <c r="N179" t="inlineStr"/>
       <c r="O179" t="inlineStr">
         <is>
-          <t>2023-01-10 12:59:00</t>
+          <t>2023-01-10 20:51:27</t>
         </is>
       </c>
     </row>
@@ -12631,7 +12631,7 @@
       <c r="N180" t="inlineStr"/>
       <c r="O180" t="inlineStr">
         <is>
-          <t>2023-01-10 12:59:00</t>
+          <t>2023-01-10 20:51:27</t>
         </is>
       </c>
     </row>
@@ -12700,7 +12700,7 @@
       <c r="N181" t="inlineStr"/>
       <c r="O181" t="inlineStr">
         <is>
-          <t>2023-01-10 12:59:00</t>
+          <t>2023-01-10 20:51:27</t>
         </is>
       </c>
     </row>
@@ -12769,7 +12769,7 @@
       <c r="N182" t="inlineStr"/>
       <c r="O182" t="inlineStr">
         <is>
-          <t>2023-01-10 12:59:00</t>
+          <t>2023-01-10 20:51:27</t>
         </is>
       </c>
     </row>
@@ -12834,7 +12834,7 @@
       <c r="N183" t="inlineStr"/>
       <c r="O183" t="inlineStr">
         <is>
-          <t>2023-01-10 12:59:00</t>
+          <t>2023-01-10 20:51:27</t>
         </is>
       </c>
     </row>
@@ -12907,7 +12907,7 @@
       </c>
       <c r="O184" t="inlineStr">
         <is>
-          <t>2023-01-10 12:59:00</t>
+          <t>2023-01-10 20:51:27</t>
         </is>
       </c>
     </row>
@@ -12976,7 +12976,7 @@
       <c r="N185" t="inlineStr"/>
       <c r="O185" t="inlineStr">
         <is>
-          <t>2023-01-10 12:59:00</t>
+          <t>2023-01-10 20:51:27</t>
         </is>
       </c>
     </row>
@@ -13045,7 +13045,7 @@
       <c r="N186" t="inlineStr"/>
       <c r="O186" t="inlineStr">
         <is>
-          <t>2023-01-10 12:59:00</t>
+          <t>2023-01-10 20:51:27</t>
         </is>
       </c>
     </row>
@@ -13118,7 +13118,7 @@
       </c>
       <c r="O187" t="inlineStr">
         <is>
-          <t>2023-01-10 12:59:00</t>
+          <t>2023-01-10 20:51:27</t>
         </is>
       </c>
     </row>
@@ -13187,7 +13187,7 @@
       <c r="N188" t="inlineStr"/>
       <c r="O188" t="inlineStr">
         <is>
-          <t>2023-01-10 12:59:00</t>
+          <t>2023-01-10 20:51:27</t>
         </is>
       </c>
     </row>
@@ -13260,7 +13260,7 @@
       </c>
       <c r="O189" t="inlineStr">
         <is>
-          <t>2023-01-10 12:59:00</t>
+          <t>2023-01-10 20:51:27</t>
         </is>
       </c>
     </row>
@@ -13329,7 +13329,7 @@
       <c r="N190" t="inlineStr"/>
       <c r="O190" t="inlineStr">
         <is>
-          <t>2023-01-10 12:59:00</t>
+          <t>2023-01-10 20:51:27</t>
         </is>
       </c>
     </row>
@@ -13398,7 +13398,7 @@
       <c r="N191" t="inlineStr"/>
       <c r="O191" t="inlineStr">
         <is>
-          <t>2023-01-10 12:59:00</t>
+          <t>2023-01-10 20:51:27</t>
         </is>
       </c>
     </row>
@@ -13467,7 +13467,7 @@
       <c r="N192" t="inlineStr"/>
       <c r="O192" t="inlineStr">
         <is>
-          <t>2023-01-10 12:59:00</t>
+          <t>2023-01-10 20:51:27</t>
         </is>
       </c>
     </row>
@@ -13536,7 +13536,7 @@
       <c r="N193" t="inlineStr"/>
       <c r="O193" t="inlineStr">
         <is>
-          <t>2023-01-10 12:59:00</t>
+          <t>2023-01-10 20:51:27</t>
         </is>
       </c>
     </row>
@@ -13605,7 +13605,7 @@
       <c r="N194" t="inlineStr"/>
       <c r="O194" t="inlineStr">
         <is>
-          <t>2023-01-10 12:59:00</t>
+          <t>2023-01-10 20:51:27</t>
         </is>
       </c>
     </row>
@@ -13674,7 +13674,7 @@
       <c r="N195" t="inlineStr"/>
       <c r="O195" t="inlineStr">
         <is>
-          <t>2023-01-10 12:59:00</t>
+          <t>2023-01-10 20:51:27</t>
         </is>
       </c>
     </row>
@@ -13739,7 +13739,7 @@
       <c r="N196" t="inlineStr"/>
       <c r="O196" t="inlineStr">
         <is>
-          <t>2023-01-10 12:59:00</t>
+          <t>2023-01-10 20:51:27</t>
         </is>
       </c>
     </row>
@@ -13804,7 +13804,7 @@
       <c r="N197" t="inlineStr"/>
       <c r="O197" t="inlineStr">
         <is>
-          <t>2023-01-10 12:59:00</t>
+          <t>2023-01-10 20:51:27</t>
         </is>
       </c>
     </row>
@@ -13877,7 +13877,7 @@
       </c>
       <c r="O198" t="inlineStr">
         <is>
-          <t>2023-01-10 12:59:00</t>
+          <t>2023-01-10 20:51:27</t>
         </is>
       </c>
     </row>
@@ -13940,7 +13940,7 @@
       <c r="N199" t="inlineStr"/>
       <c r="O199" t="inlineStr">
         <is>
-          <t>2023-01-10 12:59:00</t>
+          <t>2023-01-10 20:51:27</t>
         </is>
       </c>
     </row>
@@ -14009,7 +14009,7 @@
       <c r="N200" t="inlineStr"/>
       <c r="O200" t="inlineStr">
         <is>
-          <t>2023-01-10 12:59:00</t>
+          <t>2023-01-10 20:51:27</t>
         </is>
       </c>
     </row>
@@ -14078,7 +14078,7 @@
       <c r="N201" t="inlineStr"/>
       <c r="O201" t="inlineStr">
         <is>
-          <t>2023-01-10 12:59:00</t>
+          <t>2023-01-10 20:51:27</t>
         </is>
       </c>
     </row>
@@ -14147,7 +14147,7 @@
       <c r="N202" t="inlineStr"/>
       <c r="O202" t="inlineStr">
         <is>
-          <t>2023-01-10 12:59:00</t>
+          <t>2023-01-10 20:51:27</t>
         </is>
       </c>
     </row>
@@ -14220,7 +14220,7 @@
       </c>
       <c r="O203" t="inlineStr">
         <is>
-          <t>2023-01-10 12:59:00</t>
+          <t>2023-01-10 20:51:27</t>
         </is>
       </c>
     </row>
@@ -14285,7 +14285,7 @@
       <c r="N204" t="inlineStr"/>
       <c r="O204" t="inlineStr">
         <is>
-          <t>2023-01-10 12:59:00</t>
+          <t>2023-01-10 20:51:27</t>
         </is>
       </c>
     </row>
@@ -14354,7 +14354,7 @@
       <c r="N205" t="inlineStr"/>
       <c r="O205" t="inlineStr">
         <is>
-          <t>2023-01-10 12:59:00</t>
+          <t>2023-01-10 20:51:27</t>
         </is>
       </c>
     </row>
@@ -14419,7 +14419,7 @@
       <c r="N206" t="inlineStr"/>
       <c r="O206" t="inlineStr">
         <is>
-          <t>2023-01-10 12:59:00</t>
+          <t>2023-01-10 20:51:27</t>
         </is>
       </c>
     </row>
@@ -14484,7 +14484,7 @@
       <c r="N207" t="inlineStr"/>
       <c r="O207" t="inlineStr">
         <is>
-          <t>2023-01-10 12:59:00</t>
+          <t>2023-01-10 20:51:27</t>
         </is>
       </c>
     </row>
@@ -14553,7 +14553,7 @@
       <c r="N208" t="inlineStr"/>
       <c r="O208" t="inlineStr">
         <is>
-          <t>2023-01-10 12:59:00</t>
+          <t>2023-01-10 20:51:27</t>
         </is>
       </c>
     </row>
@@ -14618,7 +14618,7 @@
       <c r="N209" t="inlineStr"/>
       <c r="O209" t="inlineStr">
         <is>
-          <t>2023-01-10 12:59:00</t>
+          <t>2023-01-10 20:51:27</t>
         </is>
       </c>
     </row>
@@ -14687,7 +14687,7 @@
       <c r="N210" t="inlineStr"/>
       <c r="O210" t="inlineStr">
         <is>
-          <t>2023-01-10 12:59:00</t>
+          <t>2023-01-10 20:51:27</t>
         </is>
       </c>
     </row>
@@ -14752,7 +14752,7 @@
       <c r="N211" t="inlineStr"/>
       <c r="O211" t="inlineStr">
         <is>
-          <t>2023-01-10 12:59:00</t>
+          <t>2023-01-10 20:51:27</t>
         </is>
       </c>
     </row>
@@ -14825,7 +14825,7 @@
       </c>
       <c r="O212" t="inlineStr">
         <is>
-          <t>2023-01-10 12:59:00</t>
+          <t>2023-01-10 20:51:27</t>
         </is>
       </c>
     </row>
@@ -14898,7 +14898,7 @@
       </c>
       <c r="O213" t="inlineStr">
         <is>
-          <t>2023-01-10 12:59:00</t>
+          <t>2023-01-10 20:51:27</t>
         </is>
       </c>
     </row>
@@ -14963,7 +14963,7 @@
       <c r="N214" t="inlineStr"/>
       <c r="O214" t="inlineStr">
         <is>
-          <t>2023-01-10 12:59:00</t>
+          <t>2023-01-10 20:51:27</t>
         </is>
       </c>
     </row>
@@ -15036,7 +15036,7 @@
       </c>
       <c r="O215" t="inlineStr">
         <is>
-          <t>2023-01-10 12:59:00</t>
+          <t>2023-01-10 20:51:27</t>
         </is>
       </c>
     </row>
@@ -15103,7 +15103,7 @@
       <c r="N216" t="inlineStr"/>
       <c r="O216" t="inlineStr">
         <is>
-          <t>2023-01-10 12:59:00</t>
+          <t>2023-01-10 20:51:27</t>
         </is>
       </c>
     </row>
@@ -15172,7 +15172,7 @@
       <c r="N217" t="inlineStr"/>
       <c r="O217" t="inlineStr">
         <is>
-          <t>2023-01-10 12:59:00</t>
+          <t>2023-01-10 20:51:27</t>
         </is>
       </c>
     </row>
@@ -15221,7 +15221,7 @@
       <c r="N218" t="inlineStr"/>
       <c r="O218" t="inlineStr">
         <is>
-          <t>2023-01-10 12:59:00</t>
+          <t>2023-01-10 20:51:27</t>
         </is>
       </c>
     </row>
@@ -15272,7 +15272,7 @@
       <c r="N219" t="inlineStr"/>
       <c r="O219" t="inlineStr">
         <is>
-          <t>2023-01-10 12:59:00</t>
+          <t>2023-01-10 20:51:27</t>
         </is>
       </c>
     </row>
@@ -15337,7 +15337,7 @@
       <c r="N220" t="inlineStr"/>
       <c r="O220" t="inlineStr">
         <is>
-          <t>2023-01-10 12:59:00</t>
+          <t>2023-01-10 20:51:27</t>
         </is>
       </c>
     </row>
@@ -15406,7 +15406,7 @@
       <c r="N221" t="inlineStr"/>
       <c r="O221" t="inlineStr">
         <is>
-          <t>2023-01-10 12:59:00</t>
+          <t>2023-01-10 20:51:27</t>
         </is>
       </c>
     </row>
@@ -15479,7 +15479,7 @@
       </c>
       <c r="O222" t="inlineStr">
         <is>
-          <t>2023-01-10 12:59:00</t>
+          <t>2023-01-10 20:51:27</t>
         </is>
       </c>
     </row>
@@ -15544,7 +15544,7 @@
       <c r="N223" t="inlineStr"/>
       <c r="O223" t="inlineStr">
         <is>
-          <t>2023-01-10 12:59:00</t>
+          <t>2023-01-10 20:51:27</t>
         </is>
       </c>
     </row>
@@ -15613,7 +15613,7 @@
       <c r="N224" t="inlineStr"/>
       <c r="O224" t="inlineStr">
         <is>
-          <t>2023-01-10 12:59:00</t>
+          <t>2023-01-10 20:51:27</t>
         </is>
       </c>
     </row>
@@ -15682,7 +15682,7 @@
       <c r="N225" t="inlineStr"/>
       <c r="O225" t="inlineStr">
         <is>
-          <t>2023-01-10 12:59:00</t>
+          <t>2023-01-10 20:51:27</t>
         </is>
       </c>
     </row>
@@ -15751,7 +15751,7 @@
       <c r="N226" t="inlineStr"/>
       <c r="O226" t="inlineStr">
         <is>
-          <t>2023-01-10 12:59:00</t>
+          <t>2023-01-10 20:51:27</t>
         </is>
       </c>
     </row>
@@ -15820,7 +15820,7 @@
       <c r="N227" t="inlineStr"/>
       <c r="O227" t="inlineStr">
         <is>
-          <t>2023-01-10 12:59:00</t>
+          <t>2023-01-10 20:51:27</t>
         </is>
       </c>
     </row>
@@ -15885,7 +15885,7 @@
       <c r="N228" t="inlineStr"/>
       <c r="O228" t="inlineStr">
         <is>
-          <t>2023-01-10 12:59:00</t>
+          <t>2023-01-10 20:51:27</t>
         </is>
       </c>
     </row>
@@ -15958,7 +15958,7 @@
       </c>
       <c r="O229" t="inlineStr">
         <is>
-          <t>2023-01-10 12:59:00</t>
+          <t>2023-01-10 20:51:27</t>
         </is>
       </c>
     </row>
@@ -16025,7 +16025,7 @@
       <c r="N230" t="inlineStr"/>
       <c r="O230" t="inlineStr">
         <is>
-          <t>2023-01-10 12:59:00</t>
+          <t>2023-01-10 20:51:27</t>
         </is>
       </c>
     </row>
@@ -16094,7 +16094,7 @@
       <c r="N231" t="inlineStr"/>
       <c r="O231" t="inlineStr">
         <is>
-          <t>2023-01-10 12:59:00</t>
+          <t>2023-01-10 20:51:27</t>
         </is>
       </c>
     </row>
@@ -16167,7 +16167,7 @@
       </c>
       <c r="O232" t="inlineStr">
         <is>
-          <t>2023-01-10 12:59:00</t>
+          <t>2023-01-10 20:51:27</t>
         </is>
       </c>
     </row>
@@ -16232,7 +16232,7 @@
       <c r="N233" t="inlineStr"/>
       <c r="O233" t="inlineStr">
         <is>
-          <t>2023-01-10 12:59:00</t>
+          <t>2023-01-10 20:51:27</t>
         </is>
       </c>
     </row>
@@ -16301,7 +16301,7 @@
       <c r="N234" t="inlineStr"/>
       <c r="O234" t="inlineStr">
         <is>
-          <t>2023-01-10 12:59:00</t>
+          <t>2023-01-10 20:51:27</t>
         </is>
       </c>
     </row>
@@ -16374,7 +16374,7 @@
       </c>
       <c r="O235" t="inlineStr">
         <is>
-          <t>2023-01-10 12:59:00</t>
+          <t>2023-01-10 20:51:27</t>
         </is>
       </c>
     </row>
@@ -16447,7 +16447,7 @@
       </c>
       <c r="O236" t="inlineStr">
         <is>
-          <t>2023-01-10 12:59:00</t>
+          <t>2023-01-10 20:51:27</t>
         </is>
       </c>
     </row>
@@ -16516,7 +16516,7 @@
       <c r="N237" t="inlineStr"/>
       <c r="O237" t="inlineStr">
         <is>
-          <t>2023-01-10 12:59:00</t>
+          <t>2023-01-10 20:51:27</t>
         </is>
       </c>
     </row>
@@ -16585,7 +16585,7 @@
       <c r="N238" t="inlineStr"/>
       <c r="O238" t="inlineStr">
         <is>
-          <t>2023-01-10 12:59:00</t>
+          <t>2023-01-10 20:51:27</t>
         </is>
       </c>
     </row>
@@ -16654,7 +16654,7 @@
       <c r="N239" t="inlineStr"/>
       <c r="O239" t="inlineStr">
         <is>
-          <t>2023-01-10 12:59:00</t>
+          <t>2023-01-10 20:51:27</t>
         </is>
       </c>
     </row>
@@ -16727,7 +16727,7 @@
       </c>
       <c r="O240" t="inlineStr">
         <is>
-          <t>2023-01-10 12:59:00</t>
+          <t>2023-01-10 20:51:27</t>
         </is>
       </c>
     </row>
@@ -16796,7 +16796,7 @@
       <c r="N241" t="inlineStr"/>
       <c r="O241" t="inlineStr">
         <is>
-          <t>2023-01-10 12:59:00</t>
+          <t>2023-01-10 20:51:27</t>
         </is>
       </c>
     </row>
@@ -16865,7 +16865,7 @@
       <c r="N242" t="inlineStr"/>
       <c r="O242" t="inlineStr">
         <is>
-          <t>2023-01-10 12:59:00</t>
+          <t>2023-01-10 20:51:27</t>
         </is>
       </c>
     </row>
@@ -16930,7 +16930,7 @@
       <c r="N243" t="inlineStr"/>
       <c r="O243" t="inlineStr">
         <is>
-          <t>2023-01-10 12:59:00</t>
+          <t>2023-01-10 20:51:27</t>
         </is>
       </c>
     </row>
@@ -16999,7 +16999,7 @@
       <c r="N244" t="inlineStr"/>
       <c r="O244" t="inlineStr">
         <is>
-          <t>2023-01-10 12:59:00</t>
+          <t>2023-01-10 20:51:27</t>
         </is>
       </c>
     </row>
@@ -17072,7 +17072,7 @@
       </c>
       <c r="O245" t="inlineStr">
         <is>
-          <t>2023-01-10 12:59:00</t>
+          <t>2023-01-10 20:51:27</t>
         </is>
       </c>
     </row>
@@ -17145,7 +17145,7 @@
       </c>
       <c r="O246" t="inlineStr">
         <is>
-          <t>2023-01-10 12:59:00</t>
+          <t>2023-01-10 20:51:27</t>
         </is>
       </c>
     </row>
@@ -17210,7 +17210,7 @@
       <c r="N247" t="inlineStr"/>
       <c r="O247" t="inlineStr">
         <is>
-          <t>2023-01-10 12:59:00</t>
+          <t>2023-01-10 20:51:27</t>
         </is>
       </c>
     </row>
@@ -17283,7 +17283,7 @@
       </c>
       <c r="O248" t="inlineStr">
         <is>
-          <t>2023-01-10 12:59:00</t>
+          <t>2023-01-10 20:51:27</t>
         </is>
       </c>
     </row>
@@ -17356,7 +17356,7 @@
       </c>
       <c r="O249" t="inlineStr">
         <is>
-          <t>2023-01-10 12:59:00</t>
+          <t>2023-01-10 20:51:27</t>
         </is>
       </c>
     </row>
@@ -17425,7 +17425,7 @@
       <c r="N250" t="inlineStr"/>
       <c r="O250" t="inlineStr">
         <is>
-          <t>2023-01-10 12:59:00</t>
+          <t>2023-01-10 20:51:27</t>
         </is>
       </c>
     </row>
@@ -17498,7 +17498,7 @@
       </c>
       <c r="O251" t="inlineStr">
         <is>
-          <t>2023-01-10 12:59:00</t>
+          <t>2023-01-10 20:51:27</t>
         </is>
       </c>
     </row>
@@ -17567,7 +17567,7 @@
       <c r="N252" t="inlineStr"/>
       <c r="O252" t="inlineStr">
         <is>
-          <t>2023-01-10 12:59:00</t>
+          <t>2023-01-10 20:51:27</t>
         </is>
       </c>
     </row>
@@ -17636,7 +17636,7 @@
       <c r="N253" t="inlineStr"/>
       <c r="O253" t="inlineStr">
         <is>
-          <t>2023-01-10 12:59:00</t>
+          <t>2023-01-10 20:51:27</t>
         </is>
       </c>
     </row>
@@ -17709,7 +17709,7 @@
       </c>
       <c r="O254" t="inlineStr">
         <is>
-          <t>2023-01-10 12:59:00</t>
+          <t>2023-01-10 20:51:27</t>
         </is>
       </c>
     </row>
@@ -17782,7 +17782,7 @@
       </c>
       <c r="O255" t="inlineStr">
         <is>
-          <t>2023-01-10 12:59:00</t>
+          <t>2023-01-10 20:51:27</t>
         </is>
       </c>
     </row>
@@ -17855,7 +17855,7 @@
       </c>
       <c r="O256" t="inlineStr">
         <is>
-          <t>2023-01-10 12:59:00</t>
+          <t>2023-01-10 20:51:27</t>
         </is>
       </c>
     </row>
@@ -17928,7 +17928,7 @@
       </c>
       <c r="O257" t="inlineStr">
         <is>
-          <t>2023-01-10 12:59:00</t>
+          <t>2023-01-10 20:51:27</t>
         </is>
       </c>
     </row>
@@ -18001,7 +18001,7 @@
       </c>
       <c r="O258" t="inlineStr">
         <is>
-          <t>2023-01-10 12:59:00</t>
+          <t>2023-01-10 20:51:27</t>
         </is>
       </c>
     </row>
@@ -18070,7 +18070,7 @@
       <c r="N259" t="inlineStr"/>
       <c r="O259" t="inlineStr">
         <is>
-          <t>2023-01-10 12:59:00</t>
+          <t>2023-01-10 20:51:27</t>
         </is>
       </c>
     </row>
@@ -18139,7 +18139,7 @@
       <c r="N260" t="inlineStr"/>
       <c r="O260" t="inlineStr">
         <is>
-          <t>2023-01-10 12:59:00</t>
+          <t>2023-01-10 20:51:27</t>
         </is>
       </c>
     </row>
@@ -18204,7 +18204,7 @@
       <c r="N261" t="inlineStr"/>
       <c r="O261" t="inlineStr">
         <is>
-          <t>2023-01-10 12:59:00</t>
+          <t>2023-01-10 20:51:27</t>
         </is>
       </c>
     </row>
@@ -18275,7 +18275,7 @@
       </c>
       <c r="O262" t="inlineStr">
         <is>
-          <t>2023-01-10 12:59:00</t>
+          <t>2023-01-10 20:51:27</t>
         </is>
       </c>
     </row>
@@ -18344,7 +18344,7 @@
       <c r="N263" t="inlineStr"/>
       <c r="O263" t="inlineStr">
         <is>
-          <t>2023-01-10 12:59:00</t>
+          <t>2023-01-10 20:51:27</t>
         </is>
       </c>
     </row>
@@ -18413,7 +18413,7 @@
       <c r="N264" t="inlineStr"/>
       <c r="O264" t="inlineStr">
         <is>
-          <t>2023-01-10 12:59:00</t>
+          <t>2023-01-10 20:51:27</t>
         </is>
       </c>
     </row>
@@ -18486,7 +18486,7 @@
       </c>
       <c r="O265" t="inlineStr">
         <is>
-          <t>2023-01-10 12:59:00</t>
+          <t>2023-01-10 20:51:27</t>
         </is>
       </c>
     </row>
@@ -18555,7 +18555,7 @@
       <c r="N266" t="inlineStr"/>
       <c r="O266" t="inlineStr">
         <is>
-          <t>2023-01-10 12:59:00</t>
+          <t>2023-01-10 20:51:27</t>
         </is>
       </c>
     </row>
@@ -18628,7 +18628,7 @@
       </c>
       <c r="O267" t="inlineStr">
         <is>
-          <t>2023-01-10 12:59:00</t>
+          <t>2023-01-10 20:51:27</t>
         </is>
       </c>
     </row>
@@ -18701,7 +18701,7 @@
       </c>
       <c r="O268" t="inlineStr">
         <is>
-          <t>2023-01-10 12:59:00</t>
+          <t>2023-01-10 20:51:27</t>
         </is>
       </c>
     </row>
@@ -18770,7 +18770,7 @@
       <c r="N269" t="inlineStr"/>
       <c r="O269" t="inlineStr">
         <is>
-          <t>2023-01-10 12:59:00</t>
+          <t>2023-01-10 20:51:27</t>
         </is>
       </c>
     </row>
@@ -18843,7 +18843,7 @@
       </c>
       <c r="O270" t="inlineStr">
         <is>
-          <t>2023-01-10 12:59:00</t>
+          <t>2023-01-10 20:51:27</t>
         </is>
       </c>
     </row>
@@ -18908,7 +18908,7 @@
       <c r="N271" t="inlineStr"/>
       <c r="O271" t="inlineStr">
         <is>
-          <t>2023-01-10 12:59:00</t>
+          <t>2023-01-10 20:51:27</t>
         </is>
       </c>
     </row>
@@ -18981,7 +18981,7 @@
       </c>
       <c r="O272" t="inlineStr">
         <is>
-          <t>2023-01-10 12:59:00</t>
+          <t>2023-01-10 20:51:27</t>
         </is>
       </c>
     </row>
@@ -19054,7 +19054,7 @@
       </c>
       <c r="O273" t="inlineStr">
         <is>
-          <t>2023-01-10 12:59:00</t>
+          <t>2023-01-10 20:51:27</t>
         </is>
       </c>
     </row>
@@ -19117,13 +19117,13 @@
       </c>
       <c r="M274" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Artischocke 1 Stück 1.95 Schweizer Franken</t>
+          <t>Naturaplan Bio Artischocke 1 Stück - Online kein Bestand 1.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N274" t="inlineStr"/>
       <c r="O274" t="inlineStr">
         <is>
-          <t>2023-01-10 12:59:00</t>
+          <t>2023-01-10 20:51:27</t>
         </is>
       </c>
     </row>
@@ -19192,7 +19192,7 @@
       <c r="N275" t="inlineStr"/>
       <c r="O275" t="inlineStr">
         <is>
-          <t>2023-01-10 12:59:00</t>
+          <t>2023-01-10 20:51:27</t>
         </is>
       </c>
     </row>
@@ -19257,7 +19257,7 @@
       <c r="N276" t="inlineStr"/>
       <c r="O276" t="inlineStr">
         <is>
-          <t>2023-01-10 12:59:00</t>
+          <t>2023-01-10 20:51:27</t>
         </is>
       </c>
     </row>
@@ -19326,7 +19326,7 @@
       <c r="N277" t="inlineStr"/>
       <c r="O277" t="inlineStr">
         <is>
-          <t>2023-01-10 12:59:00</t>
+          <t>2023-01-10 20:51:27</t>
         </is>
       </c>
     </row>
@@ -19399,7 +19399,7 @@
       </c>
       <c r="O278" t="inlineStr">
         <is>
-          <t>2023-01-10 12:59:00</t>
+          <t>2023-01-10 20:51:27</t>
         </is>
       </c>
     </row>
@@ -19464,7 +19464,7 @@
       <c r="N279" t="inlineStr"/>
       <c r="O279" t="inlineStr">
         <is>
-          <t>2023-01-10 12:59:00</t>
+          <t>2023-01-10 20:51:27</t>
         </is>
       </c>
     </row>
@@ -19537,7 +19537,7 @@
       </c>
       <c r="O280" t="inlineStr">
         <is>
-          <t>2023-01-10 12:59:00</t>
+          <t>2023-01-10 20:51:27</t>
         </is>
       </c>
     </row>
@@ -19606,7 +19606,7 @@
       <c r="N281" t="inlineStr"/>
       <c r="O281" t="inlineStr">
         <is>
-          <t>2023-01-10 12:59:00</t>
+          <t>2023-01-10 20:51:27</t>
         </is>
       </c>
     </row>
@@ -19671,7 +19671,7 @@
       <c r="N282" t="inlineStr"/>
       <c r="O282" t="inlineStr">
         <is>
-          <t>2023-01-10 12:59:00</t>
+          <t>2023-01-10 20:51:27</t>
         </is>
       </c>
     </row>
@@ -19736,7 +19736,7 @@
       <c r="N283" t="inlineStr"/>
       <c r="O283" t="inlineStr">
         <is>
-          <t>2023-01-10 12:59:00</t>
+          <t>2023-01-10 20:51:27</t>
         </is>
       </c>
     </row>
@@ -19801,7 +19801,7 @@
       <c r="N284" t="inlineStr"/>
       <c r="O284" t="inlineStr">
         <is>
-          <t>2023-01-10 12:59:00</t>
+          <t>2023-01-10 20:51:27</t>
         </is>
       </c>
     </row>
@@ -19874,7 +19874,7 @@
       </c>
       <c r="O285" t="inlineStr">
         <is>
-          <t>2023-01-10 12:59:00</t>
+          <t>2023-01-10 20:51:27</t>
         </is>
       </c>
     </row>
@@ -19947,7 +19947,7 @@
       </c>
       <c r="O286" t="inlineStr">
         <is>
-          <t>2023-01-10 12:59:00</t>
+          <t>2023-01-10 20:51:27</t>
         </is>
       </c>
     </row>
@@ -20020,7 +20020,7 @@
       </c>
       <c r="O287" t="inlineStr">
         <is>
-          <t>2023-01-10 12:59:00</t>
+          <t>2023-01-10 20:51:27</t>
         </is>
       </c>
     </row>
@@ -20089,7 +20089,7 @@
       <c r="N288" t="inlineStr"/>
       <c r="O288" t="inlineStr">
         <is>
-          <t>2023-01-10 12:59:00</t>
+          <t>2023-01-10 20:51:27</t>
         </is>
       </c>
     </row>
@@ -20158,7 +20158,7 @@
       <c r="N289" t="inlineStr"/>
       <c r="O289" t="inlineStr">
         <is>
-          <t>2023-01-10 12:59:00</t>
+          <t>2023-01-10 20:51:27</t>
         </is>
       </c>
     </row>
@@ -20231,7 +20231,7 @@
       </c>
       <c r="O290" t="inlineStr">
         <is>
-          <t>2023-01-10 12:59:00</t>
+          <t>2023-01-10 20:51:27</t>
         </is>
       </c>
     </row>
@@ -20296,7 +20296,7 @@
       <c r="N291" t="inlineStr"/>
       <c r="O291" t="inlineStr">
         <is>
-          <t>2023-01-10 12:59:00</t>
+          <t>2023-01-10 20:51:27</t>
         </is>
       </c>
     </row>
@@ -20369,7 +20369,7 @@
       </c>
       <c r="O292" t="inlineStr">
         <is>
-          <t>2023-01-10 12:59:00</t>
+          <t>2023-01-10 20:51:27</t>
         </is>
       </c>
     </row>
@@ -20442,7 +20442,7 @@
       </c>
       <c r="O293" t="inlineStr">
         <is>
-          <t>2023-01-10 12:59:00</t>
+          <t>2023-01-10 20:51:27</t>
         </is>
       </c>
     </row>
@@ -20511,7 +20511,7 @@
       <c r="N294" t="inlineStr"/>
       <c r="O294" t="inlineStr">
         <is>
-          <t>2023-01-10 12:59:00</t>
+          <t>2023-01-10 20:51:27</t>
         </is>
       </c>
     </row>
@@ -20584,7 +20584,7 @@
       </c>
       <c r="O295" t="inlineStr">
         <is>
-          <t>2023-01-10 12:59:00</t>
+          <t>2023-01-10 20:51:27</t>
         </is>
       </c>
     </row>
@@ -20647,7 +20647,7 @@
       <c r="N296" t="inlineStr"/>
       <c r="O296" t="inlineStr">
         <is>
-          <t>2023-01-10 12:59:00</t>
+          <t>2023-01-10 20:51:27</t>
         </is>
       </c>
     </row>
@@ -20716,7 +20716,7 @@
       <c r="N297" t="inlineStr"/>
       <c r="O297" t="inlineStr">
         <is>
-          <t>2023-01-10 12:59:00</t>
+          <t>2023-01-10 20:51:27</t>
         </is>
       </c>
     </row>
@@ -20789,7 +20789,7 @@
       </c>
       <c r="O298" t="inlineStr">
         <is>
-          <t>2023-01-10 12:59:00</t>
+          <t>2023-01-10 20:51:27</t>
         </is>
       </c>
     </row>
@@ -20852,7 +20852,7 @@
       <c r="N299" t="inlineStr"/>
       <c r="O299" t="inlineStr">
         <is>
-          <t>2023-01-10 12:59:00</t>
+          <t>2023-01-10 20:51:27</t>
         </is>
       </c>
     </row>
@@ -20903,7 +20903,7 @@
       <c r="N300" t="inlineStr"/>
       <c r="O300" t="inlineStr">
         <is>
-          <t>2023-01-10 12:59:00</t>
+          <t>2023-01-10 20:51:27</t>
         </is>
       </c>
     </row>
@@ -20976,7 +20976,7 @@
       </c>
       <c r="O301" t="inlineStr">
         <is>
-          <t>2023-01-10 12:59:00</t>
+          <t>2023-01-10 20:51:27</t>
         </is>
       </c>
     </row>
@@ -21041,7 +21041,7 @@
       <c r="N302" t="inlineStr"/>
       <c r="O302" t="inlineStr">
         <is>
-          <t>2023-01-10 12:59:00</t>
+          <t>2023-01-10 20:51:27</t>
         </is>
       </c>
     </row>
@@ -21114,7 +21114,7 @@
       </c>
       <c r="O303" t="inlineStr">
         <is>
-          <t>2023-01-10 12:59:00</t>
+          <t>2023-01-10 20:51:27</t>
         </is>
       </c>
     </row>
@@ -21187,7 +21187,7 @@
       </c>
       <c r="O304" t="inlineStr">
         <is>
-          <t>2023-01-10 12:59:00</t>
+          <t>2023-01-10 20:51:27</t>
         </is>
       </c>
     </row>
@@ -21252,7 +21252,7 @@
       <c r="N305" t="inlineStr"/>
       <c r="O305" t="inlineStr">
         <is>
-          <t>2023-01-10 12:59:00</t>
+          <t>2023-01-10 20:51:27</t>
         </is>
       </c>
     </row>
@@ -21321,7 +21321,7 @@
       <c r="N306" t="inlineStr"/>
       <c r="O306" t="inlineStr">
         <is>
-          <t>2023-01-10 12:59:00</t>
+          <t>2023-01-10 20:51:27</t>
         </is>
       </c>
     </row>
@@ -21370,7 +21370,7 @@
       <c r="N307" t="inlineStr"/>
       <c r="O307" t="inlineStr">
         <is>
-          <t>2023-01-10 12:59:00</t>
+          <t>2023-01-10 20:51:27</t>
         </is>
       </c>
     </row>
@@ -21443,7 +21443,7 @@
       </c>
       <c r="O308" t="inlineStr">
         <is>
-          <t>2023-01-10 12:59:00</t>
+          <t>2023-01-10 20:51:27</t>
         </is>
       </c>
     </row>
@@ -21506,7 +21506,7 @@
       <c r="N309" t="inlineStr"/>
       <c r="O309" t="inlineStr">
         <is>
-          <t>2023-01-10 12:59:00</t>
+          <t>2023-01-10 20:51:27</t>
         </is>
       </c>
     </row>
@@ -21575,7 +21575,7 @@
       <c r="N310" t="inlineStr"/>
       <c r="O310" t="inlineStr">
         <is>
-          <t>2023-01-10 12:59:00</t>
+          <t>2023-01-10 20:51:27</t>
         </is>
       </c>
     </row>
@@ -21640,7 +21640,7 @@
       <c r="N311" t="inlineStr"/>
       <c r="O311" t="inlineStr">
         <is>
-          <t>2023-01-10 12:59:00</t>
+          <t>2023-01-10 20:51:27</t>
         </is>
       </c>
     </row>
@@ -21713,7 +21713,7 @@
       </c>
       <c r="O312" t="inlineStr">
         <is>
-          <t>2023-01-10 12:59:00</t>
+          <t>2023-01-10 20:51:27</t>
         </is>
       </c>
     </row>
@@ -21786,7 +21786,7 @@
       </c>
       <c r="O313" t="inlineStr">
         <is>
-          <t>2023-01-10 12:59:00</t>
+          <t>2023-01-10 20:51:27</t>
         </is>
       </c>
     </row>
@@ -21855,7 +21855,7 @@
       <c r="N314" t="inlineStr"/>
       <c r="O314" t="inlineStr">
         <is>
-          <t>2023-01-10 12:59:00</t>
+          <t>2023-01-10 20:51:27</t>
         </is>
       </c>
     </row>
@@ -21920,7 +21920,7 @@
       <c r="N315" t="inlineStr"/>
       <c r="O315" t="inlineStr">
         <is>
-          <t>2023-01-10 12:59:00</t>
+          <t>2023-01-10 20:51:27</t>
         </is>
       </c>
     </row>
@@ -21989,7 +21989,7 @@
       <c r="N316" t="inlineStr"/>
       <c r="O316" t="inlineStr">
         <is>
-          <t>2023-01-10 12:59:00</t>
+          <t>2023-01-10 20:51:27</t>
         </is>
       </c>
     </row>
@@ -22062,7 +22062,7 @@
       </c>
       <c r="O317" t="inlineStr">
         <is>
-          <t>2023-01-10 12:59:00</t>
+          <t>2023-01-10 20:51:27</t>
         </is>
       </c>
     </row>
@@ -22127,7 +22127,7 @@
       <c r="N318" t="inlineStr"/>
       <c r="O318" t="inlineStr">
         <is>
-          <t>2023-01-10 12:59:00</t>
+          <t>2023-01-10 20:51:27</t>
         </is>
       </c>
     </row>
@@ -22196,7 +22196,7 @@
       <c r="N319" t="inlineStr"/>
       <c r="O319" t="inlineStr">
         <is>
-          <t>2023-01-10 12:59:00</t>
+          <t>2023-01-10 20:51:27</t>
         </is>
       </c>
     </row>
@@ -22265,7 +22265,7 @@
       </c>
       <c r="O320" t="inlineStr">
         <is>
-          <t>2023-01-10 12:59:00</t>
+          <t>2023-01-10 20:51:27</t>
         </is>
       </c>
     </row>
@@ -22338,7 +22338,7 @@
       </c>
       <c r="O321" t="inlineStr">
         <is>
-          <t>2023-01-10 12:59:00</t>
+          <t>2023-01-10 20:51:27</t>
         </is>
       </c>
     </row>
@@ -22411,7 +22411,7 @@
       </c>
       <c r="O322" t="inlineStr">
         <is>
-          <t>2023-01-10 12:59:00</t>
+          <t>2023-01-10 20:51:27</t>
         </is>
       </c>
     </row>
@@ -22480,7 +22480,7 @@
       <c r="N323" t="inlineStr"/>
       <c r="O323" t="inlineStr">
         <is>
-          <t>2023-01-10 12:59:00</t>
+          <t>2023-01-10 20:51:27</t>
         </is>
       </c>
     </row>
@@ -22553,7 +22553,7 @@
       </c>
       <c r="O324" t="inlineStr">
         <is>
-          <t>2023-01-10 12:59:00</t>
+          <t>2023-01-10 20:51:27</t>
         </is>
       </c>
     </row>
@@ -22626,7 +22626,7 @@
       </c>
       <c r="O325" t="inlineStr">
         <is>
-          <t>2023-01-10 12:59:00</t>
+          <t>2023-01-10 20:51:27</t>
         </is>
       </c>
     </row>
@@ -22691,7 +22691,7 @@
       <c r="N326" t="inlineStr"/>
       <c r="O326" t="inlineStr">
         <is>
-          <t>2023-01-10 12:59:00</t>
+          <t>2023-01-10 20:51:27</t>
         </is>
       </c>
     </row>
@@ -22764,7 +22764,7 @@
       </c>
       <c r="O327" t="inlineStr">
         <is>
-          <t>2023-01-10 12:59:00</t>
+          <t>2023-01-10 20:51:27</t>
         </is>
       </c>
     </row>
@@ -22833,7 +22833,7 @@
       <c r="N328" t="inlineStr"/>
       <c r="O328" t="inlineStr">
         <is>
-          <t>2023-01-10 12:59:00</t>
+          <t>2023-01-10 20:51:27</t>
         </is>
       </c>
     </row>
@@ -22902,7 +22902,7 @@
       <c r="N329" t="inlineStr"/>
       <c r="O329" t="inlineStr">
         <is>
-          <t>2023-01-10 12:59:00</t>
+          <t>2023-01-10 20:51:27</t>
         </is>
       </c>
     </row>
@@ -22975,7 +22975,7 @@
       </c>
       <c r="O330" t="inlineStr">
         <is>
-          <t>2023-01-10 12:59:00</t>
+          <t>2023-01-10 20:51:27</t>
         </is>
       </c>
     </row>
@@ -23048,7 +23048,7 @@
       </c>
       <c r="O331" t="inlineStr">
         <is>
-          <t>2023-01-10 12:59:00</t>
+          <t>2023-01-10 20:51:27</t>
         </is>
       </c>
     </row>
@@ -23121,7 +23121,7 @@
       </c>
       <c r="O332" t="inlineStr">
         <is>
-          <t>2023-01-10 12:59:00</t>
+          <t>2023-01-10 20:51:27</t>
         </is>
       </c>
     </row>
@@ -23174,7 +23174,7 @@
       <c r="N333" t="inlineStr"/>
       <c r="O333" t="inlineStr">
         <is>
-          <t>2023-01-10 12:59:00</t>
+          <t>2023-01-10 20:51:27</t>
         </is>
       </c>
     </row>
@@ -23247,7 +23247,7 @@
       </c>
       <c r="O334" t="inlineStr">
         <is>
-          <t>2023-01-10 12:59:00</t>
+          <t>2023-01-10 20:51:27</t>
         </is>
       </c>
     </row>
@@ -23312,7 +23312,7 @@
       <c r="N335" t="inlineStr"/>
       <c r="O335" t="inlineStr">
         <is>
-          <t>2023-01-10 12:59:00</t>
+          <t>2023-01-10 20:51:27</t>
         </is>
       </c>
     </row>
@@ -23377,7 +23377,7 @@
       <c r="N336" t="inlineStr"/>
       <c r="O336" t="inlineStr">
         <is>
-          <t>2023-01-10 12:59:00</t>
+          <t>2023-01-10 20:51:27</t>
         </is>
       </c>
     </row>
@@ -23440,7 +23440,7 @@
       <c r="N337" t="inlineStr"/>
       <c r="O337" t="inlineStr">
         <is>
-          <t>2023-01-10 12:59:00</t>
+          <t>2023-01-10 20:51:27</t>
         </is>
       </c>
     </row>
@@ -23513,7 +23513,7 @@
       </c>
       <c r="O338" t="inlineStr">
         <is>
-          <t>2023-01-10 12:59:00</t>
+          <t>2023-01-10 20:51:27</t>
         </is>
       </c>
     </row>
@@ -23582,7 +23582,7 @@
       <c r="N339" t="inlineStr"/>
       <c r="O339" t="inlineStr">
         <is>
-          <t>2023-01-10 12:59:00</t>
+          <t>2023-01-10 20:51:27</t>
         </is>
       </c>
     </row>
@@ -23655,7 +23655,7 @@
       </c>
       <c r="O340" t="inlineStr">
         <is>
-          <t>2023-01-10 12:59:00</t>
+          <t>2023-01-10 20:51:27</t>
         </is>
       </c>
     </row>
@@ -23722,7 +23722,7 @@
       <c r="N341" t="inlineStr"/>
       <c r="O341" t="inlineStr">
         <is>
-          <t>2023-01-10 12:59:00</t>
+          <t>2023-01-10 20:51:27</t>
         </is>
       </c>
     </row>
@@ -23787,7 +23787,7 @@
       <c r="N342" t="inlineStr"/>
       <c r="O342" t="inlineStr">
         <is>
-          <t>2023-01-10 12:59:00</t>
+          <t>2023-01-10 20:51:27</t>
         </is>
       </c>
     </row>
@@ -23850,7 +23850,7 @@
       <c r="N343" t="inlineStr"/>
       <c r="O343" t="inlineStr">
         <is>
-          <t>2023-01-10 12:59:00</t>
+          <t>2023-01-10 20:51:27</t>
         </is>
       </c>
     </row>
@@ -23919,7 +23919,7 @@
       <c r="N344" t="inlineStr"/>
       <c r="O344" t="inlineStr">
         <is>
-          <t>2023-01-10 12:59:00</t>
+          <t>2023-01-10 20:51:27</t>
         </is>
       </c>
     </row>
@@ -23992,7 +23992,7 @@
       </c>
       <c r="O345" t="inlineStr">
         <is>
-          <t>2023-01-10 12:59:00</t>
+          <t>2023-01-10 20:51:27</t>
         </is>
       </c>
     </row>
@@ -24061,7 +24061,7 @@
       <c r="N346" t="inlineStr"/>
       <c r="O346" t="inlineStr">
         <is>
-          <t>2023-01-10 12:59:00</t>
+          <t>2023-01-10 20:51:27</t>
         </is>
       </c>
     </row>
@@ -24130,7 +24130,7 @@
       <c r="N347" t="inlineStr"/>
       <c r="O347" t="inlineStr">
         <is>
-          <t>2023-01-10 12:59:00</t>
+          <t>2023-01-10 20:51:27</t>
         </is>
       </c>
     </row>
@@ -24199,7 +24199,7 @@
       <c r="N348" t="inlineStr"/>
       <c r="O348" t="inlineStr">
         <is>
-          <t>2023-01-10 12:59:00</t>
+          <t>2023-01-10 20:51:27</t>
         </is>
       </c>
     </row>
@@ -24272,7 +24272,7 @@
       </c>
       <c r="O349" t="inlineStr">
         <is>
-          <t>2023-01-10 12:59:00</t>
+          <t>2023-01-10 20:51:27</t>
         </is>
       </c>
     </row>
@@ -24341,7 +24341,7 @@
       <c r="N350" t="inlineStr"/>
       <c r="O350" t="inlineStr">
         <is>
-          <t>2023-01-10 12:59:00</t>
+          <t>2023-01-10 20:51:27</t>
         </is>
       </c>
     </row>
@@ -24406,7 +24406,7 @@
       <c r="N351" t="inlineStr"/>
       <c r="O351" t="inlineStr">
         <is>
-          <t>2023-01-10 12:59:00</t>
+          <t>2023-01-10 20:51:27</t>
         </is>
       </c>
     </row>
@@ -24479,7 +24479,7 @@
       </c>
       <c r="O352" t="inlineStr">
         <is>
-          <t>2023-01-10 12:59:00</t>
+          <t>2023-01-10 20:51:27</t>
         </is>
       </c>
     </row>
@@ -24552,7 +24552,7 @@
       </c>
       <c r="O353" t="inlineStr">
         <is>
-          <t>2023-01-10 12:59:00</t>
+          <t>2023-01-10 20:51:27</t>
         </is>
       </c>
     </row>
@@ -24625,7 +24625,7 @@
       </c>
       <c r="O354" t="inlineStr">
         <is>
-          <t>2023-01-10 12:59:00</t>
+          <t>2023-01-10 20:51:27</t>
         </is>
       </c>
     </row>
@@ -24698,7 +24698,7 @@
       </c>
       <c r="O355" t="inlineStr">
         <is>
-          <t>2023-01-10 12:59:00</t>
+          <t>2023-01-10 20:51:27</t>
         </is>
       </c>
     </row>
@@ -24771,7 +24771,7 @@
       </c>
       <c r="O356" t="inlineStr">
         <is>
-          <t>2023-01-10 12:59:00</t>
+          <t>2023-01-10 20:51:27</t>
         </is>
       </c>
     </row>
@@ -24840,7 +24840,7 @@
       <c r="N357" t="inlineStr"/>
       <c r="O357" t="inlineStr">
         <is>
-          <t>2023-01-10 12:59:00</t>
+          <t>2023-01-10 20:51:27</t>
         </is>
       </c>
     </row>
@@ -24905,7 +24905,7 @@
       <c r="N358" t="inlineStr"/>
       <c r="O358" t="inlineStr">
         <is>
-          <t>2023-01-10 12:59:00</t>
+          <t>2023-01-10 20:51:27</t>
         </is>
       </c>
     </row>
@@ -24978,7 +24978,7 @@
       </c>
       <c r="O359" t="inlineStr">
         <is>
-          <t>2023-01-10 12:59:00</t>
+          <t>2023-01-10 20:51:27</t>
         </is>
       </c>
     </row>
@@ -25051,7 +25051,7 @@
       </c>
       <c r="O360" t="inlineStr">
         <is>
-          <t>2023-01-10 12:59:00</t>
+          <t>2023-01-10 20:51:27</t>
         </is>
       </c>
     </row>
@@ -25120,7 +25120,7 @@
       <c r="N361" t="inlineStr"/>
       <c r="O361" t="inlineStr">
         <is>
-          <t>2023-01-10 12:59:00</t>
+          <t>2023-01-10 20:51:27</t>
         </is>
       </c>
     </row>
@@ -25193,7 +25193,7 @@
       </c>
       <c r="O362" t="inlineStr">
         <is>
-          <t>2023-01-10 12:59:00</t>
+          <t>2023-01-10 20:51:27</t>
         </is>
       </c>
     </row>
@@ -25266,7 +25266,7 @@
       </c>
       <c r="O363" t="inlineStr">
         <is>
-          <t>2023-01-10 12:59:00</t>
+          <t>2023-01-10 20:51:27</t>
         </is>
       </c>
     </row>
@@ -25331,7 +25331,7 @@
       <c r="N364" t="inlineStr"/>
       <c r="O364" t="inlineStr">
         <is>
-          <t>2023-01-10 12:59:00</t>
+          <t>2023-01-10 20:51:27</t>
         </is>
       </c>
     </row>
@@ -25404,7 +25404,7 @@
       </c>
       <c r="O365" t="inlineStr">
         <is>
-          <t>2023-01-10 12:59:00</t>
+          <t>2023-01-10 20:51:27</t>
         </is>
       </c>
     </row>
@@ -25473,7 +25473,7 @@
       <c r="N366" t="inlineStr"/>
       <c r="O366" t="inlineStr">
         <is>
-          <t>2023-01-10 12:59:00</t>
+          <t>2023-01-10 20:51:27</t>
         </is>
       </c>
     </row>
@@ -25542,7 +25542,7 @@
       <c r="N367" t="inlineStr"/>
       <c r="O367" t="inlineStr">
         <is>
-          <t>2023-01-10 12:59:00</t>
+          <t>2023-01-10 20:51:27</t>
         </is>
       </c>
     </row>
@@ -25615,7 +25615,7 @@
       </c>
       <c r="O368" t="inlineStr">
         <is>
-          <t>2023-01-10 12:59:00</t>
+          <t>2023-01-10 20:51:27</t>
         </is>
       </c>
     </row>
@@ -25688,7 +25688,7 @@
       </c>
       <c r="O369" t="inlineStr">
         <is>
-          <t>2023-01-10 12:59:00</t>
+          <t>2023-01-10 20:51:27</t>
         </is>
       </c>
     </row>
@@ -25757,7 +25757,7 @@
       <c r="N370" t="inlineStr"/>
       <c r="O370" t="inlineStr">
         <is>
-          <t>2023-01-10 12:59:00</t>
+          <t>2023-01-10 20:51:27</t>
         </is>
       </c>
     </row>
@@ -25822,7 +25822,7 @@
       <c r="N371" t="inlineStr"/>
       <c r="O371" t="inlineStr">
         <is>
-          <t>2023-01-10 12:59:00</t>
+          <t>2023-01-10 20:51:27</t>
         </is>
       </c>
     </row>
@@ -25891,7 +25891,7 @@
       <c r="N372" t="inlineStr"/>
       <c r="O372" t="inlineStr">
         <is>
-          <t>2023-01-10 12:59:00</t>
+          <t>2023-01-10 20:51:27</t>
         </is>
       </c>
     </row>
@@ -25960,7 +25960,7 @@
       <c r="N373" t="inlineStr"/>
       <c r="O373" t="inlineStr">
         <is>
-          <t>2023-01-10 12:59:00</t>
+          <t>2023-01-10 20:51:27</t>
         </is>
       </c>
     </row>
@@ -26029,7 +26029,7 @@
       <c r="N374" t="inlineStr"/>
       <c r="O374" t="inlineStr">
         <is>
-          <t>2023-01-10 12:59:00</t>
+          <t>2023-01-10 20:51:27</t>
         </is>
       </c>
     </row>
@@ -26094,7 +26094,7 @@
       <c r="N375" t="inlineStr"/>
       <c r="O375" t="inlineStr">
         <is>
-          <t>2023-01-10 12:59:00</t>
+          <t>2023-01-10 20:51:27</t>
         </is>
       </c>
     </row>
@@ -26167,7 +26167,7 @@
       </c>
       <c r="O376" t="inlineStr">
         <is>
-          <t>2023-01-10 12:59:00</t>
+          <t>2023-01-10 20:51:27</t>
         </is>
       </c>
     </row>
@@ -26236,7 +26236,7 @@
       <c r="N377" t="inlineStr"/>
       <c r="O377" t="inlineStr">
         <is>
-          <t>2023-01-10 12:59:00</t>
+          <t>2023-01-10 20:51:27</t>
         </is>
       </c>
     </row>
@@ -26309,7 +26309,7 @@
       </c>
       <c r="O378" t="inlineStr">
         <is>
-          <t>2023-01-10 12:59:00</t>
+          <t>2023-01-10 20:51:27</t>
         </is>
       </c>
     </row>
@@ -26382,7 +26382,7 @@
       </c>
       <c r="O379" t="inlineStr">
         <is>
-          <t>2023-01-10 12:59:00</t>
+          <t>2023-01-10 20:51:27</t>
         </is>
       </c>
     </row>
@@ -26455,7 +26455,7 @@
       </c>
       <c r="O380" t="inlineStr">
         <is>
-          <t>2023-01-10 12:59:00</t>
+          <t>2023-01-10 20:51:27</t>
         </is>
       </c>
     </row>
@@ -26524,7 +26524,7 @@
       <c r="N381" t="inlineStr"/>
       <c r="O381" t="inlineStr">
         <is>
-          <t>2023-01-10 12:59:00</t>
+          <t>2023-01-10 20:51:27</t>
         </is>
       </c>
     </row>
@@ -26597,7 +26597,7 @@
       </c>
       <c r="O382" t="inlineStr">
         <is>
-          <t>2023-01-10 12:59:00</t>
+          <t>2023-01-10 20:51:27</t>
         </is>
       </c>
     </row>
@@ -26670,7 +26670,7 @@
       </c>
       <c r="O383" t="inlineStr">
         <is>
-          <t>2023-01-10 12:59:00</t>
+          <t>2023-01-10 20:51:27</t>
         </is>
       </c>
     </row>
@@ -26743,7 +26743,7 @@
       </c>
       <c r="O384" t="inlineStr">
         <is>
-          <t>2023-01-10 12:59:00</t>
+          <t>2023-01-10 20:51:27</t>
         </is>
       </c>
     </row>
@@ -26812,7 +26812,7 @@
       <c r="N385" t="inlineStr"/>
       <c r="O385" t="inlineStr">
         <is>
-          <t>2023-01-10 12:59:00</t>
+          <t>2023-01-10 20:51:27</t>
         </is>
       </c>
     </row>
@@ -26885,7 +26885,7 @@
       </c>
       <c r="O386" t="inlineStr">
         <is>
-          <t>2023-01-10 12:59:00</t>
+          <t>2023-01-10 20:51:27</t>
         </is>
       </c>
     </row>
@@ -26958,7 +26958,7 @@
       </c>
       <c r="O387" t="inlineStr">
         <is>
-          <t>2023-01-10 12:59:00</t>
+          <t>2023-01-10 20:51:27</t>
         </is>
       </c>
     </row>
@@ -27021,7 +27021,7 @@
       <c r="N388" t="inlineStr"/>
       <c r="O388" t="inlineStr">
         <is>
-          <t>2023-01-10 12:59:00</t>
+          <t>2023-01-10 20:51:27</t>
         </is>
       </c>
     </row>
@@ -27088,7 +27088,7 @@
       <c r="N389" t="inlineStr"/>
       <c r="O389" t="inlineStr">
         <is>
-          <t>2023-01-10 12:59:00</t>
+          <t>2023-01-10 20:51:27</t>
         </is>
       </c>
     </row>
@@ -27161,7 +27161,7 @@
       </c>
       <c r="O390" t="inlineStr">
         <is>
-          <t>2023-01-10 12:59:00</t>
+          <t>2023-01-10 20:51:27</t>
         </is>
       </c>
     </row>
@@ -27210,7 +27210,7 @@
       <c r="N391" t="inlineStr"/>
       <c r="O391" t="inlineStr">
         <is>
-          <t>2023-01-10 12:59:00</t>
+          <t>2023-01-10 20:51:27</t>
         </is>
       </c>
     </row>
@@ -27283,7 +27283,7 @@
       </c>
       <c r="O392" t="inlineStr">
         <is>
-          <t>2023-01-10 12:59:00</t>
+          <t>2023-01-10 20:51:27</t>
         </is>
       </c>
     </row>
@@ -27352,7 +27352,7 @@
       <c r="N393" t="inlineStr"/>
       <c r="O393" t="inlineStr">
         <is>
-          <t>2023-01-10 12:59:00</t>
+          <t>2023-01-10 20:51:27</t>
         </is>
       </c>
     </row>
@@ -27425,7 +27425,7 @@
       </c>
       <c r="O394" t="inlineStr">
         <is>
-          <t>2023-01-10 12:59:00</t>
+          <t>2023-01-10 20:51:27</t>
         </is>
       </c>
     </row>
@@ -27498,7 +27498,7 @@
       </c>
       <c r="O395" t="inlineStr">
         <is>
-          <t>2023-01-10 12:59:00</t>
+          <t>2023-01-10 20:51:27</t>
         </is>
       </c>
     </row>
@@ -27561,7 +27561,7 @@
       </c>
       <c r="M396" t="inlineStr">
         <is>
-          <t>Betty Bossi Naturaplan Bio Mungbohnen-Sprossen 2.20 Schweizer Franken</t>
+          <t>Betty Bossi Naturaplan Bio Mungbohnen-Sprossen - Online kein Bestand 2.20 Schweizer Franken</t>
         </is>
       </c>
       <c r="N396" t="inlineStr">
@@ -27571,7 +27571,7 @@
       </c>
       <c r="O396" t="inlineStr">
         <is>
-          <t>2023-01-10 12:59:00</t>
+          <t>2023-01-10 20:51:27</t>
         </is>
       </c>
     </row>
@@ -27644,7 +27644,7 @@
       </c>
       <c r="O397" t="inlineStr">
         <is>
-          <t>2023-01-10 12:59:00</t>
+          <t>2023-01-10 20:51:27</t>
         </is>
       </c>
     </row>
@@ -27713,7 +27713,7 @@
       <c r="N398" t="inlineStr"/>
       <c r="O398" t="inlineStr">
         <is>
-          <t>2023-01-10 12:59:00</t>
+          <t>2023-01-10 20:51:27</t>
         </is>
       </c>
     </row>
@@ -27786,7 +27786,7 @@
       </c>
       <c r="O399" t="inlineStr">
         <is>
-          <t>2023-01-10 12:59:00</t>
+          <t>2023-01-10 20:51:27</t>
         </is>
       </c>
     </row>
@@ -27859,7 +27859,7 @@
       </c>
       <c r="O400" t="inlineStr">
         <is>
-          <t>2023-01-10 12:59:00</t>
+          <t>2023-01-10 20:51:27</t>
         </is>
       </c>
     </row>
@@ -27928,7 +27928,7 @@
       </c>
       <c r="O401" t="inlineStr">
         <is>
-          <t>2023-01-10 12:59:00</t>
+          <t>2023-01-10 20:51:27</t>
         </is>
       </c>
     </row>
@@ -27991,7 +27991,7 @@
       <c r="N402" t="inlineStr"/>
       <c r="O402" t="inlineStr">
         <is>
-          <t>2023-01-10 12:59:00</t>
+          <t>2023-01-10 20:51:27</t>
         </is>
       </c>
     </row>
@@ -28056,7 +28056,7 @@
       <c r="N403" t="inlineStr"/>
       <c r="O403" t="inlineStr">
         <is>
-          <t>2023-01-10 12:59:00</t>
+          <t>2023-01-10 20:51:27</t>
         </is>
       </c>
     </row>
@@ -28129,7 +28129,7 @@
       </c>
       <c r="O404" t="inlineStr">
         <is>
-          <t>2023-01-10 12:59:00</t>
+          <t>2023-01-10 20:51:27</t>
         </is>
       </c>
     </row>
@@ -28198,7 +28198,7 @@
       <c r="N405" t="inlineStr"/>
       <c r="O405" t="inlineStr">
         <is>
-          <t>2023-01-10 12:59:00</t>
+          <t>2023-01-10 20:51:27</t>
         </is>
       </c>
     </row>
@@ -28263,7 +28263,7 @@
       <c r="N406" t="inlineStr"/>
       <c r="O406" t="inlineStr">
         <is>
-          <t>2023-01-10 12:59:00</t>
+          <t>2023-01-10 20:51:27</t>
         </is>
       </c>
     </row>
@@ -28336,7 +28336,7 @@
       </c>
       <c r="O407" t="inlineStr">
         <is>
-          <t>2023-01-10 12:59:00</t>
+          <t>2023-01-10 20:51:27</t>
         </is>
       </c>
     </row>
@@ -28409,7 +28409,7 @@
       </c>
       <c r="O408" t="inlineStr">
         <is>
-          <t>2023-01-10 12:59:00</t>
+          <t>2023-01-10 20:51:27</t>
         </is>
       </c>
     </row>
@@ -28482,7 +28482,7 @@
       </c>
       <c r="O409" t="inlineStr">
         <is>
-          <t>2023-01-10 12:59:00</t>
+          <t>2023-01-10 20:51:27</t>
         </is>
       </c>
     </row>
@@ -28555,7 +28555,7 @@
       </c>
       <c r="O410" t="inlineStr">
         <is>
-          <t>2023-01-10 12:59:00</t>
+          <t>2023-01-10 20:51:27</t>
         </is>
       </c>
     </row>
@@ -28628,7 +28628,7 @@
       </c>
       <c r="O411" t="inlineStr">
         <is>
-          <t>2023-01-10 12:59:00</t>
+          <t>2023-01-10 20:51:27</t>
         </is>
       </c>
     </row>
@@ -28701,7 +28701,7 @@
       </c>
       <c r="O412" t="inlineStr">
         <is>
-          <t>2023-01-10 12:59:00</t>
+          <t>2023-01-10 20:51:27</t>
         </is>
       </c>
     </row>
@@ -28774,7 +28774,7 @@
       </c>
       <c r="O413" t="inlineStr">
         <is>
-          <t>2023-01-10 12:59:00</t>
+          <t>2023-01-10 20:51:27</t>
         </is>
       </c>
     </row>
@@ -28847,7 +28847,7 @@
       </c>
       <c r="O414" t="inlineStr">
         <is>
-          <t>2023-01-10 12:59:00</t>
+          <t>2023-01-10 20:51:27</t>
         </is>
       </c>
     </row>
@@ -28920,7 +28920,7 @@
       </c>
       <c r="O415" t="inlineStr">
         <is>
-          <t>2023-01-10 12:59:00</t>
+          <t>2023-01-10 20:51:27</t>
         </is>
       </c>
     </row>
@@ -28985,7 +28985,7 @@
       <c r="N416" t="inlineStr"/>
       <c r="O416" t="inlineStr">
         <is>
-          <t>2023-01-10 12:59:00</t>
+          <t>2023-01-10 20:51:27</t>
         </is>
       </c>
     </row>
@@ -29056,7 +29056,7 @@
       </c>
       <c r="O417" t="inlineStr">
         <is>
-          <t>2023-01-10 12:59:00</t>
+          <t>2023-01-10 20:51:27</t>
         </is>
       </c>
     </row>
@@ -29125,7 +29125,7 @@
       <c r="N418" t="inlineStr"/>
       <c r="O418" t="inlineStr">
         <is>
-          <t>2023-01-10 12:59:00</t>
+          <t>2023-01-10 20:51:27</t>
         </is>
       </c>
     </row>
@@ -29198,7 +29198,7 @@
       </c>
       <c r="O419" t="inlineStr">
         <is>
-          <t>2023-01-10 12:59:00</t>
+          <t>2023-01-10 20:51:27</t>
         </is>
       </c>
     </row>
@@ -29271,7 +29271,7 @@
       </c>
       <c r="O420" t="inlineStr">
         <is>
-          <t>2023-01-10 12:59:00</t>
+          <t>2023-01-10 20:51:27</t>
         </is>
       </c>
     </row>
@@ -29344,7 +29344,7 @@
       </c>
       <c r="O421" t="inlineStr">
         <is>
-          <t>2023-01-10 12:59:00</t>
+          <t>2023-01-10 20:51:27</t>
         </is>
       </c>
     </row>
@@ -29417,7 +29417,7 @@
       </c>
       <c r="O422" t="inlineStr">
         <is>
-          <t>2023-01-10 12:59:00</t>
+          <t>2023-01-10 20:51:27</t>
         </is>
       </c>
     </row>
@@ -29482,7 +29482,7 @@
       <c r="N423" t="inlineStr"/>
       <c r="O423" t="inlineStr">
         <is>
-          <t>2023-01-10 12:59:00</t>
+          <t>2023-01-10 20:51:27</t>
         </is>
       </c>
     </row>
@@ -29555,7 +29555,7 @@
       </c>
       <c r="O424" t="inlineStr">
         <is>
-          <t>2023-01-10 12:59:00</t>
+          <t>2023-01-10 20:51:27</t>
         </is>
       </c>
     </row>
@@ -29628,7 +29628,7 @@
       </c>
       <c r="O425" t="inlineStr">
         <is>
-          <t>2023-01-10 12:59:00</t>
+          <t>2023-01-10 20:51:27</t>
         </is>
       </c>
     </row>
@@ -29701,7 +29701,7 @@
       </c>
       <c r="O426" t="inlineStr">
         <is>
-          <t>2023-01-10 12:59:00</t>
+          <t>2023-01-10 20:51:27</t>
         </is>
       </c>
     </row>
@@ -29770,7 +29770,7 @@
       <c r="N427" t="inlineStr"/>
       <c r="O427" t="inlineStr">
         <is>
-          <t>2023-01-10 12:59:00</t>
+          <t>2023-01-10 20:51:27</t>
         </is>
       </c>
     </row>
@@ -29843,7 +29843,7 @@
       </c>
       <c r="O428" t="inlineStr">
         <is>
-          <t>2023-01-10 12:59:00</t>
+          <t>2023-01-10 20:51:27</t>
         </is>
       </c>
     </row>
@@ -29896,7 +29896,7 @@
       <c r="N429" t="inlineStr"/>
       <c r="O429" t="inlineStr">
         <is>
-          <t>2023-01-10 12:59:00</t>
+          <t>2023-01-10 20:51:27</t>
         </is>
       </c>
     </row>
@@ -29969,7 +29969,7 @@
       </c>
       <c r="O430" t="inlineStr">
         <is>
-          <t>2023-01-10 12:59:00</t>
+          <t>2023-01-10 20:51:27</t>
         </is>
       </c>
     </row>
@@ -30042,7 +30042,7 @@
       </c>
       <c r="O431" t="inlineStr">
         <is>
-          <t>2023-01-10 12:59:00</t>
+          <t>2023-01-10 20:51:27</t>
         </is>
       </c>
     </row>
@@ -30115,7 +30115,7 @@
       </c>
       <c r="O432" t="inlineStr">
         <is>
-          <t>2023-01-10 12:59:00</t>
+          <t>2023-01-10 20:51:27</t>
         </is>
       </c>
     </row>
@@ -30188,7 +30188,7 @@
       </c>
       <c r="O433" t="inlineStr">
         <is>
-          <t>2023-01-10 12:59:00</t>
+          <t>2023-01-10 20:51:27</t>
         </is>
       </c>
     </row>
@@ -30261,7 +30261,7 @@
       </c>
       <c r="O434" t="inlineStr">
         <is>
-          <t>2023-01-10 12:59:00</t>
+          <t>2023-01-10 20:51:27</t>
         </is>
       </c>
     </row>
@@ -30334,7 +30334,7 @@
       </c>
       <c r="O435" t="inlineStr">
         <is>
-          <t>2023-01-10 12:59:00</t>
+          <t>2023-01-10 20:51:27</t>
         </is>
       </c>
     </row>
@@ -30407,7 +30407,7 @@
       </c>
       <c r="O436" t="inlineStr">
         <is>
-          <t>2023-01-10 12:59:00</t>
+          <t>2023-01-10 20:51:27</t>
         </is>
       </c>
     </row>
@@ -30474,7 +30474,7 @@
       <c r="N437" t="inlineStr"/>
       <c r="O437" t="inlineStr">
         <is>
-          <t>2023-01-10 12:59:00</t>
+          <t>2023-01-10 20:51:27</t>
         </is>
       </c>
     </row>
@@ -30541,7 +30541,7 @@
       <c r="N438" t="inlineStr"/>
       <c r="O438" t="inlineStr">
         <is>
-          <t>2023-01-10 12:59:00</t>
+          <t>2023-01-10 20:51:27</t>
         </is>
       </c>
     </row>
@@ -30614,7 +30614,7 @@
       </c>
       <c r="O439" t="inlineStr">
         <is>
-          <t>2023-01-10 12:59:00</t>
+          <t>2023-01-10 20:51:27</t>
         </is>
       </c>
     </row>
@@ -30683,7 +30683,7 @@
       <c r="N440" t="inlineStr"/>
       <c r="O440" t="inlineStr">
         <is>
-          <t>2023-01-10 12:59:00</t>
+          <t>2023-01-10 20:51:27</t>
         </is>
       </c>
     </row>
@@ -30736,7 +30736,7 @@
       <c r="N441" t="inlineStr"/>
       <c r="O441" t="inlineStr">
         <is>
-          <t>2023-01-10 12:59:00</t>
+          <t>2023-01-10 20:51:27</t>
         </is>
       </c>
     </row>
@@ -30807,7 +30807,7 @@
       </c>
       <c r="O442" t="inlineStr">
         <is>
-          <t>2023-01-10 12:59:00</t>
+          <t>2023-01-10 20:51:27</t>
         </is>
       </c>
     </row>
@@ -30880,7 +30880,7 @@
       </c>
       <c r="O443" t="inlineStr">
         <is>
-          <t>2023-01-10 12:59:00</t>
+          <t>2023-01-10 20:51:27</t>
         </is>
       </c>
     </row>
@@ -30949,7 +30949,7 @@
       <c r="N444" t="inlineStr"/>
       <c r="O444" t="inlineStr">
         <is>
-          <t>2023-01-10 12:59:00</t>
+          <t>2023-01-10 20:51:27</t>
         </is>
       </c>
     </row>
@@ -31018,7 +31018,7 @@
       <c r="N445" t="inlineStr"/>
       <c r="O445" t="inlineStr">
         <is>
-          <t>2023-01-10 12:59:00</t>
+          <t>2023-01-10 20:51:27</t>
         </is>
       </c>
     </row>
@@ -31083,7 +31083,7 @@
       <c r="N446" t="inlineStr"/>
       <c r="O446" t="inlineStr">
         <is>
-          <t>2023-01-10 12:59:00</t>
+          <t>2023-01-10 20:51:27</t>
         </is>
       </c>
     </row>
@@ -31152,7 +31152,7 @@
       <c r="N447" t="inlineStr"/>
       <c r="O447" t="inlineStr">
         <is>
-          <t>2023-01-10 12:59:00</t>
+          <t>2023-01-10 20:51:27</t>
         </is>
       </c>
     </row>
@@ -31217,7 +31217,7 @@
       <c r="N448" t="inlineStr"/>
       <c r="O448" t="inlineStr">
         <is>
-          <t>2023-01-10 12:59:00</t>
+          <t>2023-01-10 20:51:27</t>
         </is>
       </c>
     </row>
@@ -31290,7 +31290,7 @@
       </c>
       <c r="O449" t="inlineStr">
         <is>
-          <t>2023-01-10 12:59:00</t>
+          <t>2023-01-10 20:51:27</t>
         </is>
       </c>
     </row>
@@ -31363,7 +31363,7 @@
       </c>
       <c r="O450" t="inlineStr">
         <is>
-          <t>2023-01-10 12:59:00</t>
+          <t>2023-01-10 20:51:27</t>
         </is>
       </c>
     </row>
@@ -31436,7 +31436,7 @@
       </c>
       <c r="O451" t="inlineStr">
         <is>
-          <t>2023-01-10 12:59:00</t>
+          <t>2023-01-10 20:51:27</t>
         </is>
       </c>
     </row>
@@ -31507,7 +31507,7 @@
       </c>
       <c r="O452" t="inlineStr">
         <is>
-          <t>2023-01-10 12:59:00</t>
+          <t>2023-01-10 20:51:27</t>
         </is>
       </c>
     </row>
@@ -31578,7 +31578,7 @@
       </c>
       <c r="O453" t="inlineStr">
         <is>
-          <t>2023-01-10 12:59:00</t>
+          <t>2023-01-10 20:51:27</t>
         </is>
       </c>
     </row>
@@ -31651,7 +31651,7 @@
       </c>
       <c r="O454" t="inlineStr">
         <is>
-          <t>2023-01-10 12:59:00</t>
+          <t>2023-01-10 20:51:27</t>
         </is>
       </c>
     </row>
@@ -31720,7 +31720,7 @@
       <c r="N455" t="inlineStr"/>
       <c r="O455" t="inlineStr">
         <is>
-          <t>2023-01-10 12:59:00</t>
+          <t>2023-01-10 20:51:27</t>
         </is>
       </c>
     </row>
@@ -31793,7 +31793,7 @@
       </c>
       <c r="O456" t="inlineStr">
         <is>
-          <t>2023-01-10 12:59:00</t>
+          <t>2023-01-10 20:51:27</t>
         </is>
       </c>
     </row>
@@ -31866,7 +31866,7 @@
       </c>
       <c r="O457" t="inlineStr">
         <is>
-          <t>2023-01-10 12:59:00</t>
+          <t>2023-01-10 20:51:27</t>
         </is>
       </c>
     </row>
@@ -31935,7 +31935,7 @@
       <c r="N458" t="inlineStr"/>
       <c r="O458" t="inlineStr">
         <is>
-          <t>2023-01-10 12:59:00</t>
+          <t>2023-01-10 20:51:27</t>
         </is>
       </c>
     </row>
@@ -32008,7 +32008,7 @@
       </c>
       <c r="O459" t="inlineStr">
         <is>
-          <t>2023-01-10 12:59:00</t>
+          <t>2023-01-10 20:51:27</t>
         </is>
       </c>
     </row>
@@ -32081,7 +32081,7 @@
       </c>
       <c r="O460" t="inlineStr">
         <is>
-          <t>2023-01-10 12:59:00</t>
+          <t>2023-01-10 20:51:27</t>
         </is>
       </c>
     </row>
@@ -32150,7 +32150,7 @@
       <c r="N461" t="inlineStr"/>
       <c r="O461" t="inlineStr">
         <is>
-          <t>2023-01-10 12:59:00</t>
+          <t>2023-01-10 20:51:27</t>
         </is>
       </c>
     </row>
@@ -32215,7 +32215,7 @@
       <c r="N462" t="inlineStr"/>
       <c r="O462" t="inlineStr">
         <is>
-          <t>2023-01-10 12:59:00</t>
+          <t>2023-01-10 20:51:27</t>
         </is>
       </c>
     </row>
@@ -32284,7 +32284,7 @@
       <c r="N463" t="inlineStr"/>
       <c r="O463" t="inlineStr">
         <is>
-          <t>2023-01-10 12:59:00</t>
+          <t>2023-01-10 20:51:27</t>
         </is>
       </c>
     </row>
@@ -32357,7 +32357,7 @@
       </c>
       <c r="O464" t="inlineStr">
         <is>
-          <t>2023-01-10 12:59:00</t>
+          <t>2023-01-10 20:51:27</t>
         </is>
       </c>
     </row>
@@ -32422,7 +32422,7 @@
       <c r="N465" t="inlineStr"/>
       <c r="O465" t="inlineStr">
         <is>
-          <t>2023-01-10 12:59:00</t>
+          <t>2023-01-10 20:51:27</t>
         </is>
       </c>
     </row>
@@ -32493,7 +32493,7 @@
       </c>
       <c r="O466" t="inlineStr">
         <is>
-          <t>2023-01-10 12:59:00</t>
+          <t>2023-01-10 20:51:27</t>
         </is>
       </c>
     </row>
@@ -32566,7 +32566,7 @@
       </c>
       <c r="O467" t="inlineStr">
         <is>
-          <t>2023-01-10 12:59:00</t>
+          <t>2023-01-10 20:51:27</t>
         </is>
       </c>
     </row>
@@ -32633,7 +32633,7 @@
       <c r="N468" t="inlineStr"/>
       <c r="O468" t="inlineStr">
         <is>
-          <t>2023-01-10 12:59:00</t>
+          <t>2023-01-10 20:51:27</t>
         </is>
       </c>
     </row>
@@ -32696,7 +32696,7 @@
       <c r="N469" t="inlineStr"/>
       <c r="O469" t="inlineStr">
         <is>
-          <t>2023-01-10 12:59:00</t>
+          <t>2023-01-10 20:51:27</t>
         </is>
       </c>
     </row>
@@ -32765,7 +32765,7 @@
       </c>
       <c r="O470" t="inlineStr">
         <is>
-          <t>2023-01-10 12:59:00</t>
+          <t>2023-01-10 20:51:27</t>
         </is>
       </c>
     </row>
@@ -32838,7 +32838,7 @@
       </c>
       <c r="O471" t="inlineStr">
         <is>
-          <t>2023-01-10 12:59:00</t>
+          <t>2023-01-10 20:51:27</t>
         </is>
       </c>
     </row>
@@ -32911,7 +32911,7 @@
       </c>
       <c r="O472" t="inlineStr">
         <is>
-          <t>2023-01-10 12:59:00</t>
+          <t>2023-01-10 20:51:27</t>
         </is>
       </c>
     </row>
@@ -32976,7 +32976,7 @@
       <c r="N473" t="inlineStr"/>
       <c r="O473" t="inlineStr">
         <is>
-          <t>2023-01-10 12:59:00</t>
+          <t>2023-01-10 20:51:27</t>
         </is>
       </c>
     </row>
@@ -33045,7 +33045,7 @@
       <c r="N474" t="inlineStr"/>
       <c r="O474" t="inlineStr">
         <is>
-          <t>2023-01-10 12:59:00</t>
+          <t>2023-01-10 20:51:27</t>
         </is>
       </c>
     </row>
@@ -33110,7 +33110,7 @@
       <c r="N475" t="inlineStr"/>
       <c r="O475" t="inlineStr">
         <is>
-          <t>2023-01-10 12:59:00</t>
+          <t>2023-01-10 20:51:27</t>
         </is>
       </c>
     </row>
@@ -33179,7 +33179,7 @@
       <c r="N476" t="inlineStr"/>
       <c r="O476" t="inlineStr">
         <is>
-          <t>2023-01-10 12:59:00</t>
+          <t>2023-01-10 20:51:27</t>
         </is>
       </c>
     </row>
@@ -33248,7 +33248,7 @@
       </c>
       <c r="O477" t="inlineStr">
         <is>
-          <t>2023-01-10 12:59:00</t>
+          <t>2023-01-10 20:51:27</t>
         </is>
       </c>
     </row>
@@ -33317,7 +33317,7 @@
       <c r="N478" t="inlineStr"/>
       <c r="O478" t="inlineStr">
         <is>
-          <t>2023-01-10 12:59:00</t>
+          <t>2023-01-10 20:51:27</t>
         </is>
       </c>
     </row>
@@ -33380,7 +33380,7 @@
       <c r="N479" t="inlineStr"/>
       <c r="O479" t="inlineStr">
         <is>
-          <t>2023-01-10 12:59:00</t>
+          <t>2023-01-10 20:51:27</t>
         </is>
       </c>
     </row>
@@ -33453,7 +33453,7 @@
       </c>
       <c r="O480" t="inlineStr">
         <is>
-          <t>2023-01-10 12:59:00</t>
+          <t>2023-01-10 20:51:27</t>
         </is>
       </c>
     </row>
@@ -33526,45 +33526,45 @@
       </c>
       <c r="O481" t="inlineStr">
         <is>
-          <t>2023-01-10 12:59:00</t>
+          <t>2023-01-10 20:51:27</t>
         </is>
       </c>
     </row>
     <row r="482">
       <c r="A482" t="inlineStr">
         <is>
-          <t>5668660</t>
+          <t>6987153</t>
         </is>
       </c>
       <c r="B482" t="inlineStr">
         <is>
-          <t>Délicorn Spacebar</t>
+          <t>Luya Bio Chunks Garden Herbs</t>
         </is>
       </c>
       <c r="C482" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fleisch-fisch/the-veggie-chef/wuerste/delicorn-spacebar/p/5668660</t>
+          <t>/de/lebensmittel/fleisch-fisch/the-veggie-chef/gehacktes-geschnetzeltes/luya-bio-chunks-garden-herbs/p/6987153</t>
         </is>
       </c>
       <c r="D482" t="n">
+        <v>10</v>
+      </c>
+      <c r="E482" t="n">
         <v>4</v>
       </c>
-      <c r="E482" t="n">
-        <v>5</v>
-      </c>
       <c r="F482" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Luya</t>
         </is>
       </c>
       <c r="G482" t="inlineStr">
         <is>
-          <t>1.95</t>
+          <t>6.95</t>
         </is>
       </c>
       <c r="H482" t="inlineStr">
         <is>
-          <t>4.88/100g</t>
+          <t>3.97/100g</t>
         </is>
       </c>
       <c r="I482" t="inlineStr">
@@ -33574,7 +33574,7 @@
       </c>
       <c r="J482" t="inlineStr">
         <is>
-          <t>4.88</t>
+          <t>3.97</t>
         </is>
       </c>
       <c r="K482" t="inlineStr">
@@ -33584,12 +33584,12 @@
       </c>
       <c r="L482" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fleisch-fisch', 'the-veggie-chef', 'wuerste']</t>
+          <t>['lebensmittel', 'fleisch-fisch', 'the-veggie-chef', 'gehacktes-geschnetzeltes']</t>
         </is>
       </c>
       <c r="M482" t="inlineStr">
         <is>
-          <t>Délicorn Spacebar 20% ab 2 Aktion 1.95 Schweizer Franken</t>
+          <t>Luya Bio Chunks Garden Herbs 6.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N482" t="inlineStr">
@@ -33599,45 +33599,45 @@
       </c>
       <c r="O482" t="inlineStr">
         <is>
-          <t>2023-01-10 12:59:00</t>
+          <t>2023-01-10 20:51:27</t>
         </is>
       </c>
     </row>
     <row r="483">
       <c r="A483" t="inlineStr">
         <is>
-          <t>3062466</t>
+          <t>6974165</t>
         </is>
       </c>
       <c r="B483" t="inlineStr">
         <is>
-          <t>Del Maitre Sauerkraut garniert 800g</t>
+          <t>The Green Mountain plant-based Tranchen vegan</t>
         </is>
       </c>
       <c r="C483" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fruechte-gemuese/kohlgemuese/sauerkraut-rotkraut/del-maitre-sauerkraut-garniert/p/3062466</t>
+          <t>/de/lebensmittel/fleisch-fisch/the-veggie-chef/cold-cuts/the-green-mountain-plant-based-tranchen-vegan/p/6974165</t>
         </is>
       </c>
       <c r="D483" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E483" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F483" t="inlineStr">
         <is>
-          <t>Del Maitre</t>
+          <t>The GREEN MOUNTAIN</t>
         </is>
       </c>
       <c r="G483" t="inlineStr">
         <is>
-          <t>17.60</t>
+          <t>5.50</t>
         </is>
       </c>
       <c r="H483" t="inlineStr">
         <is>
-          <t>2.20/100g</t>
+          <t>2.75/100g</t>
         </is>
       </c>
       <c r="I483" t="inlineStr">
@@ -33647,7 +33647,7 @@
       </c>
       <c r="J483" t="inlineStr">
         <is>
-          <t>2.20</t>
+          <t>2.75</t>
         </is>
       </c>
       <c r="K483" t="inlineStr">
@@ -33657,48 +33657,46 @@
       </c>
       <c r="L483" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fruechte-gemuese', 'kohlgemuese', 'sauerkraut-rotkraut']</t>
+          <t>['lebensmittel', 'fleisch-fisch', 'the-veggie-chef', 'cold-cuts']</t>
         </is>
       </c>
       <c r="M483" t="inlineStr">
         <is>
-          <t>Del Maitre Sauerkraut garniert 800g 17.60 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N483" t="inlineStr">
-        <is>
-          <t>['chilled']</t>
-        </is>
-      </c>
+          <t>The Green Mountain plant-based Tranchen vegan 5.50 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N483" t="inlineStr"/>
       <c r="O483" t="inlineStr">
         <is>
-          <t>2023-01-10 12:59:00</t>
+          <t>2023-01-10 20:51:27</t>
         </is>
       </c>
     </row>
     <row r="484">
       <c r="A484" t="inlineStr">
         <is>
-          <t>3582348</t>
+          <t>6862504</t>
         </is>
       </c>
       <c r="B484" t="inlineStr">
         <is>
-          <t>Mini Artischocken 4 Stück</t>
+          <t>Betty Bossi Sous vide Belugalinsen</t>
         </is>
       </c>
       <c r="C484" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fruechte-gemuese/weiteres-gemuese/blattgemuese-artischocken/mini-artischocken-4-stueck/p/3582348</t>
-        </is>
-      </c>
-      <c r="D484" t="n">
-        <v>6</v>
-      </c>
+          <t>/de/lebensmittel/fruechte-gemuese/weiteres-gemuese/pfannenfertiges-gemuese/betty-bossi-sous-vide-belugalinsen/p/6862504</t>
+        </is>
+      </c>
+      <c r="D484" t="inlineStr"/>
       <c r="E484" t="n">
-        <v>4</v>
-      </c>
-      <c r="F484" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="F484" t="inlineStr">
+        <is>
+          <t>Coop</t>
+        </is>
+      </c>
       <c r="G484" t="inlineStr">
         <is>
           <t>4.95</t>
@@ -33706,72 +33704,80 @@
       </c>
       <c r="H484" t="inlineStr">
         <is>
-          <t>4.95/1ST</t>
+          <t>1.41/100g</t>
         </is>
       </c>
       <c r="I484" t="inlineStr">
         <is>
-          <t>Preis pro 1 Stück</t>
+          <t>Preis pro 100 Gramm</t>
         </is>
       </c>
       <c r="J484" t="inlineStr">
         <is>
-          <t>4.95</t>
+          <t>1.41</t>
         </is>
       </c>
       <c r="K484" t="inlineStr">
         <is>
-          <t>1ST</t>
+          <t>100g</t>
         </is>
       </c>
       <c r="L484" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fruechte-gemuese', 'weiteres-gemuese', 'blattgemuese-artischocken']</t>
+          <t>['lebensmittel', 'fruechte-gemuese', 'weiteres-gemuese', 'pfannenfertiges-gemuese']</t>
         </is>
       </c>
       <c r="M484" t="inlineStr">
         <is>
-          <t>Mini Artischocken 4 Stück 4.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N484" t="inlineStr"/>
+          <t>Betty Bossi Sous vide Belugalinsen 4.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N484" t="inlineStr">
+        <is>
+          <t>['chilled']</t>
+        </is>
+      </c>
       <c r="O484" t="inlineStr">
         <is>
-          <t>2023-01-10 12:59:00</t>
+          <t>2023-01-10 20:51:27</t>
         </is>
       </c>
     </row>
     <row r="485">
       <c r="A485" t="inlineStr">
         <is>
-          <t>6754922</t>
+          <t>6308951</t>
         </is>
       </c>
       <c r="B485" t="inlineStr">
         <is>
-          <t>Snack Jungchicoree</t>
+          <t>Primagusto Wildfeigen</t>
         </is>
       </c>
       <c r="C485" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fruechte-gemuese/salate/geschnittene-salate/snack-jungchicoree/p/6754922</t>
+          <t>/de/lebensmittel/fruechte-gemuese/nuesse-datteln-marroni-und-feigen/primagusto-wildfeigen/p/6308951</t>
         </is>
       </c>
       <c r="D485" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E485" t="n">
-        <v>3</v>
-      </c>
-      <c r="F485" t="inlineStr"/>
+        <v>4.5</v>
+      </c>
+      <c r="F485" t="inlineStr">
+        <is>
+          <t>Primagusto</t>
+        </is>
+      </c>
       <c r="G485" t="inlineStr">
         <is>
-          <t>2.95</t>
+          <t>6.95</t>
         </is>
       </c>
       <c r="H485" t="inlineStr">
         <is>
-          <t>1.97/100g</t>
+          <t>2.78/100g</t>
         </is>
       </c>
       <c r="I485" t="inlineStr">
@@ -33781,7 +33787,7 @@
       </c>
       <c r="J485" t="inlineStr">
         <is>
-          <t>1.97</t>
+          <t>2.78</t>
         </is>
       </c>
       <c r="K485" t="inlineStr">
@@ -33791,56 +33797,56 @@
       </c>
       <c r="L485" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fruechte-gemuese', 'salate', 'geschnittene-salate']</t>
+          <t>['lebensmittel', 'fruechte-gemuese', 'nuesse-datteln-marroni-und-feigen']</t>
         </is>
       </c>
       <c r="M485" t="inlineStr">
         <is>
-          <t>Snack Jungchicoree 2.95 Schweizer Franken</t>
+          <t>Primagusto Wildfeigen 6.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N485" t="inlineStr"/>
       <c r="O485" t="inlineStr">
         <is>
-          <t>2023-01-10 12:59:00</t>
+          <t>2023-01-10 20:51:27</t>
         </is>
       </c>
     </row>
     <row r="486">
       <c r="A486" t="inlineStr">
         <is>
-          <t>6867027</t>
+          <t>6987208</t>
         </is>
       </c>
       <c r="B486" t="inlineStr">
         <is>
-          <t>Yolo Filet Herbs</t>
+          <t>The Green Mountain plant-based Pfefferfilet</t>
         </is>
       </c>
       <c r="C486" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fleisch-fisch/the-veggie-chef/pflanzlicher-fischersatz/yolo-filet-herbs/p/6867027</t>
+          <t>/de/lebensmittel/fleisch-fisch/the-veggie-chef/schnitzel-nuggets/the-green-mountain-plant-based-pfefferfilet/p/6987208</t>
         </is>
       </c>
       <c r="D486" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E486" t="n">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="F486" t="inlineStr">
         <is>
-          <t>Yolo</t>
+          <t>The GREEN MOUNTAIN</t>
         </is>
       </c>
       <c r="G486" t="inlineStr">
         <is>
-          <t>4.95</t>
+          <t>8.95</t>
         </is>
       </c>
       <c r="H486" t="inlineStr">
         <is>
-          <t>3.09/100g</t>
+          <t>4.48/100g</t>
         </is>
       </c>
       <c r="I486" t="inlineStr">
@@ -33850,7 +33856,7 @@
       </c>
       <c r="J486" t="inlineStr">
         <is>
-          <t>3.09</t>
+          <t>4.48</t>
         </is>
       </c>
       <c r="K486" t="inlineStr">
@@ -33860,184 +33866,182 @@
       </c>
       <c r="L486" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fleisch-fisch', 'the-veggie-chef', 'pflanzlicher-fischersatz']</t>
+          <t>['lebensmittel', 'fleisch-fisch', 'the-veggie-chef', 'schnitzel-nuggets']</t>
         </is>
       </c>
       <c r="M486" t="inlineStr">
         <is>
-          <t>Yolo Filet Herbs 4.95 Schweizer Franken</t>
+          <t>The Green Mountain plant-based Pfefferfilet 8.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N486" t="inlineStr">
         <is>
-          <t>['vegan', 'vegetarian']</t>
+          <t>['chilled']</t>
         </is>
       </c>
       <c r="O486" t="inlineStr">
         <is>
-          <t>2023-01-10 12:59:00</t>
+          <t>2023-01-10 20:51:27</t>
         </is>
       </c>
     </row>
     <row r="487">
       <c r="A487" t="inlineStr">
         <is>
-          <t>7038834</t>
+          <t>6564002</t>
         </is>
       </c>
       <c r="B487" t="inlineStr">
         <is>
-          <t>Bio Kürbis Muscade gross Demeter 1 Stück</t>
+          <t>Radicchio di Treviso</t>
         </is>
       </c>
       <c r="C487" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fruechte-gemuese/weiteres-gemuese/zucchetti-kuerbis-aubergine/bio-kuerbis-muscade-gross-demeter-1-stueck/p/7038834</t>
-        </is>
-      </c>
-      <c r="D487" t="inlineStr"/>
+          <t>/de/lebensmittel/fruechte-gemuese/salate/ganze-salate/radicchio-di-treviso/p/6564002</t>
+        </is>
+      </c>
+      <c r="D487" t="n">
+        <v>6</v>
+      </c>
       <c r="E487" t="n">
-        <v>0</v>
-      </c>
-      <c r="F487" t="inlineStr">
-        <is>
-          <t>Coop</t>
-        </is>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="F487" t="inlineStr"/>
       <c r="G487" t="inlineStr">
         <is>
-          <t>6.95</t>
-        </is>
-      </c>
-      <c r="H487" t="inlineStr"/>
-      <c r="I487" t="inlineStr"/>
-      <c r="J487" t="inlineStr"/>
-      <c r="K487" t="inlineStr"/>
+          <t>5.95</t>
+        </is>
+      </c>
+      <c r="H487" t="inlineStr">
+        <is>
+          <t>1.98/100g</t>
+        </is>
+      </c>
+      <c r="I487" t="inlineStr">
+        <is>
+          <t>Preis pro 100 Gramm</t>
+        </is>
+      </c>
+      <c r="J487" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="K487" t="inlineStr">
+        <is>
+          <t>100g</t>
+        </is>
+      </c>
       <c r="L487" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fruechte-gemuese', 'weiteres-gemuese', 'zucchetti-kuerbis-aubergine']</t>
+          <t>['lebensmittel', 'fruechte-gemuese', 'salate', 'ganze-salate']</t>
         </is>
       </c>
       <c r="M487" t="inlineStr">
         <is>
-          <t>Bio Kürbis Muscade gross Demeter 1 Stück 6.95 Schweizer Franken</t>
+          <t>Radicchio di Treviso 5.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N487" t="inlineStr"/>
       <c r="O487" t="inlineStr">
         <is>
-          <t>2023-01-10 12:59:00</t>
+          <t>2023-01-10 20:51:27</t>
         </is>
       </c>
     </row>
     <row r="488">
       <c r="A488" t="inlineStr">
         <is>
-          <t>7031952</t>
+          <t>6338190</t>
         </is>
       </c>
       <c r="B488" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Pastasalat Tomaten &amp;amp; Mozzarella</t>
+          <t>Schöni Berner Kabissalat Kümmel 500G</t>
         </is>
       </c>
       <c r="C488" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fertiggerichte/frische-fertiggerichte/fertigsalate/naturaplan-bio-pastasalat-tomaten-mozzarella/p/7031952</t>
+          <t>/de/lebensmittel/fruechte-gemuese/kohlgemuese/sauerkraut-rotkraut/schoeni-berner-kabissalat-kuemmel-500g/p/6338190</t>
         </is>
       </c>
       <c r="D488" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E488" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="F488" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Schöni</t>
         </is>
       </c>
       <c r="G488" t="inlineStr">
         <is>
-          <t>6.20</t>
-        </is>
-      </c>
-      <c r="H488" t="inlineStr">
-        <is>
-          <t>2.43/100g</t>
-        </is>
-      </c>
-      <c r="I488" t="inlineStr">
-        <is>
-          <t>Preis pro 100 Gramm</t>
-        </is>
-      </c>
-      <c r="J488" t="inlineStr">
-        <is>
-          <t>2.43</t>
-        </is>
-      </c>
-      <c r="K488" t="inlineStr">
-        <is>
-          <t>100g</t>
-        </is>
-      </c>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="H488" t="inlineStr"/>
+      <c r="I488" t="inlineStr"/>
+      <c r="J488" t="inlineStr"/>
+      <c r="K488" t="inlineStr"/>
       <c r="L488" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fertiggerichte', 'frische-fertiggerichte', 'fertigsalate']</t>
+          <t>['lebensmittel', 'fruechte-gemuese', 'kohlgemuese', 'sauerkraut-rotkraut']</t>
         </is>
       </c>
       <c r="M488" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Pastasalat Tomaten &amp;amp; Mozzarella 6.20 Schweizer Franken</t>
+          <t>Schöni Berner Kabissalat Kümmel 500G 2.40 Schweizer Franken</t>
         </is>
       </c>
       <c r="N488" t="inlineStr">
         <is>
-          <t>['chilled', 'vegetarian']</t>
+          <t>['chilled']</t>
         </is>
       </c>
       <c r="O488" t="inlineStr">
         <is>
-          <t>2023-01-10 12:59:00</t>
+          <t>2023-01-10 20:51:27</t>
         </is>
       </c>
     </row>
     <row r="489">
       <c r="A489" t="inlineStr">
         <is>
-          <t>6987153</t>
+          <t>7019070</t>
         </is>
       </c>
       <c r="B489" t="inlineStr">
         <is>
-          <t>Luya Bio Chunks Garden Herbs</t>
+          <t>Vivera veganes Lachsfilet 2x100g</t>
         </is>
       </c>
       <c r="C489" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fleisch-fisch/the-veggie-chef/gehacktes-geschnetzeltes/luya-bio-chunks-garden-herbs/p/6987153</t>
+          <t>/de/lebensmittel/fleisch-fisch/the-veggie-chef/pflanzlicher-fischersatz/vivera-veganes-lachsfilet-2x100g/p/7019070</t>
         </is>
       </c>
       <c r="D489" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="E489" t="n">
         <v>4</v>
       </c>
       <c r="F489" t="inlineStr">
         <is>
-          <t>Luya</t>
+          <t>Vivera</t>
         </is>
       </c>
       <c r="G489" t="inlineStr">
         <is>
-          <t>6.95</t>
+          <t>5.95</t>
         </is>
       </c>
       <c r="H489" t="inlineStr">
         <is>
-          <t>3.97/100g</t>
+          <t>2.98/100g</t>
         </is>
       </c>
       <c r="I489" t="inlineStr">
@@ -34047,7 +34051,7 @@
       </c>
       <c r="J489" t="inlineStr">
         <is>
-          <t>3.97</t>
+          <t>2.98</t>
         </is>
       </c>
       <c r="K489" t="inlineStr">
@@ -34057,12 +34061,12 @@
       </c>
       <c r="L489" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fleisch-fisch', 'the-veggie-chef', 'gehacktes-geschnetzeltes']</t>
+          <t>['lebensmittel', 'fleisch-fisch', 'the-veggie-chef', 'pflanzlicher-fischersatz']</t>
         </is>
       </c>
       <c r="M489" t="inlineStr">
         <is>
-          <t>Luya Bio Chunks Garden Herbs 6.95 Schweizer Franken</t>
+          <t>Vivera veganes Lachsfilet 2x100g 5.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N489" t="inlineStr">
@@ -34072,45 +34076,45 @@
       </c>
       <c r="O489" t="inlineStr">
         <is>
-          <t>2023-01-10 12:59:00</t>
+          <t>2023-01-10 20:51:27</t>
         </is>
       </c>
     </row>
     <row r="490">
       <c r="A490" t="inlineStr">
         <is>
-          <t>6974165</t>
+          <t>7069723</t>
         </is>
       </c>
       <c r="B490" t="inlineStr">
         <is>
-          <t>The Green Mountain plant-based Tranchen vegan</t>
+          <t>Wild Foods Dry Age</t>
         </is>
       </c>
       <c r="C490" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fleisch-fisch/the-veggie-chef/cold-cuts/the-green-mountain-plant-based-tranchen-vegan/p/6974165</t>
+          <t>/de/lebensmittel/fleisch-fisch/the-veggie-chef/cold-cuts/wild-foods-dry-age/p/7069723</t>
         </is>
       </c>
       <c r="D490" t="n">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="E490" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="F490" t="inlineStr">
         <is>
-          <t>The GREEN MOUNTAIN</t>
+          <t>WILD FOODS</t>
         </is>
       </c>
       <c r="G490" t="inlineStr">
         <is>
-          <t>5.50</t>
+          <t>9.95</t>
         </is>
       </c>
       <c r="H490" t="inlineStr">
         <is>
-          <t>2.75/100g</t>
+          <t>12.44/100g</t>
         </is>
       </c>
       <c r="I490" t="inlineStr">
@@ -34120,7 +34124,7 @@
       </c>
       <c r="J490" t="inlineStr">
         <is>
-          <t>2.75</t>
+          <t>12.44</t>
         </is>
       </c>
       <c r="K490" t="inlineStr">
@@ -34135,30 +34139,34 @@
       </c>
       <c r="M490" t="inlineStr">
         <is>
-          <t>The Green Mountain plant-based Tranchen vegan 5.50 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N490" t="inlineStr"/>
+          <t>Wild Foods Dry Age 9.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N490" t="inlineStr">
+        <is>
+          <t>['chilled', 'vegan', 'vegetarian']</t>
+        </is>
+      </c>
       <c r="O490" t="inlineStr">
         <is>
-          <t>2023-01-10 12:59:00</t>
+          <t>2023-01-10 20:51:27</t>
         </is>
       </c>
     </row>
     <row r="491">
       <c r="A491" t="inlineStr">
         <is>
-          <t>6862504</t>
+          <t>7117730</t>
         </is>
       </c>
       <c r="B491" t="inlineStr">
         <is>
-          <t>Betty Bossi Sous vide Belugalinsen</t>
+          <t>Naturaplan Bio Cicorino Trio</t>
         </is>
       </c>
       <c r="C491" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fruechte-gemuese/weiteres-gemuese/pfannenfertiges-gemuese/betty-bossi-sous-vide-belugalinsen/p/6862504</t>
+          <t>/de/lebensmittel/fruechte-gemuese/salate/ganze-salate/naturaplan-bio-cicorino-trio/p/7117730</t>
         </is>
       </c>
       <c r="D491" t="inlineStr"/>
@@ -34177,7 +34185,7 @@
       </c>
       <c r="H491" t="inlineStr">
         <is>
-          <t>1.41/100g</t>
+          <t>0.62/100g</t>
         </is>
       </c>
       <c r="I491" t="inlineStr">
@@ -34187,7 +34195,7 @@
       </c>
       <c r="J491" t="inlineStr">
         <is>
-          <t>1.41</t>
+          <t>0.62</t>
         </is>
       </c>
       <c r="K491" t="inlineStr">
@@ -34197,60 +34205,52 @@
       </c>
       <c r="L491" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fruechte-gemuese', 'weiteres-gemuese', 'pfannenfertiges-gemuese']</t>
+          <t>['lebensmittel', 'fruechte-gemuese', 'salate', 'ganze-salate']</t>
         </is>
       </c>
       <c r="M491" t="inlineStr">
         <is>
-          <t>Betty Bossi Sous vide Belugalinsen 4.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N491" t="inlineStr">
-        <is>
-          <t>['chilled']</t>
-        </is>
-      </c>
+          <t>Naturaplan Bio Cicorino Trio 4.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N491" t="inlineStr"/>
       <c r="O491" t="inlineStr">
         <is>
-          <t>2023-01-10 12:59:00</t>
+          <t>2023-01-10 20:51:27</t>
         </is>
       </c>
     </row>
     <row r="492">
       <c r="A492" t="inlineStr">
         <is>
-          <t>6308951</t>
+          <t>3947304</t>
         </is>
       </c>
       <c r="B492" t="inlineStr">
         <is>
-          <t>Primagusto Wildfeigen</t>
+          <t>Tamarinde</t>
         </is>
       </c>
       <c r="C492" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fruechte-gemuese/nuesse-datteln-marroni-und-feigen/primagusto-wildfeigen/p/6308951</t>
+          <t>/de/lebensmittel/fruechte-gemuese/fruechte/weitere-exotische-fruechte/tamarinde/p/3947304</t>
         </is>
       </c>
       <c r="D492" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E492" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="F492" t="inlineStr">
-        <is>
-          <t>Primagusto</t>
-        </is>
-      </c>
+        <v>3.5</v>
+      </c>
+      <c r="F492" t="inlineStr"/>
       <c r="G492" t="inlineStr">
         <is>
-          <t>6.95</t>
+          <t>5.95</t>
         </is>
       </c>
       <c r="H492" t="inlineStr">
         <is>
-          <t>2.78/100g</t>
+          <t>1.32/100g</t>
         </is>
       </c>
       <c r="I492" t="inlineStr">
@@ -34260,7 +34260,7 @@
       </c>
       <c r="J492" t="inlineStr">
         <is>
-          <t>2.78</t>
+          <t>1.32</t>
         </is>
       </c>
       <c r="K492" t="inlineStr">
@@ -34270,56 +34270,56 @@
       </c>
       <c r="L492" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fruechte-gemuese', 'nuesse-datteln-marroni-und-feigen']</t>
+          <t>['lebensmittel', 'fruechte-gemuese', 'fruechte', 'weitere-exotische-fruechte']</t>
         </is>
       </c>
       <c r="M492" t="inlineStr">
         <is>
-          <t>Primagusto Wildfeigen 6.95 Schweizer Franken</t>
+          <t>Tamarinde 5.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N492" t="inlineStr"/>
       <c r="O492" t="inlineStr">
         <is>
-          <t>2023-01-10 12:59:00</t>
+          <t>2023-01-10 20:51:27</t>
         </is>
       </c>
     </row>
     <row r="493">
       <c r="A493" t="inlineStr">
         <is>
-          <t>6987208</t>
+          <t>7019161</t>
         </is>
       </c>
       <c r="B493" t="inlineStr">
         <is>
-          <t>The Green Mountain plant-based Pfefferfilet</t>
+          <t>Snack VegestorySnack 3 Seeds</t>
         </is>
       </c>
       <c r="C493" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fleisch-fisch/the-veggie-chef/schnitzel-nuggets/the-green-mountain-plant-based-pfefferfilet/p/6987208</t>
+          <t>/de/lebensmittel/fleisch-fisch/the-veggie-chef/wuerste/snack-vegestorysnack-3-seeds/p/7019161</t>
         </is>
       </c>
       <c r="D493" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E493" t="n">
         <v>4</v>
       </c>
       <c r="F493" t="inlineStr">
         <is>
-          <t>The GREEN MOUNTAIN</t>
+          <t>SNACKIT</t>
         </is>
       </c>
       <c r="G493" t="inlineStr">
         <is>
-          <t>8.95</t>
+          <t>3.95</t>
         </is>
       </c>
       <c r="H493" t="inlineStr">
         <is>
-          <t>4.48/100g</t>
+          <t>4.39/100g</t>
         </is>
       </c>
       <c r="I493" t="inlineStr">
@@ -34329,7 +34329,7 @@
       </c>
       <c r="J493" t="inlineStr">
         <is>
-          <t>4.48</t>
+          <t>4.39</t>
         </is>
       </c>
       <c r="K493" t="inlineStr">
@@ -34339,56 +34339,60 @@
       </c>
       <c r="L493" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fleisch-fisch', 'the-veggie-chef', 'schnitzel-nuggets']</t>
+          <t>['lebensmittel', 'fleisch-fisch', 'the-veggie-chef', 'wuerste']</t>
         </is>
       </c>
       <c r="M493" t="inlineStr">
         <is>
-          <t>The Green Mountain plant-based Pfefferfilet 8.95 Schweizer Franken</t>
+          <t>Snack VegestorySnack 3 Seeds 3.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N493" t="inlineStr">
         <is>
-          <t>['chilled']</t>
+          <t>['chilled', 'vegan', 'vegetarian']</t>
         </is>
       </c>
       <c r="O493" t="inlineStr">
         <is>
-          <t>2023-01-10 12:59:00</t>
+          <t>2023-01-10 20:51:27</t>
         </is>
       </c>
     </row>
     <row r="494">
       <c r="A494" t="inlineStr">
         <is>
-          <t>6564002</t>
+          <t>6987154</t>
         </is>
       </c>
       <c r="B494" t="inlineStr">
         <is>
-          <t>Radicchio di Treviso</t>
+          <t>Luya Bio Chunks BBQ</t>
         </is>
       </c>
       <c r="C494" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fruechte-gemuese/salate/ganze-salate/radicchio-di-treviso/p/6564002</t>
+          <t>/de/lebensmittel/fleisch-fisch/the-veggie-chef/gehacktes-geschnetzeltes/luya-bio-chunks-bbq/p/6987154</t>
         </is>
       </c>
       <c r="D494" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E494" t="n">
-        <v>4</v>
-      </c>
-      <c r="F494" t="inlineStr"/>
+        <v>3.5</v>
+      </c>
+      <c r="F494" t="inlineStr">
+        <is>
+          <t>Luya</t>
+        </is>
+      </c>
       <c r="G494" t="inlineStr">
         <is>
-          <t>5.95</t>
+          <t>6.95</t>
         </is>
       </c>
       <c r="H494" t="inlineStr">
         <is>
-          <t>1.98/100g</t>
+          <t>3.97/100g</t>
         </is>
       </c>
       <c r="I494" t="inlineStr">
@@ -34398,7 +34402,7 @@
       </c>
       <c r="J494" t="inlineStr">
         <is>
-          <t>1.98</t>
+          <t>3.97</t>
         </is>
       </c>
       <c r="K494" t="inlineStr">
@@ -34408,103 +34412,121 @@
       </c>
       <c r="L494" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fruechte-gemuese', 'salate', 'ganze-salate']</t>
+          <t>['lebensmittel', 'fleisch-fisch', 'the-veggie-chef', 'gehacktes-geschnetzeltes']</t>
         </is>
       </c>
       <c r="M494" t="inlineStr">
         <is>
-          <t>Radicchio di Treviso 5.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N494" t="inlineStr"/>
+          <t>Luya Bio Chunks BBQ 6.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N494" t="inlineStr">
+        <is>
+          <t>['chilled', 'vegan', 'vegetarian']</t>
+        </is>
+      </c>
       <c r="O494" t="inlineStr">
         <is>
-          <t>2023-01-10 12:59:00</t>
+          <t>2023-01-10 20:51:27</t>
         </is>
       </c>
     </row>
     <row r="495">
       <c r="A495" t="inlineStr">
         <is>
-          <t>6338190</t>
+          <t>7014561</t>
         </is>
       </c>
       <c r="B495" t="inlineStr">
         <is>
-          <t>Schöni Berner Kabissalat Kümmel 500G</t>
+          <t>Yolo Ocean Burger</t>
         </is>
       </c>
       <c r="C495" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fruechte-gemuese/kohlgemuese/sauerkraut-rotkraut/schoeni-berner-kabissalat-kuemmel-500g/p/6338190</t>
-        </is>
-      </c>
-      <c r="D495" t="n">
-        <v>3</v>
-      </c>
+          <t>/de/lebensmittel/fleisch-fisch/the-veggie-chef/pflanzlicher-fischersatz/yolo-ocean-burger/p/7014561</t>
+        </is>
+      </c>
+      <c r="D495" t="inlineStr"/>
       <c r="E495" t="n">
-        <v>4.5</v>
+        <v>0</v>
       </c>
       <c r="F495" t="inlineStr">
         <is>
-          <t>Schöni</t>
+          <t>Yolo</t>
         </is>
       </c>
       <c r="G495" t="inlineStr">
         <is>
-          <t>2.40</t>
-        </is>
-      </c>
-      <c r="H495" t="inlineStr"/>
-      <c r="I495" t="inlineStr"/>
-      <c r="J495" t="inlineStr"/>
-      <c r="K495" t="inlineStr"/>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="H495" t="inlineStr">
+        <is>
+          <t>2.75/100g</t>
+        </is>
+      </c>
+      <c r="I495" t="inlineStr">
+        <is>
+          <t>Preis pro 100 Gramm</t>
+        </is>
+      </c>
+      <c r="J495" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="K495" t="inlineStr">
+        <is>
+          <t>100g</t>
+        </is>
+      </c>
       <c r="L495" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fruechte-gemuese', 'kohlgemuese', 'sauerkraut-rotkraut']</t>
+          <t>['lebensmittel', 'fleisch-fisch', 'the-veggie-chef', 'pflanzlicher-fischersatz']</t>
         </is>
       </c>
       <c r="M495" t="inlineStr">
         <is>
-          <t>Schöni Berner Kabissalat Kümmel 500G 2.40 Schweizer Franken</t>
+          <t>Yolo Ocean Burger 4.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N495" t="inlineStr">
         <is>
-          <t>['chilled']</t>
+          <t>['chilled', 'vegan', 'vegetarian']</t>
         </is>
       </c>
       <c r="O495" t="inlineStr">
         <is>
-          <t>2023-01-10 12:59:00</t>
+          <t>2023-01-10 20:51:27</t>
         </is>
       </c>
     </row>
     <row r="496">
       <c r="A496" t="inlineStr">
         <is>
-          <t>7019070</t>
+          <t>6962237</t>
         </is>
       </c>
       <c r="B496" t="inlineStr">
         <is>
-          <t>Vivera veganes Lachsfilet 2x100g</t>
+          <t>Délicorn Bio Chili Würstli</t>
         </is>
       </c>
       <c r="C496" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fleisch-fisch/the-veggie-chef/pflanzlicher-fischersatz/vivera-veganes-lachsfilet-2x100g/p/7019070</t>
+          <t>/de/lebensmittel/fleisch-fisch/the-veggie-chef/wuerste/delicorn-bio-chili-wuerstli/p/6962237</t>
         </is>
       </c>
       <c r="D496" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E496" t="n">
-        <v>4</v>
+        <v>2.5</v>
       </c>
       <c r="F496" t="inlineStr">
         <is>
-          <t>Vivera</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G496" t="inlineStr">
@@ -34534,12 +34556,12 @@
       </c>
       <c r="L496" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fleisch-fisch', 'the-veggie-chef', 'pflanzlicher-fischersatz']</t>
+          <t>['lebensmittel', 'fleisch-fisch', 'the-veggie-chef', 'wuerste']</t>
         </is>
       </c>
       <c r="M496" t="inlineStr">
         <is>
-          <t>Vivera veganes Lachsfilet 2x100g 5.95 Schweizer Franken</t>
+          <t>Délicorn Bio Chili Würstli 20% ab 2 Aktion 5.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N496" t="inlineStr">
@@ -34549,45 +34571,41 @@
       </c>
       <c r="O496" t="inlineStr">
         <is>
-          <t>2023-01-10 12:59:00</t>
+          <t>2023-01-10 20:51:27</t>
         </is>
       </c>
     </row>
     <row r="497">
       <c r="A497" t="inlineStr">
         <is>
-          <t>7069723</t>
+          <t>4227096</t>
         </is>
       </c>
       <c r="B497" t="inlineStr">
         <is>
-          <t>Wild Foods Dry Age</t>
+          <t>Cima di Rapa</t>
         </is>
       </c>
       <c r="C497" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fleisch-fisch/the-veggie-chef/cold-cuts/wild-foods-dry-age/p/7069723</t>
+          <t>/de/lebensmittel/fruechte-gemuese/weiteres-gemuese/blattgemuese-artischocken/cima-di-rapa/p/4227096</t>
         </is>
       </c>
       <c r="D497" t="n">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="E497" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="F497" t="inlineStr">
-        <is>
-          <t>WILD FOODS</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="F497" t="inlineStr"/>
       <c r="G497" t="inlineStr">
         <is>
-          <t>9.95</t>
+          <t>2.95</t>
         </is>
       </c>
       <c r="H497" t="inlineStr">
         <is>
-          <t>12.44/100g</t>
+          <t>0.74/100g</t>
         </is>
       </c>
       <c r="I497" t="inlineStr">
@@ -34597,7 +34615,7 @@
       </c>
       <c r="J497" t="inlineStr">
         <is>
-          <t>12.44</t>
+          <t>0.74</t>
         </is>
       </c>
       <c r="K497" t="inlineStr">
@@ -34607,58 +34625,56 @@
       </c>
       <c r="L497" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fleisch-fisch', 'the-veggie-chef', 'cold-cuts']</t>
+          <t>['lebensmittel', 'fruechte-gemuese', 'weiteres-gemuese', 'blattgemuese-artischocken']</t>
         </is>
       </c>
       <c r="M497" t="inlineStr">
         <is>
-          <t>Wild Foods Dry Age 9.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N497" t="inlineStr">
-        <is>
-          <t>['chilled', 'vegan', 'vegetarian']</t>
-        </is>
-      </c>
+          <t>Cima di Rapa 2.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N497" t="inlineStr"/>
       <c r="O497" t="inlineStr">
         <is>
-          <t>2023-01-10 12:59:00</t>
+          <t>2023-01-10 20:51:27</t>
         </is>
       </c>
     </row>
     <row r="498">
       <c r="A498" t="inlineStr">
         <is>
-          <t>7117730</t>
+          <t>6723051</t>
         </is>
       </c>
       <c r="B498" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Cicorino Trio</t>
+          <t>The Green Mountain plant-based Bauernbratwurstalternative</t>
         </is>
       </c>
       <c r="C498" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fruechte-gemuese/salate/ganze-salate/naturaplan-bio-cicorino-trio/p/7117730</t>
-        </is>
-      </c>
-      <c r="D498" t="inlineStr"/>
+          <t>/de/lebensmittel/fleisch-fisch/the-veggie-chef/wuerste/the-green-mountain-plant-based-bauernbratwurstalternative/p/6723051</t>
+        </is>
+      </c>
+      <c r="D498" t="n">
+        <v>14</v>
+      </c>
       <c r="E498" t="n">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="F498" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>The GREEN MOUNTAIN</t>
         </is>
       </c>
       <c r="G498" t="inlineStr">
         <is>
-          <t>4.95</t>
+          <t>6.95</t>
         </is>
       </c>
       <c r="H498" t="inlineStr">
         <is>
-          <t>0.62/100g</t>
+          <t>3.48/100g</t>
         </is>
       </c>
       <c r="I498" t="inlineStr">
@@ -34668,7 +34684,7 @@
       </c>
       <c r="J498" t="inlineStr">
         <is>
-          <t>0.62</t>
+          <t>3.48</t>
         </is>
       </c>
       <c r="K498" t="inlineStr">
@@ -34678,52 +34694,60 @@
       </c>
       <c r="L498" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fruechte-gemuese', 'salate', 'ganze-salate']</t>
+          <t>['lebensmittel', 'fleisch-fisch', 'the-veggie-chef', 'wuerste']</t>
         </is>
       </c>
       <c r="M498" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Cicorino Trio 4.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N498" t="inlineStr"/>
+          <t>The Green Mountain plant-based Bauernbratwurstalternative 6.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N498" t="inlineStr">
+        <is>
+          <t>['chilled', 'vegan', 'vegetarian']</t>
+        </is>
+      </c>
       <c r="O498" t="inlineStr">
         <is>
-          <t>2023-01-10 12:59:00</t>
+          <t>2023-01-10 20:51:27</t>
         </is>
       </c>
     </row>
     <row r="499">
       <c r="A499" t="inlineStr">
         <is>
-          <t>3947304</t>
+          <t>6739951</t>
         </is>
       </c>
       <c r="B499" t="inlineStr">
         <is>
-          <t>Tamarinde</t>
+          <t>Yolo marinated Pieces</t>
         </is>
       </c>
       <c r="C499" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fruechte-gemuese/fruechte/weitere-exotische-fruechte/tamarinde/p/3947304</t>
+          <t>/de/lebensmittel/fleisch-fisch/the-veggie-chef/gehacktes-geschnetzeltes/yolo-marinated-pieces/p/6739951</t>
         </is>
       </c>
       <c r="D499" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E499" t="n">
         <v>3.5</v>
       </c>
-      <c r="F499" t="inlineStr"/>
+      <c r="F499" t="inlineStr">
+        <is>
+          <t>Yolo</t>
+        </is>
+      </c>
       <c r="G499" t="inlineStr">
         <is>
-          <t>5.95</t>
+          <t>4.95</t>
         </is>
       </c>
       <c r="H499" t="inlineStr">
         <is>
-          <t>1.32/100g</t>
+          <t>3.54/100g</t>
         </is>
       </c>
       <c r="I499" t="inlineStr">
@@ -34733,7 +34757,7 @@
       </c>
       <c r="J499" t="inlineStr">
         <is>
-          <t>1.32</t>
+          <t>3.54</t>
         </is>
       </c>
       <c r="K499" t="inlineStr">
@@ -34743,56 +34767,60 @@
       </c>
       <c r="L499" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fruechte-gemuese', 'fruechte', 'weitere-exotische-fruechte']</t>
+          <t>['lebensmittel', 'fleisch-fisch', 'the-veggie-chef', 'gehacktes-geschnetzeltes']</t>
         </is>
       </c>
       <c r="M499" t="inlineStr">
         <is>
-          <t>Tamarinde 5.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N499" t="inlineStr"/>
+          <t>Yolo marinated Pieces 4.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N499" t="inlineStr">
+        <is>
+          <t>['chilled', 'vegan', 'vegetarian']</t>
+        </is>
+      </c>
       <c r="O499" t="inlineStr">
         <is>
-          <t>2023-01-10 12:59:00</t>
+          <t>2023-01-10 20:51:27</t>
         </is>
       </c>
     </row>
     <row r="500">
       <c r="A500" t="inlineStr">
         <is>
-          <t>7019161</t>
+          <t>6868671</t>
         </is>
       </c>
       <c r="B500" t="inlineStr">
         <is>
-          <t>Snack VegestorySnack 3 Seeds</t>
+          <t>Yolo Crunchies</t>
         </is>
       </c>
       <c r="C500" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fleisch-fisch/the-veggie-chef/wuerste/snack-vegestorysnack-3-seeds/p/7019161</t>
+          <t>/de/lebensmittel/fleisch-fisch/the-veggie-chef/pflanzlicher-fischersatz/yolo-crunchies/p/6868671</t>
         </is>
       </c>
       <c r="D500" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="E500" t="n">
-        <v>4</v>
+        <v>2.5</v>
       </c>
       <c r="F500" t="inlineStr">
         <is>
-          <t>SNACKIT</t>
+          <t>Yolo</t>
         </is>
       </c>
       <c r="G500" t="inlineStr">
         <is>
-          <t>3.95</t>
+          <t>6.95</t>
         </is>
       </c>
       <c r="H500" t="inlineStr">
         <is>
-          <t>4.39/100g</t>
+          <t>2.78/100g</t>
         </is>
       </c>
       <c r="I500" t="inlineStr">
@@ -34802,7 +34830,7 @@
       </c>
       <c r="J500" t="inlineStr">
         <is>
-          <t>4.39</t>
+          <t>2.78</t>
         </is>
       </c>
       <c r="K500" t="inlineStr">
@@ -34812,12 +34840,12 @@
       </c>
       <c r="L500" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fleisch-fisch', 'the-veggie-chef', 'wuerste']</t>
+          <t>['lebensmittel', 'fleisch-fisch', 'the-veggie-chef', 'pflanzlicher-fischersatz']</t>
         </is>
       </c>
       <c r="M500" t="inlineStr">
         <is>
-          <t>Snack VegestorySnack 3 Seeds 3.95 Schweizer Franken</t>
+          <t>Yolo Crunchies 6.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N500" t="inlineStr">
@@ -34827,45 +34855,45 @@
       </c>
       <c r="O500" t="inlineStr">
         <is>
-          <t>2023-01-10 12:59:00</t>
+          <t>2023-01-10 20:51:27</t>
         </is>
       </c>
     </row>
     <row r="501">
       <c r="A501" t="inlineStr">
         <is>
-          <t>6987154</t>
+          <t>6002381</t>
         </is>
       </c>
       <c r="B501" t="inlineStr">
         <is>
-          <t>Luya Bio Chunks BBQ</t>
+          <t>Algues de Bretagne Meeressalat</t>
         </is>
       </c>
       <c r="C501" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fleisch-fisch/the-veggie-chef/gehacktes-geschnetzeltes/luya-bio-chunks-bbq/p/6987154</t>
+          <t>/de/lebensmittel/fertiggerichte/frische-fertiggerichte/fertigsalate/algues-de-bretagne-meeressalat/p/6002381</t>
         </is>
       </c>
       <c r="D501" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E501" t="n">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="F501" t="inlineStr">
         <is>
-          <t>Luya</t>
+          <t>Algues de Bretagne</t>
         </is>
       </c>
       <c r="G501" t="inlineStr">
         <is>
-          <t>6.95</t>
+          <t>5.95</t>
         </is>
       </c>
       <c r="H501" t="inlineStr">
         <is>
-          <t>3.97/100g</t>
+          <t>7.44/100g</t>
         </is>
       </c>
       <c r="I501" t="inlineStr">
@@ -34875,7 +34903,7 @@
       </c>
       <c r="J501" t="inlineStr">
         <is>
-          <t>3.97</t>
+          <t>7.44</t>
         </is>
       </c>
       <c r="K501" t="inlineStr">
@@ -34885,39 +34913,39 @@
       </c>
       <c r="L501" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fleisch-fisch', 'the-veggie-chef', 'gehacktes-geschnetzeltes']</t>
+          <t>['lebensmittel', 'fertiggerichte', 'frische-fertiggerichte', 'fertigsalate']</t>
         </is>
       </c>
       <c r="M501" t="inlineStr">
         <is>
-          <t>Luya Bio Chunks BBQ 6.95 Schweizer Franken</t>
+          <t>Algues de Bretagne Meeressalat 5.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N501" t="inlineStr">
         <is>
-          <t>['chilled', 'vegan', 'vegetarian']</t>
+          <t>['chilled']</t>
         </is>
       </c>
       <c r="O501" t="inlineStr">
         <is>
-          <t>2023-01-10 12:59:00</t>
+          <t>2023-01-10 20:51:27</t>
         </is>
       </c>
     </row>
     <row r="502">
       <c r="A502" t="inlineStr">
         <is>
-          <t>7027730</t>
+          <t>6862505</t>
         </is>
       </c>
       <c r="B502" t="inlineStr">
         <is>
-          <t>The Green Mountain plant-based Curry Geschnetzeltes</t>
+          <t>Betty Bossi Sous vide Kichererbsen</t>
         </is>
       </c>
       <c r="C502" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fleisch-fisch/the-veggie-chef/gehacktes-geschnetzeltes/the-green-mountain-plant-based-curry-geschnetzeltes/p/7027730</t>
+          <t>/de/lebensmittel/fruechte-gemuese/weiteres-gemuese/pfannenfertiges-gemuese/betty-bossi-sous-vide-kichererbsen/p/6862505</t>
         </is>
       </c>
       <c r="D502" t="inlineStr"/>
@@ -34926,17 +34954,17 @@
       </c>
       <c r="F502" t="inlineStr">
         <is>
-          <t>The GREEN MOUNTAIN</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G502" t="inlineStr">
         <is>
-          <t>7.95</t>
+          <t>4.25</t>
         </is>
       </c>
       <c r="H502" t="inlineStr">
         <is>
-          <t>2.27/100g</t>
+          <t>1.21/100g</t>
         </is>
       </c>
       <c r="I502" t="inlineStr">
@@ -34946,7 +34974,7 @@
       </c>
       <c r="J502" t="inlineStr">
         <is>
-          <t>2.27</t>
+          <t>1.21</t>
         </is>
       </c>
       <c r="K502" t="inlineStr">
@@ -34956,12 +34984,12 @@
       </c>
       <c r="L502" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fleisch-fisch', 'the-veggie-chef', 'gehacktes-geschnetzeltes']</t>
+          <t>['lebensmittel', 'fruechte-gemuese', 'weiteres-gemuese', 'pfannenfertiges-gemuese']</t>
         </is>
       </c>
       <c r="M502" t="inlineStr">
         <is>
-          <t>The Green Mountain plant-based Curry Geschnetzeltes 7.95 Schweizer Franken</t>
+          <t>Betty Bossi Sous vide Kichererbsen 4.25 Schweizer Franken</t>
         </is>
       </c>
       <c r="N502" t="inlineStr">
@@ -34971,45 +34999,45 @@
       </c>
       <c r="O502" t="inlineStr">
         <is>
-          <t>2023-01-10 12:59:00</t>
+          <t>2023-01-10 20:51:27</t>
         </is>
       </c>
     </row>
     <row r="503">
       <c r="A503" t="inlineStr">
         <is>
-          <t>7027585</t>
+          <t>6996620</t>
         </is>
       </c>
       <c r="B503" t="inlineStr">
         <is>
-          <t>The Green Mountain plant-based Geschnetzeltes</t>
+          <t>Naturli Mince</t>
         </is>
       </c>
       <c r="C503" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fleisch-fisch/the-veggie-chef/gehacktes-geschnetzeltes/the-green-mountain-plant-based-geschnetzeltes/p/7027585</t>
+          <t>/de/lebensmittel/fleisch-fisch/the-veggie-chef/gehacktes-geschnetzeltes/naturli-mince/p/6996620</t>
         </is>
       </c>
       <c r="D503" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E503" t="n">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="F503" t="inlineStr">
         <is>
-          <t>The GREEN MOUNTAIN</t>
+          <t>Naturli</t>
         </is>
       </c>
       <c r="G503" t="inlineStr">
         <is>
-          <t>7.95</t>
+          <t>5.95</t>
         </is>
       </c>
       <c r="H503" t="inlineStr">
         <is>
-          <t>2.27/100g</t>
+          <t>1.98/100g</t>
         </is>
       </c>
       <c r="I503" t="inlineStr">
@@ -35019,7 +35047,7 @@
       </c>
       <c r="J503" t="inlineStr">
         <is>
-          <t>2.27</t>
+          <t>1.98</t>
         </is>
       </c>
       <c r="K503" t="inlineStr">
@@ -35034,7 +35062,7 @@
       </c>
       <c r="M503" t="inlineStr">
         <is>
-          <t>The Green Mountain plant-based Geschnetzeltes 7.95 Schweizer Franken</t>
+          <t>Naturli Mince 5.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N503" t="inlineStr">
@@ -35044,43 +35072,45 @@
       </c>
       <c r="O503" t="inlineStr">
         <is>
-          <t>2023-01-10 12:59:00</t>
+          <t>2023-01-10 20:51:27</t>
         </is>
       </c>
     </row>
     <row r="504">
       <c r="A504" t="inlineStr">
         <is>
-          <t>7014561</t>
+          <t>7032802</t>
         </is>
       </c>
       <c r="B504" t="inlineStr">
         <is>
-          <t>Yolo Ocean Burger</t>
+          <t>The Green Mountain plant-based Schnitzel</t>
         </is>
       </c>
       <c r="C504" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fleisch-fisch/the-veggie-chef/pflanzlicher-fischersatz/yolo-ocean-burger/p/7014561</t>
-        </is>
-      </c>
-      <c r="D504" t="inlineStr"/>
+          <t>/de/lebensmittel/fleisch-fisch/the-veggie-chef/schnitzel-nuggets/the-green-mountain-plant-based-schnitzel/p/7032802</t>
+        </is>
+      </c>
+      <c r="D504" t="n">
+        <v>1</v>
+      </c>
       <c r="E504" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F504" t="inlineStr">
         <is>
-          <t>Yolo</t>
+          <t>The GREEN MOUNTAIN</t>
         </is>
       </c>
       <c r="G504" t="inlineStr">
         <is>
-          <t>4.95</t>
+          <t>7.50</t>
         </is>
       </c>
       <c r="H504" t="inlineStr">
         <is>
-          <t>2.75/100g</t>
+          <t>4.17/100g</t>
         </is>
       </c>
       <c r="I504" t="inlineStr">
@@ -35090,7 +35120,7 @@
       </c>
       <c r="J504" t="inlineStr">
         <is>
-          <t>2.75</t>
+          <t>4.17</t>
         </is>
       </c>
       <c r="K504" t="inlineStr">
@@ -35100,46 +35130,46 @@
       </c>
       <c r="L504" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fleisch-fisch', 'the-veggie-chef', 'pflanzlicher-fischersatz']</t>
+          <t>['lebensmittel', 'fleisch-fisch', 'the-veggie-chef', 'schnitzel-nuggets']</t>
         </is>
       </c>
       <c r="M504" t="inlineStr">
         <is>
-          <t>Yolo Ocean Burger 4.95 Schweizer Franken</t>
+          <t>The Green Mountain plant-based Schnitzel 7.50 Schweizer Franken</t>
         </is>
       </c>
       <c r="N504" t="inlineStr">
         <is>
-          <t>['chilled', 'vegan', 'vegetarian']</t>
+          <t>['chilled']</t>
         </is>
       </c>
       <c r="O504" t="inlineStr">
         <is>
-          <t>2023-01-10 12:59:00</t>
+          <t>2023-01-10 20:51:27</t>
         </is>
       </c>
     </row>
     <row r="505">
       <c r="A505" t="inlineStr">
         <is>
-          <t>6962237</t>
+          <t>6073300</t>
         </is>
       </c>
       <c r="B505" t="inlineStr">
         <is>
-          <t>Délicorn Bio Chili Würstli</t>
+          <t>Pro Specie Rara Explorer Box</t>
         </is>
       </c>
       <c r="C505" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fleisch-fisch/the-veggie-chef/wuerste/delicorn-bio-chili-wuerstli/p/6962237</t>
+          <t>/de/lebensmittel/fruechte-gemuese/fruechte-gemueseboxen/pro-specie-rara-explorer-box/p/6073300</t>
         </is>
       </c>
       <c r="D505" t="n">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="E505" t="n">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="F505" t="inlineStr">
         <is>
@@ -35148,81 +35178,81 @@
       </c>
       <c r="G505" t="inlineStr">
         <is>
-          <t>5.95</t>
+          <t>16.50</t>
         </is>
       </c>
       <c r="H505" t="inlineStr">
         <is>
-          <t>2.98/100g</t>
+          <t>8.25/1kg</t>
         </is>
       </c>
       <c r="I505" t="inlineStr">
         <is>
-          <t>Preis pro 100 Gramm</t>
+          <t>Preis pro 1 Kilogramm</t>
         </is>
       </c>
       <c r="J505" t="inlineStr">
         <is>
-          <t>2.98</t>
+          <t>8.25</t>
         </is>
       </c>
       <c r="K505" t="inlineStr">
         <is>
-          <t>100g</t>
+          <t>1kg</t>
         </is>
       </c>
       <c r="L505" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fleisch-fisch', 'the-veggie-chef', 'wuerste']</t>
+          <t>['lebensmittel', 'fruechte-gemuese', 'fruechte-gemueseboxen']</t>
         </is>
       </c>
       <c r="M505" t="inlineStr">
         <is>
-          <t>Délicorn Bio Chili Würstli 20% ab 2 Aktion 5.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N505" t="inlineStr">
-        <is>
-          <t>['chilled', 'vegan', 'vegetarian']</t>
-        </is>
-      </c>
+          <t>Pro Specie Rara Explorer Box 16.50 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N505" t="inlineStr"/>
       <c r="O505" t="inlineStr">
         <is>
-          <t>2023-01-10 12:59:00</t>
+          <t>2023-01-10 20:51:27</t>
         </is>
       </c>
     </row>
     <row r="506">
       <c r="A506" t="inlineStr">
         <is>
-          <t>4227096</t>
+          <t>6050562</t>
         </is>
       </c>
       <c r="B506" t="inlineStr">
         <is>
-          <t>Cima di Rapa</t>
+          <t>Délicorn Tischgrillplatte</t>
         </is>
       </c>
       <c r="C506" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fruechte-gemuese/weiteres-gemuese/blattgemuese-artischocken/cima-di-rapa/p/4227096</t>
+          <t>/de/lebensmittel/fleisch-fisch/the-veggie-chef/burger-hackbaellchen/delicorn-tischgrillplatte/p/6050562</t>
         </is>
       </c>
       <c r="D506" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E506" t="n">
-        <v>1</v>
-      </c>
-      <c r="F506" t="inlineStr"/>
+        <v>4.5</v>
+      </c>
+      <c r="F506" t="inlineStr">
+        <is>
+          <t>Coop</t>
+        </is>
+      </c>
       <c r="G506" t="inlineStr">
         <is>
-          <t>2.95</t>
+          <t>6.50</t>
         </is>
       </c>
       <c r="H506" t="inlineStr">
         <is>
-          <t>0.74/100g</t>
+          <t>3.10/100g</t>
         </is>
       </c>
       <c r="I506" t="inlineStr">
@@ -35232,7 +35262,7 @@
       </c>
       <c r="J506" t="inlineStr">
         <is>
-          <t>0.74</t>
+          <t>3.10</t>
         </is>
       </c>
       <c r="K506" t="inlineStr">
@@ -35242,56 +35272,58 @@
       </c>
       <c r="L506" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fruechte-gemuese', 'weiteres-gemuese', 'blattgemuese-artischocken']</t>
+          <t>['lebensmittel', 'fleisch-fisch', 'the-veggie-chef', 'burger-hackbaellchen']</t>
         </is>
       </c>
       <c r="M506" t="inlineStr">
         <is>
-          <t>Cima di Rapa 2.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N506" t="inlineStr"/>
+          <t>Délicorn Tischgrillplatte 20% ab 2 Aktion 6.50 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N506" t="inlineStr">
+        <is>
+          <t>['chilled', 'vegan', 'vegetarian']</t>
+        </is>
+      </c>
       <c r="O506" t="inlineStr">
         <is>
-          <t>2023-01-10 12:59:00</t>
+          <t>2023-01-10 20:51:27</t>
         </is>
       </c>
     </row>
     <row r="507">
       <c r="A507" t="inlineStr">
         <is>
-          <t>6723051</t>
+          <t>7031479</t>
         </is>
       </c>
       <c r="B507" t="inlineStr">
         <is>
-          <t>The Green Mountain plant-based Bauernbratwurstalternative</t>
+          <t>Betty Bossi Pasta &amp;amp; Pesto Vegan</t>
         </is>
       </c>
       <c r="C507" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fleisch-fisch/the-veggie-chef/wuerste/the-green-mountain-plant-based-bauernbratwurstalternative/p/6723051</t>
-        </is>
-      </c>
-      <c r="D507" t="n">
-        <v>14</v>
-      </c>
+          <t>/de/lebensmittel/fertiggerichte/frische-fertiggerichte/fertigsalate/betty-bossi-pasta-pesto-vegan/p/7031479</t>
+        </is>
+      </c>
+      <c r="D507" t="inlineStr"/>
       <c r="E507" t="n">
-        <v>3.5</v>
+        <v>0</v>
       </c>
       <c r="F507" t="inlineStr">
         <is>
-          <t>The GREEN MOUNTAIN</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G507" t="inlineStr">
         <is>
-          <t>6.95</t>
+          <t>4.80</t>
         </is>
       </c>
       <c r="H507" t="inlineStr">
         <is>
-          <t>3.48/100g</t>
+          <t>1.85/100g</t>
         </is>
       </c>
       <c r="I507" t="inlineStr">
@@ -35301,7 +35333,7 @@
       </c>
       <c r="J507" t="inlineStr">
         <is>
-          <t>3.48</t>
+          <t>1.85</t>
         </is>
       </c>
       <c r="K507" t="inlineStr">
@@ -35311,12 +35343,12 @@
       </c>
       <c r="L507" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fleisch-fisch', 'the-veggie-chef', 'wuerste']</t>
+          <t>['lebensmittel', 'fertiggerichte', 'frische-fertiggerichte', 'fertigsalate']</t>
         </is>
       </c>
       <c r="M507" t="inlineStr">
         <is>
-          <t>The Green Mountain plant-based Bauernbratwurstalternative 6.95 Schweizer Franken</t>
+          <t>Betty Bossi Pasta &amp;amp; Pesto Vegan 4.80 Schweizer Franken</t>
         </is>
       </c>
       <c r="N507" t="inlineStr">
@@ -35326,118 +35358,114 @@
       </c>
       <c r="O507" t="inlineStr">
         <is>
-          <t>2023-01-10 12:59:00</t>
+          <t>2023-01-10 20:51:27</t>
         </is>
       </c>
     </row>
     <row r="508">
       <c r="A508" t="inlineStr">
         <is>
-          <t>6739951</t>
+          <t>6073299</t>
         </is>
       </c>
       <c r="B508" t="inlineStr">
         <is>
-          <t>Yolo marinated Pieces</t>
+          <t>Naturaplan Bio Office Snack Box</t>
         </is>
       </c>
       <c r="C508" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fleisch-fisch/the-veggie-chef/gehacktes-geschnetzeltes/yolo-marinated-pieces/p/6739951</t>
+          <t>/de/lebensmittel/fruechte-gemuese/fruechte-gemueseboxen/naturaplan-bio-office-snack-box/p/6073299</t>
         </is>
       </c>
       <c r="D508" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="E508" t="n">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="F508" t="inlineStr">
         <is>
-          <t>Yolo</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G508" t="inlineStr">
         <is>
-          <t>4.95</t>
+          <t>20.00</t>
         </is>
       </c>
       <c r="H508" t="inlineStr">
         <is>
-          <t>3.54/100g</t>
+          <t>6.67/1kg</t>
         </is>
       </c>
       <c r="I508" t="inlineStr">
         <is>
-          <t>Preis pro 100 Gramm</t>
+          <t>Preis pro 1 Kilogramm</t>
         </is>
       </c>
       <c r="J508" t="inlineStr">
         <is>
-          <t>3.54</t>
+          <t>6.67</t>
         </is>
       </c>
       <c r="K508" t="inlineStr">
         <is>
-          <t>100g</t>
+          <t>1kg</t>
         </is>
       </c>
       <c r="L508" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fleisch-fisch', 'the-veggie-chef', 'gehacktes-geschnetzeltes']</t>
+          <t>['lebensmittel', 'fruechte-gemuese', 'fruechte-gemueseboxen']</t>
         </is>
       </c>
       <c r="M508" t="inlineStr">
         <is>
-          <t>Yolo marinated Pieces 4.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N508" t="inlineStr">
-        <is>
-          <t>['chilled', 'vegan', 'vegetarian']</t>
-        </is>
-      </c>
+          <t>Naturaplan Bio Office Snack Box 20.00 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N508" t="inlineStr"/>
       <c r="O508" t="inlineStr">
         <is>
-          <t>2023-01-10 12:59:00</t>
+          <t>2023-01-10 20:51:27</t>
         </is>
       </c>
     </row>
     <row r="509">
       <c r="A509" t="inlineStr">
         <is>
-          <t>6868671</t>
+          <t>6984752</t>
         </is>
       </c>
       <c r="B509" t="inlineStr">
         <is>
-          <t>Yolo Crunchies</t>
+          <t>Betty Bossi Dinkel &amp;amp; Randen Mix</t>
         </is>
       </c>
       <c r="C509" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fleisch-fisch/the-veggie-chef/pflanzlicher-fischersatz/yolo-crunchies/p/6868671</t>
+          <t>/de/lebensmittel/fruechte-gemuese/weiteres-gemuese/pfannenfertiges-gemuese/betty-bossi-dinkel-randen-mix/p/6984752</t>
         </is>
       </c>
       <c r="D509" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="E509" t="n">
-        <v>2.5</v>
+        <v>5</v>
       </c>
       <c r="F509" t="inlineStr">
         <is>
-          <t>Yolo</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G509" t="inlineStr">
         <is>
-          <t>6.95</t>
+          <t>4.95</t>
         </is>
       </c>
       <c r="H509" t="inlineStr">
         <is>
-          <t>2.78/100g</t>
+          <t>1.77/100g</t>
         </is>
       </c>
       <c r="I509" t="inlineStr">
@@ -35447,7 +35475,7 @@
       </c>
       <c r="J509" t="inlineStr">
         <is>
-          <t>2.78</t>
+          <t>1.77</t>
         </is>
       </c>
       <c r="K509" t="inlineStr">
@@ -35457,60 +35485,58 @@
       </c>
       <c r="L509" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fleisch-fisch', 'the-veggie-chef', 'pflanzlicher-fischersatz']</t>
+          <t>['lebensmittel', 'fruechte-gemuese', 'weiteres-gemuese', 'pfannenfertiges-gemuese']</t>
         </is>
       </c>
       <c r="M509" t="inlineStr">
         <is>
-          <t>Yolo Crunchies 6.95 Schweizer Franken</t>
+          <t>Betty Bossi Dinkel &amp;amp; Randen Mix 4.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N509" t="inlineStr">
         <is>
-          <t>['chilled', 'vegan', 'vegetarian']</t>
+          <t>['chilled']</t>
         </is>
       </c>
       <c r="O509" t="inlineStr">
         <is>
-          <t>2023-01-10 12:59:00</t>
+          <t>2023-01-10 20:51:27</t>
         </is>
       </c>
     </row>
     <row r="510">
       <c r="A510" t="inlineStr">
         <is>
-          <t>6002381</t>
+          <t>5756809</t>
         </is>
       </c>
       <c r="B510" t="inlineStr">
         <is>
-          <t>Algues de Bretagne Meeressalat</t>
+          <t>Betty Bossi Kopfsalat mit Herzen</t>
         </is>
       </c>
       <c r="C510" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fertiggerichte/frische-fertiggerichte/fertigsalate/algues-de-bretagne-meeressalat/p/6002381</t>
-        </is>
-      </c>
-      <c r="D510" t="n">
-        <v>6</v>
-      </c>
+          <t>/de/lebensmittel/fruechte-gemuese/salate/geschnittene-salate/betty-bossi-kopfsalat-mit-herzen/p/5756809</t>
+        </is>
+      </c>
+      <c r="D510" t="inlineStr"/>
       <c r="E510" t="n">
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="F510" t="inlineStr">
         <is>
-          <t>Algues de Bretagne</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G510" t="inlineStr">
         <is>
-          <t>5.95</t>
+          <t>4.95</t>
         </is>
       </c>
       <c r="H510" t="inlineStr">
         <is>
-          <t>7.44/100g</t>
+          <t>1.65/100g</t>
         </is>
       </c>
       <c r="I510" t="inlineStr">
@@ -35520,7 +35546,7 @@
       </c>
       <c r="J510" t="inlineStr">
         <is>
-          <t>7.44</t>
+          <t>1.65</t>
         </is>
       </c>
       <c r="K510" t="inlineStr">
@@ -35530,58 +35556,50 @@
       </c>
       <c r="L510" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fertiggerichte', 'frische-fertiggerichte', 'fertigsalate']</t>
+          <t>['lebensmittel', 'fruechte-gemuese', 'salate', 'geschnittene-salate']</t>
         </is>
       </c>
       <c r="M510" t="inlineStr">
         <is>
-          <t>Algues de Bretagne Meeressalat 5.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N510" t="inlineStr">
-        <is>
-          <t>['chilled']</t>
-        </is>
-      </c>
+          <t>Betty Bossi Kopfsalat mit Herzen - Online kein Bestand 23% Aktion 4.95 Schweizer Franken statt 6.50 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N510" t="inlineStr"/>
       <c r="O510" t="inlineStr">
         <is>
-          <t>2023-01-10 12:59:00</t>
+          <t>2023-01-10 20:51:27</t>
         </is>
       </c>
     </row>
     <row r="511">
       <c r="A511" t="inlineStr">
         <is>
-          <t>6862505</t>
+          <t>6845831</t>
         </is>
       </c>
       <c r="B511" t="inlineStr">
         <is>
-          <t>Betty Bossi Sous vide Kichererbsen</t>
+          <t>Catalogna</t>
         </is>
       </c>
       <c r="C511" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fruechte-gemuese/weiteres-gemuese/pfannenfertiges-gemuese/betty-bossi-sous-vide-kichererbsen/p/6862505</t>
+          <t>/de/lebensmittel/fruechte-gemuese/weiteres-gemuese/blattgemuese-artischocken/catalogna/p/6845831</t>
         </is>
       </c>
       <c r="D511" t="inlineStr"/>
       <c r="E511" t="n">
         <v>0</v>
       </c>
-      <c r="F511" t="inlineStr">
-        <is>
-          <t>Coop</t>
-        </is>
-      </c>
+      <c r="F511" t="inlineStr"/>
       <c r="G511" t="inlineStr">
         <is>
-          <t>4.25</t>
+          <t>3.95</t>
         </is>
       </c>
       <c r="H511" t="inlineStr">
         <is>
-          <t>1.21/100g</t>
+          <t>0.79/100g</t>
         </is>
       </c>
       <c r="I511" t="inlineStr">
@@ -35591,7 +35609,7 @@
       </c>
       <c r="J511" t="inlineStr">
         <is>
-          <t>1.21</t>
+          <t>0.79</t>
         </is>
       </c>
       <c r="K511" t="inlineStr">
@@ -35601,60 +35619,54 @@
       </c>
       <c r="L511" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fruechte-gemuese', 'weiteres-gemuese', 'pfannenfertiges-gemuese']</t>
+          <t>['lebensmittel', 'fruechte-gemuese', 'weiteres-gemuese', 'blattgemuese-artischocken']</t>
         </is>
       </c>
       <c r="M511" t="inlineStr">
         <is>
-          <t>Betty Bossi Sous vide Kichererbsen 4.25 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N511" t="inlineStr">
-        <is>
-          <t>['chilled']</t>
-        </is>
-      </c>
+          <t>Catalogna 3.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N511" t="inlineStr"/>
       <c r="O511" t="inlineStr">
         <is>
-          <t>2023-01-10 12:59:00</t>
+          <t>2023-01-10 20:51:27</t>
         </is>
       </c>
     </row>
     <row r="512">
       <c r="A512" t="inlineStr">
         <is>
-          <t>6996620</t>
+          <t>7065419</t>
         </is>
       </c>
       <c r="B512" t="inlineStr">
         <is>
-          <t>Naturli Mince</t>
+          <t>Betty Bossi Kürbis &amp;amp; Kichererbsen</t>
         </is>
       </c>
       <c r="C512" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fleisch-fisch/the-veggie-chef/gehacktes-geschnetzeltes/naturli-mince/p/6996620</t>
-        </is>
-      </c>
-      <c r="D512" t="n">
-        <v>1</v>
-      </c>
+          <t>/de/lebensmittel/fruechte-gemuese/weiteres-gemuese/pfannenfertiges-gemuese/betty-bossi-kuerbis-kichererbsen/p/7065419</t>
+        </is>
+      </c>
+      <c r="D512" t="inlineStr"/>
       <c r="E512" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F512" t="inlineStr">
         <is>
-          <t>Naturli</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G512" t="inlineStr">
         <is>
-          <t>5.95</t>
+          <t>5.50</t>
         </is>
       </c>
       <c r="H512" t="inlineStr">
         <is>
-          <t>1.98/100g</t>
+          <t>2.75/100g</t>
         </is>
       </c>
       <c r="I512" t="inlineStr">
@@ -35664,7 +35676,7 @@
       </c>
       <c r="J512" t="inlineStr">
         <is>
-          <t>1.98</t>
+          <t>2.75</t>
         </is>
       </c>
       <c r="K512" t="inlineStr">
@@ -35674,60 +35686,54 @@
       </c>
       <c r="L512" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fleisch-fisch', 'the-veggie-chef', 'gehacktes-geschnetzeltes']</t>
+          <t>['lebensmittel', 'fruechte-gemuese', 'weiteres-gemuese', 'pfannenfertiges-gemuese']</t>
         </is>
       </c>
       <c r="M512" t="inlineStr">
         <is>
-          <t>Naturli Mince 5.95 Schweizer Franken</t>
+          <t>Betty Bossi Kürbis &amp;amp; Kichererbsen 5.50 Schweizer Franken</t>
         </is>
       </c>
       <c r="N512" t="inlineStr">
         <is>
-          <t>['chilled']</t>
+          <t>['chilled', 'vegetarian']</t>
         </is>
       </c>
       <c r="O512" t="inlineStr">
         <is>
-          <t>2023-01-10 12:59:00</t>
+          <t>2023-01-10 20:51:27</t>
         </is>
       </c>
     </row>
     <row r="513">
       <c r="A513" t="inlineStr">
         <is>
-          <t>7032802</t>
+          <t>7102073</t>
         </is>
       </c>
       <c r="B513" t="inlineStr">
         <is>
-          <t>The Green Mountain plant-based Schnitzel</t>
+          <t>Baumnüsse</t>
         </is>
       </c>
       <c r="C513" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fleisch-fisch/the-veggie-chef/schnitzel-nuggets/the-green-mountain-plant-based-schnitzel/p/7032802</t>
-        </is>
-      </c>
-      <c r="D513" t="n">
-        <v>1</v>
-      </c>
+          <t>/de/lebensmittel/fruechte-gemuese/nuesse-datteln-marroni-und-feigen/baumnuesse/p/7102073</t>
+        </is>
+      </c>
+      <c r="D513" t="inlineStr"/>
       <c r="E513" t="n">
-        <v>5</v>
-      </c>
-      <c r="F513" t="inlineStr">
-        <is>
-          <t>The GREEN MOUNTAIN</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="F513" t="inlineStr"/>
       <c r="G513" t="inlineStr">
         <is>
-          <t>7.50</t>
+          <t>1.00</t>
         </is>
       </c>
       <c r="H513" t="inlineStr">
         <is>
-          <t>4.17/100g</t>
+          <t>0.40/100g</t>
         </is>
       </c>
       <c r="I513" t="inlineStr">
@@ -35737,7 +35743,7 @@
       </c>
       <c r="J513" t="inlineStr">
         <is>
-          <t>4.17</t>
+          <t>0.40</t>
         </is>
       </c>
       <c r="K513" t="inlineStr">
@@ -35747,46 +35753,40 @@
       </c>
       <c r="L513" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fleisch-fisch', 'the-veggie-chef', 'schnitzel-nuggets']</t>
+          <t>['lebensmittel', 'fruechte-gemuese', 'nuesse-datteln-marroni-und-feigen']</t>
         </is>
       </c>
       <c r="M513" t="inlineStr">
         <is>
-          <t>The Green Mountain plant-based Schnitzel 7.50 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N513" t="inlineStr">
-        <is>
-          <t>['chilled']</t>
-        </is>
-      </c>
+          <t>Baumnüsse Superpreis Aktion 1.00 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N513" t="inlineStr"/>
       <c r="O513" t="inlineStr">
         <is>
-          <t>2023-01-10 12:59:00</t>
+          <t>2023-01-10 20:51:27</t>
         </is>
       </c>
     </row>
     <row r="514">
       <c r="A514" t="inlineStr">
         <is>
-          <t>6073300</t>
+          <t>6693270</t>
         </is>
       </c>
       <c r="B514" t="inlineStr">
         <is>
-          <t>Pro Specie Rara Explorer Box</t>
+          <t>Betty Bossi Zitrus Mix</t>
         </is>
       </c>
       <c r="C514" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fruechte-gemuese/fruechte-gemueseboxen/pro-specie-rara-explorer-box/p/6073300</t>
-        </is>
-      </c>
-      <c r="D514" t="n">
-        <v>11</v>
-      </c>
+          <t>/de/lebensmittel/fruechte-gemuese/fruechte/zitrusfruechte/betty-bossi-zitrus-mix/p/6693270</t>
+        </is>
+      </c>
+      <c r="D514" t="inlineStr"/>
       <c r="E514" t="n">
-        <v>3.5</v>
+        <v>0</v>
       </c>
       <c r="F514" t="inlineStr">
         <is>
@@ -35795,64 +35795,68 @@
       </c>
       <c r="G514" t="inlineStr">
         <is>
-          <t>16.50</t>
+          <t>3.50</t>
         </is>
       </c>
       <c r="H514" t="inlineStr">
         <is>
-          <t>8.25/1kg</t>
+          <t>2.33/100g</t>
         </is>
       </c>
       <c r="I514" t="inlineStr">
         <is>
-          <t>Preis pro 1 Kilogramm</t>
+          <t>Preis pro 100 Gramm</t>
         </is>
       </c>
       <c r="J514" t="inlineStr">
         <is>
-          <t>8.25</t>
+          <t>2.33</t>
         </is>
       </c>
       <c r="K514" t="inlineStr">
         <is>
-          <t>1kg</t>
+          <t>100g</t>
         </is>
       </c>
       <c r="L514" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fruechte-gemuese', 'fruechte-gemueseboxen']</t>
+          <t>['lebensmittel', 'fruechte-gemuese', 'fruechte', 'zitrusfruechte']</t>
         </is>
       </c>
       <c r="M514" t="inlineStr">
         <is>
-          <t>Pro Specie Rara Explorer Box 16.50 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N514" t="inlineStr"/>
+          <t>Betty Bossi Zitrus Mix - Online kein Bestand 3.50 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N514" t="inlineStr">
+        <is>
+          <t>['chilled']</t>
+        </is>
+      </c>
       <c r="O514" t="inlineStr">
         <is>
-          <t>2023-01-10 12:59:00</t>
+          <t>2023-01-10 20:51:27</t>
         </is>
       </c>
     </row>
     <row r="515">
       <c r="A515" t="inlineStr">
         <is>
-          <t>6050562</t>
+          <t>5947702</t>
         </is>
       </c>
       <c r="B515" t="inlineStr">
         <is>
-          <t>Délicorn Tischgrillplatte</t>
+          <t>Fairtrade Trauben Mix kernarm</t>
         </is>
       </c>
       <c r="C515" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fleisch-fisch/the-veggie-chef/burger-hackbaellchen/delicorn-tischgrillplatte/p/6050562</t>
+          <t>/de/lebensmittel/fruechte-gemuese/fruechte/trauben-beeren/trauben/fairtrade-trauben-mix-kernarm/p/5947702</t>
         </is>
       </c>
       <c r="D515" t="n">
-        <v>4</v>
+        <v>41</v>
       </c>
       <c r="E515" t="n">
         <v>4.5</v>
@@ -35864,12 +35868,12 @@
       </c>
       <c r="G515" t="inlineStr">
         <is>
-          <t>6.50</t>
+          <t>3.25</t>
         </is>
       </c>
       <c r="H515" t="inlineStr">
         <is>
-          <t>3.10/100g</t>
+          <t>0.65/100g</t>
         </is>
       </c>
       <c r="I515" t="inlineStr">
@@ -35879,7 +35883,7 @@
       </c>
       <c r="J515" t="inlineStr">
         <is>
-          <t>3.10</t>
+          <t>0.65</t>
         </is>
       </c>
       <c r="K515" t="inlineStr">
@@ -35889,60 +35893,56 @@
       </c>
       <c r="L515" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fleisch-fisch', 'the-veggie-chef', 'burger-hackbaellchen']</t>
+          <t>['lebensmittel', 'fruechte-gemuese', 'fruechte', 'trauben-beeren', 'trauben']</t>
         </is>
       </c>
       <c r="M515" t="inlineStr">
         <is>
-          <t>Délicorn Tischgrillplatte 20% ab 2 Aktion 6.50 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N515" t="inlineStr">
-        <is>
-          <t>['chilled', 'vegan', 'vegetarian']</t>
-        </is>
-      </c>
+          <t>Fairtrade Trauben Mix kernarm 3.25 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N515" t="inlineStr"/>
       <c r="O515" t="inlineStr">
         <is>
-          <t>2023-01-10 12:59:00</t>
+          <t>2023-01-10 20:51:27</t>
         </is>
       </c>
     </row>
     <row r="516">
       <c r="A516" t="inlineStr">
         <is>
-          <t>7051692</t>
+          <t>5737354</t>
         </is>
       </c>
       <c r="B516" t="inlineStr">
         <is>
-          <t>Outlawz Food Geschnetzeltes Jäger*innen Art</t>
+          <t>Fairtrade Trauben weiss</t>
         </is>
       </c>
       <c r="C516" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fleisch-fisch/the-veggie-chef/gehacktes-geschnetzeltes/outlawz-food-geschnetzeltes-jaegerinnen-art/p/7051692</t>
+          <t>/de/lebensmittel/fruechte-gemuese/fruechte/trauben-beeren/trauben/fairtrade-trauben-weiss/p/5737354</t>
         </is>
       </c>
       <c r="D516" t="n">
-        <v>2</v>
+        <v>75</v>
       </c>
       <c r="E516" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F516" t="inlineStr">
         <is>
-          <t>OUTLAWZ Food</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G516" t="inlineStr">
         <is>
-          <t>6.95</t>
+          <t>3.25</t>
         </is>
       </c>
       <c r="H516" t="inlineStr">
         <is>
-          <t>3.76/100g</t>
+          <t>0.65/100g</t>
         </is>
       </c>
       <c r="I516" t="inlineStr">
@@ -35952,7 +35952,7 @@
       </c>
       <c r="J516" t="inlineStr">
         <is>
-          <t>3.76</t>
+          <t>0.65</t>
         </is>
       </c>
       <c r="K516" t="inlineStr">
@@ -35962,190 +35962,138 @@
       </c>
       <c r="L516" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fleisch-fisch', 'the-veggie-chef', 'gehacktes-geschnetzeltes']</t>
+          <t>['lebensmittel', 'fruechte-gemuese', 'fruechte', 'trauben-beeren', 'trauben']</t>
         </is>
       </c>
       <c r="M516" t="inlineStr">
         <is>
-          <t>Outlawz Food Geschnetzeltes Jäger*innen Art 6.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N516" t="inlineStr">
-        <is>
-          <t>['chilled', 'vegan', 'vegetarian']</t>
-        </is>
-      </c>
+          <t>Fairtrade Trauben weiss 3.25 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N516" t="inlineStr"/>
       <c r="O516" t="inlineStr">
         <is>
-          <t>2023-01-10 12:59:00</t>
+          <t>2023-01-10 20:51:27</t>
         </is>
       </c>
     </row>
     <row r="517">
       <c r="A517" t="inlineStr">
         <is>
-          <t>7031479</t>
+          <t>7129603</t>
         </is>
       </c>
       <c r="B517" t="inlineStr">
         <is>
-          <t>Betty Bossi Pasta &amp;amp; Pesto Vegan</t>
+          <t>Kiwi grün 1 Stück</t>
         </is>
       </c>
       <c r="C517" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fertiggerichte/frische-fertiggerichte/fertigsalate/betty-bossi-pasta-pesto-vegan/p/7031479</t>
+          <t>/de/lebensmittel/fruechte-gemuese/fruechte/kiwis-melonen/kiwi-gruen-1-stueck/p/7129603</t>
         </is>
       </c>
       <c r="D517" t="inlineStr"/>
       <c r="E517" t="n">
         <v>0</v>
       </c>
-      <c r="F517" t="inlineStr">
-        <is>
-          <t>Coop</t>
-        </is>
-      </c>
+      <c r="F517" t="inlineStr"/>
       <c r="G517" t="inlineStr">
         <is>
-          <t>4.80</t>
-        </is>
-      </c>
-      <c r="H517" t="inlineStr">
-        <is>
-          <t>1.85/100g</t>
-        </is>
-      </c>
-      <c r="I517" t="inlineStr">
-        <is>
-          <t>Preis pro 100 Gramm</t>
-        </is>
-      </c>
-      <c r="J517" t="inlineStr">
-        <is>
-          <t>1.85</t>
-        </is>
-      </c>
-      <c r="K517" t="inlineStr">
-        <is>
-          <t>100g</t>
-        </is>
-      </c>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="H517" t="inlineStr"/>
+      <c r="I517" t="inlineStr"/>
+      <c r="J517" t="inlineStr"/>
+      <c r="K517" t="inlineStr"/>
       <c r="L517" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fertiggerichte', 'frische-fertiggerichte', 'fertigsalate']</t>
+          <t>['lebensmittel', 'fruechte-gemuese', 'fruechte', 'kiwis-melonen']</t>
         </is>
       </c>
       <c r="M517" t="inlineStr">
         <is>
-          <t>Betty Bossi Pasta &amp;amp; Pesto Vegan 4.80 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N517" t="inlineStr">
-        <is>
-          <t>['chilled', 'vegan', 'vegetarian']</t>
-        </is>
-      </c>
+          <t>Kiwi grün 1 Stück 0.80 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N517" t="inlineStr"/>
       <c r="O517" t="inlineStr">
         <is>
-          <t>2023-01-10 12:59:00</t>
+          <t>2023-01-10 20:51:27</t>
         </is>
       </c>
     </row>
     <row r="518">
       <c r="A518" t="inlineStr">
         <is>
-          <t>6073299</t>
+          <t>7128828</t>
         </is>
       </c>
       <c r="B518" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Office Snack Box</t>
+          <t>Kiwi SunGold 1 Stück</t>
         </is>
       </c>
       <c r="C518" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fruechte-gemuese/fruechte-gemueseboxen/naturaplan-bio-office-snack-box/p/6073299</t>
-        </is>
-      </c>
-      <c r="D518" t="n">
-        <v>12</v>
-      </c>
+          <t>/de/lebensmittel/fruechte-gemuese/fruechte/kiwis-melonen/kiwi-sungold-1-stueck/p/7128828</t>
+        </is>
+      </c>
+      <c r="D518" t="inlineStr"/>
       <c r="E518" t="n">
-        <v>4</v>
-      </c>
-      <c r="F518" t="inlineStr">
-        <is>
-          <t>Coop</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="F518" t="inlineStr"/>
       <c r="G518" t="inlineStr">
         <is>
-          <t>20.00</t>
-        </is>
-      </c>
-      <c r="H518" t="inlineStr">
-        <is>
-          <t>6.67/1kg</t>
-        </is>
-      </c>
-      <c r="I518" t="inlineStr">
-        <is>
-          <t>Preis pro 1 Kilogramm</t>
-        </is>
-      </c>
-      <c r="J518" t="inlineStr">
-        <is>
-          <t>6.67</t>
-        </is>
-      </c>
-      <c r="K518" t="inlineStr">
-        <is>
-          <t>1kg</t>
-        </is>
-      </c>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="H518" t="inlineStr"/>
+      <c r="I518" t="inlineStr"/>
+      <c r="J518" t="inlineStr"/>
+      <c r="K518" t="inlineStr"/>
       <c r="L518" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fruechte-gemuese', 'fruechte-gemueseboxen']</t>
+          <t>['lebensmittel', 'fruechte-gemuese', 'fruechte', 'kiwis-melonen']</t>
         </is>
       </c>
       <c r="M518" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Office Snack Box 20.00 Schweizer Franken</t>
+          <t>Kiwi SunGold 1 Stück 1.10 Schweizer Franken</t>
         </is>
       </c>
       <c r="N518" t="inlineStr"/>
       <c r="O518" t="inlineStr">
         <is>
-          <t>2023-01-10 12:59:00</t>
+          <t>2023-01-10 20:51:27</t>
         </is>
       </c>
     </row>
     <row r="519">
       <c r="A519" t="inlineStr">
         <is>
-          <t>6984752</t>
+          <t>5766628</t>
         </is>
       </c>
       <c r="B519" t="inlineStr">
         <is>
-          <t>Betty Bossi Dinkel &amp;amp; Randen Mix</t>
+          <t>Primagusto Blutorangen ca. 1kg</t>
         </is>
       </c>
       <c r="C519" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fruechte-gemuese/weiteres-gemuese/pfannenfertiges-gemuese/betty-bossi-dinkel-randen-mix/p/6984752</t>
-        </is>
-      </c>
-      <c r="D519" t="n">
-        <v>1</v>
-      </c>
+          <t>/de/lebensmittel/fruechte-gemuese/fruechte/zitrusfruechte/primagusto-blutorangen-ca/p/5766628</t>
+        </is>
+      </c>
+      <c r="D519" t="inlineStr"/>
       <c r="E519" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F519" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Primagusto</t>
         </is>
       </c>
       <c r="G519" t="inlineStr">
@@ -36155,64 +36103,62 @@
       </c>
       <c r="H519" t="inlineStr">
         <is>
-          <t>1.77/100g</t>
+          <t>4.95/1kg</t>
         </is>
       </c>
       <c r="I519" t="inlineStr">
         <is>
-          <t>Preis pro 100 Gramm</t>
+          <t>Preis pro 1 Kilogramm</t>
         </is>
       </c>
       <c r="J519" t="inlineStr">
         <is>
-          <t>1.77</t>
+          <t>4.95</t>
         </is>
       </c>
       <c r="K519" t="inlineStr">
         <is>
-          <t>100g</t>
+          <t>1kg</t>
         </is>
       </c>
       <c r="L519" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fruechte-gemuese', 'weiteres-gemuese', 'pfannenfertiges-gemuese']</t>
+          <t>['lebensmittel', 'fruechte-gemuese', 'fruechte', 'zitrusfruechte']</t>
         </is>
       </c>
       <c r="M519" t="inlineStr">
         <is>
-          <t>Betty Bossi Dinkel &amp;amp; Randen Mix 4.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N519" t="inlineStr">
-        <is>
-          <t>['chilled']</t>
-        </is>
-      </c>
+          <t>Primagusto Blutorangen ca. 1kg 4.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N519" t="inlineStr"/>
       <c r="O519" t="inlineStr">
         <is>
-          <t>2023-01-10 12:59:00</t>
+          <t>2023-01-10 20:51:27</t>
         </is>
       </c>
     </row>
     <row r="520">
       <c r="A520" t="inlineStr">
         <is>
-          <t>5756809</t>
+          <t>6558113</t>
         </is>
       </c>
       <c r="B520" t="inlineStr">
         <is>
-          <t>Betty Bossi Kopfsalat mit Herzen</t>
+          <t>Prix Garantie Trauben weiss</t>
         </is>
       </c>
       <c r="C520" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fruechte-gemuese/salate/geschnittene-salate/betty-bossi-kopfsalat-mit-herzen/p/5756809</t>
-        </is>
-      </c>
-      <c r="D520" t="inlineStr"/>
+          <t>/de/lebensmittel/fruechte-gemuese/fruechte/trauben-beeren/trauben/prix-garantie-trauben-weiss/p/6558113</t>
+        </is>
+      </c>
+      <c r="D520" t="n">
+        <v>7</v>
+      </c>
       <c r="E520" t="n">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="F520" t="inlineStr">
         <is>
@@ -36221,12 +36167,12 @@
       </c>
       <c r="G520" t="inlineStr">
         <is>
-          <t>4.95</t>
+          <t>2.95</t>
         </is>
       </c>
       <c r="H520" t="inlineStr">
         <is>
-          <t>1.65/100g</t>
+          <t>0.46/100g</t>
         </is>
       </c>
       <c r="I520" t="inlineStr">
@@ -36236,7 +36182,7 @@
       </c>
       <c r="J520" t="inlineStr">
         <is>
-          <t>1.65</t>
+          <t>0.46</t>
         </is>
       </c>
       <c r="K520" t="inlineStr">
@@ -36246,794 +36192,18 @@
       </c>
       <c r="L520" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fruechte-gemuese', 'salate', 'geschnittene-salate']</t>
+          <t>['lebensmittel', 'fruechte-gemuese', 'fruechte', 'trauben-beeren', 'trauben']</t>
         </is>
       </c>
       <c r="M520" t="inlineStr">
         <is>
-          <t>Betty Bossi Kopfsalat mit Herzen - Online kein Bestand 23% Aktion 4.95 Schweizer Franken statt 6.50 Schweizer Franken</t>
+          <t>Prix Garantie Trauben weiss 2.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N520" t="inlineStr"/>
       <c r="O520" t="inlineStr">
         <is>
-          <t>2023-01-10 12:59:00</t>
-        </is>
-      </c>
-    </row>
-    <row r="521">
-      <c r="A521" t="inlineStr">
-        <is>
-          <t>6845831</t>
-        </is>
-      </c>
-      <c r="B521" t="inlineStr">
-        <is>
-          <t>Catalogna</t>
-        </is>
-      </c>
-      <c r="C521" t="inlineStr">
-        <is>
-          <t>/de/lebensmittel/fruechte-gemuese/weiteres-gemuese/blattgemuese-artischocken/catalogna/p/6845831</t>
-        </is>
-      </c>
-      <c r="D521" t="inlineStr"/>
-      <c r="E521" t="n">
-        <v>0</v>
-      </c>
-      <c r="F521" t="inlineStr"/>
-      <c r="G521" t="inlineStr">
-        <is>
-          <t>3.95</t>
-        </is>
-      </c>
-      <c r="H521" t="inlineStr">
-        <is>
-          <t>0.79/100g</t>
-        </is>
-      </c>
-      <c r="I521" t="inlineStr">
-        <is>
-          <t>Preis pro 100 Gramm</t>
-        </is>
-      </c>
-      <c r="J521" t="inlineStr">
-        <is>
-          <t>0.79</t>
-        </is>
-      </c>
-      <c r="K521" t="inlineStr">
-        <is>
-          <t>100g</t>
-        </is>
-      </c>
-      <c r="L521" t="inlineStr">
-        <is>
-          <t>['lebensmittel', 'fruechte-gemuese', 'weiteres-gemuese', 'blattgemuese-artischocken']</t>
-        </is>
-      </c>
-      <c r="M521" t="inlineStr">
-        <is>
-          <t>Catalogna 3.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N521" t="inlineStr"/>
-      <c r="O521" t="inlineStr">
-        <is>
-          <t>2023-01-10 12:59:00</t>
-        </is>
-      </c>
-    </row>
-    <row r="522">
-      <c r="A522" t="inlineStr">
-        <is>
-          <t>7027770</t>
-        </is>
-      </c>
-      <c r="B522" t="inlineStr">
-        <is>
-          <t>The Green Mountain plant-based Gulasch</t>
-        </is>
-      </c>
-      <c r="C522" t="inlineStr">
-        <is>
-          <t>/de/lebensmittel/fleisch-fisch/the-veggie-chef/gehacktes-geschnetzeltes/the-green-mountain-plant-based-gulasch/p/7027770</t>
-        </is>
-      </c>
-      <c r="D522" t="n">
-        <v>1</v>
-      </c>
-      <c r="E522" t="n">
-        <v>4</v>
-      </c>
-      <c r="F522" t="inlineStr">
-        <is>
-          <t>The GREEN MOUNTAIN</t>
-        </is>
-      </c>
-      <c r="G522" t="inlineStr">
-        <is>
-          <t>7.95</t>
-        </is>
-      </c>
-      <c r="H522" t="inlineStr">
-        <is>
-          <t>2.27/100g</t>
-        </is>
-      </c>
-      <c r="I522" t="inlineStr">
-        <is>
-          <t>Preis pro 100 Gramm</t>
-        </is>
-      </c>
-      <c r="J522" t="inlineStr">
-        <is>
-          <t>2.27</t>
-        </is>
-      </c>
-      <c r="K522" t="inlineStr">
-        <is>
-          <t>100g</t>
-        </is>
-      </c>
-      <c r="L522" t="inlineStr">
-        <is>
-          <t>['lebensmittel', 'fleisch-fisch', 'the-veggie-chef', 'gehacktes-geschnetzeltes']</t>
-        </is>
-      </c>
-      <c r="M522" t="inlineStr">
-        <is>
-          <t>The Green Mountain plant-based Gulasch 7.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N522" t="inlineStr">
-        <is>
-          <t>['chilled']</t>
-        </is>
-      </c>
-      <c r="O522" t="inlineStr">
-        <is>
-          <t>2023-01-10 12:59:00</t>
-        </is>
-      </c>
-    </row>
-    <row r="523">
-      <c r="A523" t="inlineStr">
-        <is>
-          <t>7065419</t>
-        </is>
-      </c>
-      <c r="B523" t="inlineStr">
-        <is>
-          <t>Betty Bossi Kürbis &amp;amp; Kichererbsen</t>
-        </is>
-      </c>
-      <c r="C523" t="inlineStr">
-        <is>
-          <t>/de/lebensmittel/fruechte-gemuese/weiteres-gemuese/pfannenfertiges-gemuese/betty-bossi-kuerbis-kichererbsen/p/7065419</t>
-        </is>
-      </c>
-      <c r="D523" t="inlineStr"/>
-      <c r="E523" t="n">
-        <v>0</v>
-      </c>
-      <c r="F523" t="inlineStr">
-        <is>
-          <t>Coop</t>
-        </is>
-      </c>
-      <c r="G523" t="inlineStr">
-        <is>
-          <t>5.50</t>
-        </is>
-      </c>
-      <c r="H523" t="inlineStr">
-        <is>
-          <t>2.75/100g</t>
-        </is>
-      </c>
-      <c r="I523" t="inlineStr">
-        <is>
-          <t>Preis pro 100 Gramm</t>
-        </is>
-      </c>
-      <c r="J523" t="inlineStr">
-        <is>
-          <t>2.75</t>
-        </is>
-      </c>
-      <c r="K523" t="inlineStr">
-        <is>
-          <t>100g</t>
-        </is>
-      </c>
-      <c r="L523" t="inlineStr">
-        <is>
-          <t>['lebensmittel', 'fruechte-gemuese', 'weiteres-gemuese', 'pfannenfertiges-gemuese']</t>
-        </is>
-      </c>
-      <c r="M523" t="inlineStr">
-        <is>
-          <t>Betty Bossi Kürbis &amp;amp; Kichererbsen 5.50 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N523" t="inlineStr">
-        <is>
-          <t>['chilled', 'vegetarian']</t>
-        </is>
-      </c>
-      <c r="O523" t="inlineStr">
-        <is>
-          <t>2023-01-10 12:59:00</t>
-        </is>
-      </c>
-    </row>
-    <row r="524">
-      <c r="A524" t="inlineStr">
-        <is>
-          <t>7102073</t>
-        </is>
-      </c>
-      <c r="B524" t="inlineStr">
-        <is>
-          <t>Baumnüsse</t>
-        </is>
-      </c>
-      <c r="C524" t="inlineStr">
-        <is>
-          <t>/de/lebensmittel/fruechte-gemuese/nuesse-datteln-marroni-und-feigen/baumnuesse/p/7102073</t>
-        </is>
-      </c>
-      <c r="D524" t="inlineStr"/>
-      <c r="E524" t="n">
-        <v>0</v>
-      </c>
-      <c r="F524" t="inlineStr"/>
-      <c r="G524" t="inlineStr">
-        <is>
-          <t>1.00</t>
-        </is>
-      </c>
-      <c r="H524" t="inlineStr">
-        <is>
-          <t>0.40/100g</t>
-        </is>
-      </c>
-      <c r="I524" t="inlineStr">
-        <is>
-          <t>Preis pro 100 Gramm</t>
-        </is>
-      </c>
-      <c r="J524" t="inlineStr">
-        <is>
-          <t>0.40</t>
-        </is>
-      </c>
-      <c r="K524" t="inlineStr">
-        <is>
-          <t>100g</t>
-        </is>
-      </c>
-      <c r="L524" t="inlineStr">
-        <is>
-          <t>['lebensmittel', 'fruechte-gemuese', 'nuesse-datteln-marroni-und-feigen']</t>
-        </is>
-      </c>
-      <c r="M524" t="inlineStr">
-        <is>
-          <t>Baumnüsse Superpreis Aktion 1.00 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N524" t="inlineStr"/>
-      <c r="O524" t="inlineStr">
-        <is>
-          <t>2023-01-10 12:59:00</t>
-        </is>
-      </c>
-    </row>
-    <row r="525">
-      <c r="A525" t="inlineStr">
-        <is>
-          <t>6693270</t>
-        </is>
-      </c>
-      <c r="B525" t="inlineStr">
-        <is>
-          <t>Betty Bossi Zitrus Mix</t>
-        </is>
-      </c>
-      <c r="C525" t="inlineStr">
-        <is>
-          <t>/de/lebensmittel/fruechte-gemuese/fruechte/zitrusfruechte/betty-bossi-zitrus-mix/p/6693270</t>
-        </is>
-      </c>
-      <c r="D525" t="inlineStr"/>
-      <c r="E525" t="n">
-        <v>0</v>
-      </c>
-      <c r="F525" t="inlineStr">
-        <is>
-          <t>Coop</t>
-        </is>
-      </c>
-      <c r="G525" t="inlineStr">
-        <is>
-          <t>3.50</t>
-        </is>
-      </c>
-      <c r="H525" t="inlineStr">
-        <is>
-          <t>2.33/100g</t>
-        </is>
-      </c>
-      <c r="I525" t="inlineStr">
-        <is>
-          <t>Preis pro 100 Gramm</t>
-        </is>
-      </c>
-      <c r="J525" t="inlineStr">
-        <is>
-          <t>2.33</t>
-        </is>
-      </c>
-      <c r="K525" t="inlineStr">
-        <is>
-          <t>100g</t>
-        </is>
-      </c>
-      <c r="L525" t="inlineStr">
-        <is>
-          <t>['lebensmittel', 'fruechte-gemuese', 'fruechte', 'zitrusfruechte']</t>
-        </is>
-      </c>
-      <c r="M525" t="inlineStr">
-        <is>
-          <t>Betty Bossi Zitrus Mix 3.50 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N525" t="inlineStr">
-        <is>
-          <t>['chilled']</t>
-        </is>
-      </c>
-      <c r="O525" t="inlineStr">
-        <is>
-          <t>2023-01-10 12:59:00</t>
-        </is>
-      </c>
-    </row>
-    <row r="526">
-      <c r="A526" t="inlineStr">
-        <is>
-          <t>5947702</t>
-        </is>
-      </c>
-      <c r="B526" t="inlineStr">
-        <is>
-          <t>Fairtrade Trauben Mix kernarm</t>
-        </is>
-      </c>
-      <c r="C526" t="inlineStr">
-        <is>
-          <t>/de/lebensmittel/fruechte-gemuese/fruechte/trauben-beeren/trauben/fairtrade-trauben-mix-kernarm/p/5947702</t>
-        </is>
-      </c>
-      <c r="D526" t="n">
-        <v>41</v>
-      </c>
-      <c r="E526" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="F526" t="inlineStr">
-        <is>
-          <t>Coop</t>
-        </is>
-      </c>
-      <c r="G526" t="inlineStr">
-        <is>
-          <t>3.25</t>
-        </is>
-      </c>
-      <c r="H526" t="inlineStr">
-        <is>
-          <t>0.65/100g</t>
-        </is>
-      </c>
-      <c r="I526" t="inlineStr">
-        <is>
-          <t>Preis pro 100 Gramm</t>
-        </is>
-      </c>
-      <c r="J526" t="inlineStr">
-        <is>
-          <t>0.65</t>
-        </is>
-      </c>
-      <c r="K526" t="inlineStr">
-        <is>
-          <t>100g</t>
-        </is>
-      </c>
-      <c r="L526" t="inlineStr">
-        <is>
-          <t>['lebensmittel', 'fruechte-gemuese', 'fruechte', 'trauben-beeren', 'trauben']</t>
-        </is>
-      </c>
-      <c r="M526" t="inlineStr">
-        <is>
-          <t>Fairtrade Trauben Mix kernarm 3.25 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N526" t="inlineStr"/>
-      <c r="O526" t="inlineStr">
-        <is>
-          <t>2023-01-10 12:59:00</t>
-        </is>
-      </c>
-    </row>
-    <row r="527">
-      <c r="A527" t="inlineStr">
-        <is>
-          <t>5737354</t>
-        </is>
-      </c>
-      <c r="B527" t="inlineStr">
-        <is>
-          <t>Fairtrade Trauben weiss</t>
-        </is>
-      </c>
-      <c r="C527" t="inlineStr">
-        <is>
-          <t>/de/lebensmittel/fruechte-gemuese/fruechte/trauben-beeren/trauben/fairtrade-trauben-weiss/p/5737354</t>
-        </is>
-      </c>
-      <c r="D527" t="n">
-        <v>75</v>
-      </c>
-      <c r="E527" t="n">
-        <v>4</v>
-      </c>
-      <c r="F527" t="inlineStr">
-        <is>
-          <t>Coop</t>
-        </is>
-      </c>
-      <c r="G527" t="inlineStr">
-        <is>
-          <t>3.25</t>
-        </is>
-      </c>
-      <c r="H527" t="inlineStr">
-        <is>
-          <t>0.65/100g</t>
-        </is>
-      </c>
-      <c r="I527" t="inlineStr">
-        <is>
-          <t>Preis pro 100 Gramm</t>
-        </is>
-      </c>
-      <c r="J527" t="inlineStr">
-        <is>
-          <t>0.65</t>
-        </is>
-      </c>
-      <c r="K527" t="inlineStr">
-        <is>
-          <t>100g</t>
-        </is>
-      </c>
-      <c r="L527" t="inlineStr">
-        <is>
-          <t>['lebensmittel', 'fruechte-gemuese', 'fruechte', 'trauben-beeren', 'trauben']</t>
-        </is>
-      </c>
-      <c r="M527" t="inlineStr">
-        <is>
-          <t>Fairtrade Trauben weiss 3.25 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N527" t="inlineStr"/>
-      <c r="O527" t="inlineStr">
-        <is>
-          <t>2023-01-10 12:59:00</t>
-        </is>
-      </c>
-    </row>
-    <row r="528">
-      <c r="A528" t="inlineStr">
-        <is>
-          <t>7129603</t>
-        </is>
-      </c>
-      <c r="B528" t="inlineStr">
-        <is>
-          <t>Kiwi grün 1 Stück</t>
-        </is>
-      </c>
-      <c r="C528" t="inlineStr">
-        <is>
-          <t>/de/lebensmittel/fruechte-gemuese/fruechte/kiwis-melonen/kiwi-gruen-1-stueck/p/7129603</t>
-        </is>
-      </c>
-      <c r="D528" t="inlineStr"/>
-      <c r="E528" t="n">
-        <v>0</v>
-      </c>
-      <c r="F528" t="inlineStr"/>
-      <c r="G528" t="inlineStr">
-        <is>
-          <t>0.80</t>
-        </is>
-      </c>
-      <c r="H528" t="inlineStr"/>
-      <c r="I528" t="inlineStr"/>
-      <c r="J528" t="inlineStr"/>
-      <c r="K528" t="inlineStr"/>
-      <c r="L528" t="inlineStr">
-        <is>
-          <t>['lebensmittel', 'fruechte-gemuese', 'fruechte', 'kiwis-melonen']</t>
-        </is>
-      </c>
-      <c r="M528" t="inlineStr">
-        <is>
-          <t>Kiwi grün 1 Stück 0.80 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N528" t="inlineStr"/>
-      <c r="O528" t="inlineStr">
-        <is>
-          <t>2023-01-10 12:59:00</t>
-        </is>
-      </c>
-    </row>
-    <row r="529">
-      <c r="A529" t="inlineStr">
-        <is>
-          <t>7128828</t>
-        </is>
-      </c>
-      <c r="B529" t="inlineStr">
-        <is>
-          <t>Kiwi SunGold 1 Stück</t>
-        </is>
-      </c>
-      <c r="C529" t="inlineStr">
-        <is>
-          <t>/de/lebensmittel/fruechte-gemuese/fruechte/kiwis-melonen/kiwi-sungold-1-stueck/p/7128828</t>
-        </is>
-      </c>
-      <c r="D529" t="inlineStr"/>
-      <c r="E529" t="n">
-        <v>0</v>
-      </c>
-      <c r="F529" t="inlineStr"/>
-      <c r="G529" t="inlineStr">
-        <is>
-          <t>1.10</t>
-        </is>
-      </c>
-      <c r="H529" t="inlineStr"/>
-      <c r="I529" t="inlineStr"/>
-      <c r="J529" t="inlineStr"/>
-      <c r="K529" t="inlineStr"/>
-      <c r="L529" t="inlineStr">
-        <is>
-          <t>['lebensmittel', 'fruechte-gemuese', 'fruechte', 'kiwis-melonen']</t>
-        </is>
-      </c>
-      <c r="M529" t="inlineStr">
-        <is>
-          <t>Kiwi SunGold 1 Stück 1.10 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N529" t="inlineStr"/>
-      <c r="O529" t="inlineStr">
-        <is>
-          <t>2023-01-10 12:59:00</t>
-        </is>
-      </c>
-    </row>
-    <row r="530">
-      <c r="A530" t="inlineStr">
-        <is>
-          <t>6714133</t>
-        </is>
-      </c>
-      <c r="B530" t="inlineStr">
-        <is>
-          <t>Naturaplan Bio Kiwi</t>
-        </is>
-      </c>
-      <c r="C530" t="inlineStr">
-        <is>
-          <t>/de/lebensmittel/fruechte-gemuese/fruechte/kiwis-melonen/naturaplan-bio-kiwi/p/6714133</t>
-        </is>
-      </c>
-      <c r="D530" t="inlineStr"/>
-      <c r="E530" t="n">
-        <v>0</v>
-      </c>
-      <c r="F530" t="inlineStr">
-        <is>
-          <t>Coop</t>
-        </is>
-      </c>
-      <c r="G530" t="inlineStr">
-        <is>
-          <t>4.60</t>
-        </is>
-      </c>
-      <c r="H530" t="inlineStr">
-        <is>
-          <t>0.92/100g</t>
-        </is>
-      </c>
-      <c r="I530" t="inlineStr">
-        <is>
-          <t>Preis pro 100 Gramm</t>
-        </is>
-      </c>
-      <c r="J530" t="inlineStr">
-        <is>
-          <t>0.92</t>
-        </is>
-      </c>
-      <c r="K530" t="inlineStr">
-        <is>
-          <t>100g</t>
-        </is>
-      </c>
-      <c r="L530" t="inlineStr">
-        <is>
-          <t>['lebensmittel', 'fruechte-gemuese', 'fruechte', 'kiwis-melonen']</t>
-        </is>
-      </c>
-      <c r="M530" t="inlineStr">
-        <is>
-          <t>Naturaplan Bio Kiwi 4.60 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N530" t="inlineStr"/>
-      <c r="O530" t="inlineStr">
-        <is>
-          <t>2023-01-10 12:59:00</t>
-        </is>
-      </c>
-    </row>
-    <row r="531">
-      <c r="A531" t="inlineStr">
-        <is>
-          <t>5766628</t>
-        </is>
-      </c>
-      <c r="B531" t="inlineStr">
-        <is>
-          <t>Primagusto Blutorangen ca. 1kg</t>
-        </is>
-      </c>
-      <c r="C531" t="inlineStr">
-        <is>
-          <t>/de/lebensmittel/fruechte-gemuese/fruechte/zitrusfruechte/primagusto-blutorangen-ca/p/5766628</t>
-        </is>
-      </c>
-      <c r="D531" t="inlineStr"/>
-      <c r="E531" t="n">
-        <v>0</v>
-      </c>
-      <c r="F531" t="inlineStr">
-        <is>
-          <t>Primagusto</t>
-        </is>
-      </c>
-      <c r="G531" t="inlineStr">
-        <is>
-          <t>4.95</t>
-        </is>
-      </c>
-      <c r="H531" t="inlineStr">
-        <is>
-          <t>4.95/1kg</t>
-        </is>
-      </c>
-      <c r="I531" t="inlineStr">
-        <is>
-          <t>Preis pro 1 Kilogramm</t>
-        </is>
-      </c>
-      <c r="J531" t="inlineStr">
-        <is>
-          <t>4.95</t>
-        </is>
-      </c>
-      <c r="K531" t="inlineStr">
-        <is>
-          <t>1kg</t>
-        </is>
-      </c>
-      <c r="L531" t="inlineStr">
-        <is>
-          <t>['lebensmittel', 'fruechte-gemuese', 'fruechte', 'zitrusfruechte']</t>
-        </is>
-      </c>
-      <c r="M531" t="inlineStr">
-        <is>
-          <t>Primagusto Blutorangen ca. 1kg 4.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N531" t="inlineStr"/>
-      <c r="O531" t="inlineStr">
-        <is>
-          <t>2023-01-10 12:59:00</t>
-        </is>
-      </c>
-    </row>
-    <row r="532">
-      <c r="A532" t="inlineStr">
-        <is>
-          <t>6558113</t>
-        </is>
-      </c>
-      <c r="B532" t="inlineStr">
-        <is>
-          <t>Prix Garantie Trauben weiss</t>
-        </is>
-      </c>
-      <c r="C532" t="inlineStr">
-        <is>
-          <t>/de/lebensmittel/fruechte-gemuese/fruechte/trauben-beeren/trauben/prix-garantie-trauben-weiss/p/6558113</t>
-        </is>
-      </c>
-      <c r="D532" t="n">
-        <v>7</v>
-      </c>
-      <c r="E532" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="F532" t="inlineStr">
-        <is>
-          <t>Coop</t>
-        </is>
-      </c>
-      <c r="G532" t="inlineStr">
-        <is>
-          <t>2.95</t>
-        </is>
-      </c>
-      <c r="H532" t="inlineStr">
-        <is>
-          <t>0.46/100g</t>
-        </is>
-      </c>
-      <c r="I532" t="inlineStr">
-        <is>
-          <t>Preis pro 100 Gramm</t>
-        </is>
-      </c>
-      <c r="J532" t="inlineStr">
-        <is>
-          <t>0.46</t>
-        </is>
-      </c>
-      <c r="K532" t="inlineStr">
-        <is>
-          <t>100g</t>
-        </is>
-      </c>
-      <c r="L532" t="inlineStr">
-        <is>
-          <t>['lebensmittel', 'fruechte-gemuese', 'fruechte', 'trauben-beeren', 'trauben']</t>
-        </is>
-      </c>
-      <c r="M532" t="inlineStr">
-        <is>
-          <t>Prix Garantie Trauben weiss 2.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N532" t="inlineStr"/>
-      <c r="O532" t="inlineStr">
-        <is>
-          <t>2023-01-10 12:59:00</t>
+          <t>2023-01-10 20:51:27</t>
         </is>
       </c>
     </row>
